--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cao Huy\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC236F1B-BACD-4D34-9388-4688F1DF873E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{B2E66A03-548A-4599-ABE0-3DA9B02E68EC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,15 +25,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>https://cachhoc.net/2013/10/13/thuat-toan-tim-duong-di-ngan-nhat-dijkstra-floyd/</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Len</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>a-&gt;i</t>
+  </si>
+  <si>
+    <t>Truy Vet</t>
+  </si>
+  <si>
+    <t>Dac Biet</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +110,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -82,15 +133,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,11 +474,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04041ECC-1989-49EF-8324-7919FF076037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14:AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2574,19 +2643,455 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:Z26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0"/>
-        <color rgb="FFFFC000"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AB9" r:id="rId1" xr:uid="{70C95811-A76A-4A74-B77D-936A1B8A69BC}"/>
+    <hyperlink ref="AB9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>5</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4</v>
+      </c>
+      <c r="I7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>104</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>104</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>104</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>104</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>104</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>104</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cao Huy\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592F2D4-8C1E-4154-9645-FC59BF7D4EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
   <si>
     <t>https://cachhoc.net/2013/10/13/thuat-toan-tim-duong-di-ngan-nhat-dijkstra-floyd/</t>
   </si>
@@ -80,11 +82,20 @@
   <si>
     <t>i</t>
   </si>
+  <si>
+    <t>},</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}};</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -160,13 +171,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -474,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14:AI22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +619,8 @@
       <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <f>IF(AB3=10,1,0)</f>
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -663,7 +712,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
+        <f>IF(AB3=10,1,0)</f>
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -2644,17 +2694,3008 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB9" r:id="rId1"/>
+    <hyperlink ref="AB9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A704CB13-5F3F-47F3-B750-56CFBFB9D202}">
+  <dimension ref="A1:AH26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W32" sqref="W32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="26" width="5.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="C1" s="6">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6">
+        <v>20</v>
+      </c>
+      <c r="N1" s="6">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6">
+        <v>22</v>
+      </c>
+      <c r="P1" s="6">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>24</v>
+      </c>
+      <c r="R1" s="6">
+        <v>30</v>
+      </c>
+      <c r="S1" s="6">
+        <v>31</v>
+      </c>
+      <c r="T1" s="6">
+        <v>32</v>
+      </c>
+      <c r="U1" s="6">
+        <v>33</v>
+      </c>
+      <c r="V1" s="6">
+        <v>34</v>
+      </c>
+      <c r="W1" s="6">
+        <v>40</v>
+      </c>
+      <c r="X1" s="6">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="6">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="6">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="6">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="6" t="str">
+        <f>IF(W32=1,IF(V32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>IF(AE2=1,IF(AD2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>IF(Y32=1,IF(X32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>IF(Z32=1,IF(Y32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G2" s="6" t="str">
+        <f>IF(AA32=1,IF(Z32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>IF(AD3=1,IF(AD2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="I2" s="6" t="str">
+        <f>IF(AC32=1,IF(AB32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f>IF(AD32=1,IF(AC32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K2" s="6" t="str">
+        <f>IF(AE32=1,IF(AD32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L2" s="6" t="str">
+        <f>IF(AF32=1,IF(AE32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M2" s="6" t="str">
+        <f>IF(AG32=1,IF(AF32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N2" s="6" t="str">
+        <f>IF(AH32=1,IF(AG32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O2" s="6" t="str">
+        <f>IF(AI32=1,IF(AH32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P2" s="6" t="str">
+        <f>IF(AJ32=1,IF(AI32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q2" s="6" t="str">
+        <f>IF(AK32=1,IF(AJ32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R2" s="6" t="str">
+        <f>IF(AL32=1,IF(AK32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S2" s="6" t="str">
+        <f>IF(AM32=1,IF(AL32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T2" s="6" t="str">
+        <f>IF(AN32=1,IF(AM32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U2" s="6" t="str">
+        <f>IF(AO32=1,IF(AN32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V2" s="6" t="str">
+        <f>IF(AP32=1,IF(AO32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W2" s="6" t="str">
+        <f>IF(AQ32=1,IF(AP32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X2" s="6" t="str">
+        <f>IF(AR32=1,IF(AQ32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y2" s="6" t="str">
+        <f>IF(AS32=1,IF(AR32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z2" s="6" t="str">
+        <f>IF(AT32=1,IF(AS32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA2" s="6" t="str">
+        <f>IF(AU32=1,IF(AT32=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="str">
+        <f>IF(AE2=1,IF(AD2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="D3" s="6" t="str">
+        <f>IF(X33=1,IF(W33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E3" s="3" t="str">
+        <f>IF(AF2=1,IF(AE2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f>IF(Z33=1,IF(Y33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G3" s="6" t="str">
+        <f>IF(AA33=1,IF(Z33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f>IF(AB33=1,IF(AA33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f>IF(AE3=1,IF(AE2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="J3" s="6" t="str">
+        <f>IF(AD33=1,IF(AC33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K3" s="6" t="str">
+        <f>IF(AE33=1,IF(AD33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L3" s="6" t="str">
+        <f>IF(AF33=1,IF(AE33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M3" s="6" t="str">
+        <f>IF(AG33=1,IF(AF33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N3" s="6" t="str">
+        <f>IF(AH33=1,IF(AG33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O3" s="6" t="str">
+        <f>IF(AI33=1,IF(AH33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P3" s="6" t="str">
+        <f>IF(AJ33=1,IF(AI33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q3" s="6" t="str">
+        <f>IF(AK33=1,IF(AJ33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R3" s="6" t="str">
+        <f>IF(AL33=1,IF(AK33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S3" s="6" t="str">
+        <f>IF(AM33=1,IF(AL33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T3" s="6" t="str">
+        <f>IF(AN33=1,IF(AM33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U3" s="6" t="str">
+        <f>IF(AO33=1,IF(AN33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V3" s="6" t="str">
+        <f>IF(AP33=1,IF(AO33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W3" s="6" t="str">
+        <f>IF(AQ33=1,IF(AP33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X3" s="6" t="str">
+        <f>IF(AR33=1,IF(AQ33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y3" s="6" t="str">
+        <f>IF(AS33=1,IF(AR33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z3" s="6" t="str">
+        <f>IF(AT33=1,IF(AS33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA3" s="6" t="str">
+        <f>IF(AU33=1,IF(AT33=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>IF(W34=1,IF(V34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>IF(AF2=1,IF(AE2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f>IF(Y34=1,IF(X34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="G4" s="6" t="str">
+        <f>IF(AA34=1,IF(Z34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f>IF(AB34=1,IF(AA34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I4" s="6" t="str">
+        <f>IF(AC34=1,IF(AB34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f>IF(AF3=1,IF(AF2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f>IF(AE34=1,IF(AD34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L4" s="6" t="str">
+        <f>IF(AF34=1,IF(AE34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M4" s="6" t="str">
+        <f>IF(AG34=1,IF(AF34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N4" s="6" t="str">
+        <f>IF(AH34=1,IF(AG34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O4" s="6" t="str">
+        <f>IF(AI34=1,IF(AH34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f>IF(AJ34=1,IF(AI34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q4" s="6" t="str">
+        <f>IF(AK34=1,IF(AJ34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R4" s="6" t="str">
+        <f>IF(AL34=1,IF(AK34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S4" s="6" t="str">
+        <f>IF(AM34=1,IF(AL34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T4" s="6" t="str">
+        <f>IF(AN34=1,IF(AM34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U4" s="6" t="str">
+        <f>IF(AO34=1,IF(AN34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V4" s="6" t="str">
+        <f>IF(AP34=1,IF(AO34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W4" s="6" t="str">
+        <f>IF(AQ34=1,IF(AP34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X4" s="6" t="str">
+        <f>IF(AR34=1,IF(AQ34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y4" s="6" t="str">
+        <f>IF(AS34=1,IF(AR34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z4" s="6" t="str">
+        <f>IF(AT34=1,IF(AS34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA4" s="6" t="str">
+        <f>IF(AU34=1,IF(AT34=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6" t="str">
+        <f>IF(W35=1,IF(V35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D5" s="6" t="str">
+        <f>IF(X35=1,IF(W35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f>IF(Z35=1,IF(Y35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G5" s="6" t="str">
+        <f>IF(AG2=1,IF(AH2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f>IF(AB35=1,IF(AA35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>IF(AC35=1,IF(AB35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J5" s="6" t="str">
+        <f>IF(AD35=1,IF(AC35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f>IF(AG3=1,IF(AG2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f>IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M5" s="6" t="str">
+        <f>IF(AG35=1,IF(AF35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N5" s="6" t="str">
+        <f>IF(AH35=1,IF(AG35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O5" s="6" t="str">
+        <f>IF(AI35=1,IF(AH35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P5" s="6" t="str">
+        <f>IF(AJ35=1,IF(AI35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q5" s="6" t="str">
+        <f>IF(AK35=1,IF(AJ35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R5" s="6" t="str">
+        <f>IF(AL35=1,IF(AK35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S5" s="6" t="str">
+        <f>IF(AM35=1,IF(AL35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T5" s="6" t="str">
+        <f>IF(AN35=1,IF(AM35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U5" s="6" t="str">
+        <f>IF(AO35=1,IF(AN35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V5" s="6" t="str">
+        <f>IF(AP35=1,IF(AO35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W5" s="6" t="str">
+        <f>IF(AQ35=1,IF(AP35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X5" s="6" t="str">
+        <f>IF(AR35=1,IF(AQ35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y5" s="6" t="str">
+        <f>IF(AS35=1,IF(AR35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z5" s="6" t="str">
+        <f>IF(AT35=1,IF(AS35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA5" s="6" t="str">
+        <f>IF(AU35=1,IF(AT35=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5">
+        <v>3</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>IF(W36=1,IF(V36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D6" s="6" t="str">
+        <f>IF(X36=1,IF(W36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f>IF(Y36=1,IF(X36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f>IF(AG2=1,IF(AH2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="G6" s="6" t="str">
+        <f>IF(AA36=1,IF(Z36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f>IF(AB36=1,IF(AA36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>IF(AC36=1,IF(AB36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J6" s="6" t="str">
+        <f>IF(AD36=1,IF(AC36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f>IF(AE36=1,IF(AD36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f>IF(AH3=1,IF(AH2=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="M6" s="6" t="str">
+        <f>IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N6" s="6" t="str">
+        <f>IF(AH36=1,IF(AG36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O6" s="6" t="str">
+        <f>IF(AI36=1,IF(AH36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P6" s="6" t="str">
+        <f>IF(AJ36=1,IF(AI36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q6" s="6" t="str">
+        <f>IF(AK36=1,IF(AJ36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R6" s="6" t="str">
+        <f>IF(AL36=1,IF(AK36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S6" s="6" t="str">
+        <f>IF(AM36=1,IF(AL36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T6" s="6" t="str">
+        <f>IF(AN36=1,IF(AM36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U6" s="6" t="str">
+        <f>IF(AO36=1,IF(AN36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V6" s="6" t="str">
+        <f>IF(AP36=1,IF(AO36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W6" s="6" t="str">
+        <f>IF(AQ36=1,IF(AP36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X6" s="6" t="str">
+        <f>IF(AR36=1,IF(AQ36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y6" s="6" t="str">
+        <f>IF(AS36=1,IF(AR36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z6" s="6" t="str">
+        <f>IF(AT36=1,IF(AS36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA6" s="6" t="str">
+        <f>IF(AU36=1,IF(AT36=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>1</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="str">
+        <f>$H$2</f>
+        <v>1,</v>
+      </c>
+      <c r="D7" s="6" t="str">
+        <f>IF(X37=1,IF(W37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f>IF(Y37=1,IF(X37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f>IF(Z37=1,IF(Y37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G7" s="6" t="str">
+        <f>IF(AA37=1,IF(Z37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f>IF(AB37=1,IF(AA37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>IF(AD3=1,IF(AE3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="J7" s="6" t="str">
+        <f>IF(AD37=1,IF(AC37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f>IF(AE37=1,IF(AD37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L7" s="6" t="str">
+        <f>IF(AF37=1,IF(AE37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f>IF(AD4=1,IF(AD3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="N7" s="6" t="str">
+        <f>IF(AH37=1,IF(AG37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O7" s="6" t="str">
+        <f>IF(AI37=1,IF(AH37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P7" s="6" t="str">
+        <f>IF(AJ37=1,IF(AI37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q7" s="6" t="str">
+        <f>IF(AK37=1,IF(AJ37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R7" s="6" t="str">
+        <f>IF(AL37=1,IF(AK37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S7" s="6" t="str">
+        <f>IF(AM37=1,IF(AL37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T7" s="6" t="str">
+        <f>IF(AN37=1,IF(AM37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U7" s="6" t="str">
+        <f>IF(AO37=1,IF(AN37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V7" s="6" t="str">
+        <f>IF(AP37=1,IF(AO37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W7" s="6" t="str">
+        <f>IF(AQ37=1,IF(AP37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X7" s="6" t="str">
+        <f>IF(AR37=1,IF(AQ37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y7" s="6" t="str">
+        <f>IF(AS37=1,IF(AR37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z7" s="6" t="str">
+        <f>IF(AT37=1,IF(AS37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA7" s="6" t="str">
+        <f>IF(AU37=1,IF(AT37=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="str">
+        <f>IF(W38=1,IF(V38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D8" s="6" t="str">
+        <f>$I$3</f>
+        <v>1,</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f>IF(Y38=1,IF(X38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>IF(Z38=1,IF(Y38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f>IF(AA38=1,IF(Z38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f>IF(AD3=1,IF(AE3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>IF(AC38=1,IF(AB38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J8" s="6" t="str">
+        <f>IF(AE3=1,IF(AF3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="K8" s="6" t="str">
+        <f>IF(AE38=1,IF(AD38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L8" s="6" t="str">
+        <f>IF(AF38=1,IF(AE38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M8" s="6" t="str">
+        <f>IF(AG38=1,IF(AF38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N8" s="3" t="str">
+        <f>IF(AE4=1,IF(AE3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="O8" s="6" t="str">
+        <f>IF(AI38=1,IF(AH38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f>IF(AJ38=1,IF(AI38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q8" s="6" t="str">
+        <f>IF(AK38=1,IF(AJ38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R8" s="6" t="str">
+        <f>IF(AL38=1,IF(AK38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S8" s="6" t="str">
+        <f>IF(AM38=1,IF(AL38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T8" s="6" t="str">
+        <f>IF(AN38=1,IF(AM38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U8" s="6" t="str">
+        <f>IF(AO38=1,IF(AN38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V8" s="6" t="str">
+        <f>IF(AP38=1,IF(AO38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W8" s="6" t="str">
+        <f>IF(AQ38=1,IF(AP38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X8" s="6" t="str">
+        <f>IF(AR38=1,IF(AQ38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y8" s="6" t="str">
+        <f>IF(AS38=1,IF(AR38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z8" s="6" t="str">
+        <f>IF(AT38=1,IF(AS38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA8" s="6" t="str">
+        <f>IF(AU38=1,IF(AT38=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="str">
+        <f>IF(W39=1,IF(V39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D9" s="6" t="str">
+        <f>IF(X39=1,IF(W39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f>$J$4</f>
+        <v>1,</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f>IF(Z39=1,IF(Y39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G9" s="6" t="str">
+        <f>IF(AA39=1,IF(Z39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f>IF(AB39=1,IF(AA39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>IF(AE3=1,IF(AF3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="J9" s="6" t="str">
+        <f>IF(AD39=1,IF(AC39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="L9" s="6" t="str">
+        <f>IF(AF39=1,IF(AE39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M9" s="6" t="str">
+        <f>IF(AG39=1,IF(AF39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N9" s="6" t="str">
+        <f>IF(AH39=1,IF(AG39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O9" s="3" t="str">
+        <f>IF(AF4=1,IF(AF3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f>IF(AJ39=1,IF(AI39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q9" s="6" t="str">
+        <f>IF(AK39=1,IF(AJ39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R9" s="6" t="str">
+        <f>IF(AL39=1,IF(AK39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S9" s="6" t="str">
+        <f>IF(AM39=1,IF(AL39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T9" s="6" t="str">
+        <f>IF(AN39=1,IF(AM39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U9" s="6" t="str">
+        <f>IF(AO39=1,IF(AN39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V9" s="6" t="str">
+        <f>IF(AP39=1,IF(AO39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W9" s="6" t="str">
+        <f>IF(AQ39=1,IF(AP39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X9" s="6" t="str">
+        <f>IF(AR39=1,IF(AQ39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y9" s="6" t="str">
+        <f>IF(AS39=1,IF(AR39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z9" s="6" t="str">
+        <f>IF(AT39=1,IF(AS39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA9" s="6" t="str">
+        <f>IF(AU39=1,IF(AT39=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6" t="str">
+        <f>IF(W40=1,IF(V40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D10" s="6" t="str">
+        <f>IF(X40=1,IF(W40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f>IF(Y40=1,IF(X40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f>$K$5</f>
+        <v>1,</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f>IF(AA40=1,IF(Z40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f>IF(AB40=1,IF(AA40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>IF(AC40=1,IF(AB40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J10" s="6" t="str">
+        <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f>IF(AE40=1,IF(AD40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L10" s="6" t="str">
+        <f>IF(AG3=1,IF(AH3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="M10" s="6" t="str">
+        <f>IF(AG40=1,IF(AF40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N10" s="6" t="str">
+        <f>IF(AH40=1,IF(AG40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O10" s="6" t="str">
+        <f>IF(AI40=1,IF(AH40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P10" s="3" t="str">
+        <f>IF(AG4=1,IF(AG3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Q10" s="6" t="str">
+        <f>IF(AK40=1,IF(AJ40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R10" s="6" t="str">
+        <f>IF(AL40=1,IF(AK40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S10" s="6" t="str">
+        <f>IF(AM40=1,IF(AL40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T10" s="6" t="str">
+        <f>IF(AN40=1,IF(AM40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U10" s="6" t="str">
+        <f>IF(AO40=1,IF(AN40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V10" s="6" t="str">
+        <f>IF(AP40=1,IF(AO40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W10" s="6" t="str">
+        <f>IF(AQ40=1,IF(AP40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X10" s="6" t="str">
+        <f>IF(AR40=1,IF(AQ40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y10" s="6" t="str">
+        <f>IF(AS40=1,IF(AR40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z10" s="6" t="str">
+        <f>IF(AT40=1,IF(AS40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA10" s="6" t="str">
+        <f>IF(AU40=1,IF(AT40=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6" t="str">
+        <f>IF(W41=1,IF(V41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D11" s="6" t="str">
+        <f>IF(X41=1,IF(W41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f>IF(Y41=1,IF(X41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f>IF(Z41=1,IF(Y41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G11" s="6" t="str">
+        <f>$L$6</f>
+        <v>1,</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f>IF(AB41=1,IF(AA41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I11" s="6" t="str">
+        <f>IF(AC41=1,IF(AB41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J11" s="6" t="str">
+        <f>IF(AD41=1,IF(AC41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f>IF(AG3=1,IF(AH3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="L11" s="6" t="str">
+        <f>IF(AF41=1,IF(AE41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M11" s="6" t="str">
+        <f>IF(AG41=1,IF(AF41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N11" s="6" t="str">
+        <f>IF(AH41=1,IF(AG41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O11" s="6" t="str">
+        <f>IF(AI41=1,IF(AH41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f>IF(AJ41=1,IF(AI41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q11" s="3" t="str">
+        <f>IF(AH4=1,IF(AH3=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="R11" s="6" t="str">
+        <f>IF(AL41=1,IF(AK41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S11" s="6" t="str">
+        <f>IF(AM41=1,IF(AL41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T11" s="6" t="str">
+        <f>IF(AN41=1,IF(AM41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U11" s="6" t="str">
+        <f>IF(AO41=1,IF(AN41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V11" s="6" t="str">
+        <f>IF(AP41=1,IF(AO41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W11" s="6" t="str">
+        <f>IF(AQ41=1,IF(AP41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X11" s="6" t="str">
+        <f>IF(AR41=1,IF(AQ41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y11" s="6" t="str">
+        <f>IF(AS41=1,IF(AR41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z11" s="6" t="str">
+        <f>IF(AT41=1,IF(AS41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA11" s="6" t="str">
+        <f>IF(AU41=1,IF(AT41=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>IF(W42=1,IF(V42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f>IF(X42=1,IF(W42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f>IF(Y42=1,IF(X42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f>IF(Z42=1,IF(Y42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f>IF(AA42=1,IF(Z42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f>$M$7</f>
+        <v>1,</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>IF(AC42=1,IF(AB42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J12" s="6" t="str">
+        <f>IF(AD42=1,IF(AC42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K12" s="6" t="str">
+        <f>IF(AE42=1,IF(AD42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L12" s="6" t="str">
+        <f>IF(AF42=1,IF(AE42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M12" s="6" t="str">
+        <f>IF(AG42=1,IF(AF42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>IF(AD4=1,IF(AE4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="O12" s="6" t="str">
+        <f>IF(AI42=1,IF(AH42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P12" s="6" t="str">
+        <f>IF(AJ42=1,IF(AI42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q12" s="6" t="str">
+        <f>IF(AK42=1,IF(AJ42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R12" s="3" t="str">
+        <f>IF(AD5=1,IF(AD4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="S12" s="6" t="str">
+        <f>IF(AM42=1,IF(AL42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T12" s="6" t="str">
+        <f>IF(AN42=1,IF(AM42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U12" s="6" t="str">
+        <f>IF(AO42=1,IF(AN42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V12" s="6" t="str">
+        <f>IF(AP42=1,IF(AO42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W12" s="6" t="str">
+        <f>IF(AQ42=1,IF(AP42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X12" s="6" t="str">
+        <f>IF(AR42=1,IF(AQ42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y12" s="6" t="str">
+        <f>IF(AS42=1,IF(AR42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z12" s="6" t="str">
+        <f>IF(AT42=1,IF(AS42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA12" s="6" t="str">
+        <f>IF(AU42=1,IF(AT42=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="str">
+        <f>IF(W43=1,IF(V43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D13" s="6" t="str">
+        <f>IF(X43=1,IF(W43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f>IF(Y43=1,IF(X43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f>IF(Z43=1,IF(Y43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G13" s="6" t="str">
+        <f>IF(AA43=1,IF(Z43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f>IF(AB43=1,IF(AA43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>$N$8</f>
+        <v>1,</v>
+      </c>
+      <c r="J13" s="6" t="str">
+        <f>IF(AD43=1,IF(AC43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K13" s="6" t="str">
+        <f>IF(AE43=1,IF(AD43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L13" s="6" t="str">
+        <f>IF(AF43=1,IF(AE43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M13" s="6" t="str">
+        <f>IF(AE4=1,IF(AD4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f>IF(AH43=1,IF(AG43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O13" s="6" t="str">
+        <f>IF(AE4=1,IF(AF4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="P13" s="6" t="str">
+        <f>IF(AJ43=1,IF(AI43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q13" s="6" t="str">
+        <f>IF(AK43=1,IF(AJ43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R13" s="6" t="str">
+        <f>IF(AL43=1,IF(AK43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S13" s="3" t="str">
+        <f>IF(AE5=1,IF(AE4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="T13" s="6" t="str">
+        <f>IF(AN43=1,IF(AM43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U13" s="6" t="str">
+        <f>IF(AO43=1,IF(AN43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V13" s="6" t="str">
+        <f>IF(AP43=1,IF(AO43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W13" s="6" t="str">
+        <f>IF(AQ43=1,IF(AP43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X13" s="6" t="str">
+        <f>IF(AR43=1,IF(AQ43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y13" s="6" t="str">
+        <f>IF(AS43=1,IF(AR43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z13" s="6" t="str">
+        <f>IF(AT43=1,IF(AS43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA13" s="6" t="str">
+        <f>IF(AU43=1,IF(AT43=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="str">
+        <f>IF(W44=1,IF(V44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D14" s="6" t="str">
+        <f>IF(X44=1,IF(W44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f>IF(Y44=1,IF(X44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f>IF(Z44=1,IF(Y44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f>IF(AA44=1,IF(Z44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f>IF(AB44=1,IF(AA44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>IF(AC44=1,IF(AB44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J14" s="6" t="str">
+        <f>$O$9</f>
+        <v>1,</v>
+      </c>
+      <c r="K14" s="6" t="str">
+        <f>IF(AE44=1,IF(AD44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L14" s="6" t="str">
+        <f>IF(AF44=1,IF(AE44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M14" s="6" t="str">
+        <f>IF(AG44=1,IF(AF44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f>IF(AE4=1,IF(AF4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="O14" s="6" t="str">
+        <f>IF(AI44=1,IF(AH44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P14" s="6" t="str">
+        <f>IF(AF4=1,IF(AG4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Q14" s="6" t="str">
+        <f>IF(AK44=1,IF(AJ44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R14" s="6" t="str">
+        <f>IF(AL44=1,IF(AK44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S14" s="6" t="str">
+        <f>IF(AM44=1,IF(AL44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T14" s="3" t="str">
+        <f>IF(AF5=1,IF(AF4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="U14" s="6" t="str">
+        <f>IF(AO44=1,IF(AN44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V14" s="6" t="str">
+        <f>IF(AP44=1,IF(AO44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W14" s="6" t="str">
+        <f>IF(AQ44=1,IF(AP44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X14" s="6" t="str">
+        <f>IF(AR44=1,IF(AQ44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y14" s="6" t="str">
+        <f>IF(AS44=1,IF(AR44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z14" s="6" t="str">
+        <f>IF(AT44=1,IF(AS44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA14" s="6" t="str">
+        <f>IF(AU44=1,IF(AT44=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="6" t="str">
+        <f>IF(W45=1,IF(V45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D15" s="6" t="str">
+        <f>IF(X45=1,IF(W45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f>IF(Y45=1,IF(X45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f>IF(Z45=1,IF(Y45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>IF(AA45=1,IF(Z45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f>IF(AB45=1,IF(AA45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I15" s="6" t="str">
+        <f>IF(AC45=1,IF(AB45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J15" s="6" t="str">
+        <f>IF(AD45=1,IF(AC45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K15" s="6" t="str">
+        <f>$P$10</f>
+        <v>1,</v>
+      </c>
+      <c r="L15" s="6" t="str">
+        <f>IF(AF45=1,IF(AE45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M15" s="6" t="str">
+        <f>IF(AG45=1,IF(AF45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f>IF(AH45=1,IF(AG45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O15" s="6" t="str">
+        <f>IF(AF4=1,IF(AG4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f>IF(AJ45=1,IF(AI45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q15" s="6" t="str">
+        <f>IF(AG4=1,IF(AH4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="R15" s="6" t="str">
+        <f>IF(AL45=1,IF(AK45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S15" s="6" t="str">
+        <f>IF(AM45=1,IF(AL45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T15" s="6" t="str">
+        <f>IF(AN45=1,IF(AM45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U15" s="3" t="str">
+        <f>IF(AG5=1,IF(AG4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="V15" s="6" t="str">
+        <f>IF(AP45=1,IF(AO45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W15" s="6" t="str">
+        <f>IF(AQ45=1,IF(AP45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X15" s="6" t="str">
+        <f>IF(AR45=1,IF(AQ45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y15" s="6" t="str">
+        <f>IF(AS45=1,IF(AR45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z15" s="6" t="str">
+        <f>IF(AT45=1,IF(AS45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA15" s="6" t="str">
+        <f>IF(AU45=1,IF(AT45=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="str">
+        <f>IF(W46=1,IF(V46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D16" s="6" t="str">
+        <f>IF(X46=1,IF(W46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f>IF(Y46=1,IF(X46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f>IF(Z46=1,IF(Y46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f>IF(AA46=1,IF(Z46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f>IF(AB46=1,IF(AA46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>IF(AC46=1,IF(AB46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J16" s="6" t="str">
+        <f>IF(AD46=1,IF(AC46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K16" s="6" t="str">
+        <f>IF(AE46=1,IF(AD46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L16" s="6" t="str">
+        <f>$Q$11</f>
+        <v>1,</v>
+      </c>
+      <c r="M16" s="6" t="str">
+        <f>IF(AG46=1,IF(AF46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f>IF(AH46=1,IF(AG46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O16" s="6" t="str">
+        <f>IF(AI46=1,IF(AH46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P16" s="6" t="str">
+        <f>IF(AG4=1,IF(AH4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Q16" s="6" t="str">
+        <f>IF(AK46=1,IF(AJ46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R16" s="6" t="str">
+        <f>IF(AL46=1,IF(AK46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S16" s="6" t="str">
+        <f>IF(AM46=1,IF(AL46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T16" s="6" t="str">
+        <f>IF(AN46=1,IF(AM46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U16" s="6" t="str">
+        <f>IF(AO46=1,IF(AN46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V16" s="3" t="str">
+        <f>IF(AH5=1,IF(AH4=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="W16" s="6" t="str">
+        <f>IF(AQ46=1,IF(AP46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X16" s="6" t="str">
+        <f>IF(AR46=1,IF(AQ46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y16" s="6" t="str">
+        <f>IF(AS46=1,IF(AR46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z16" s="6" t="str">
+        <f>IF(AT46=1,IF(AS46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA16" s="6" t="str">
+        <f>IF(AU46=1,IF(AT46=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="6" t="str">
+        <f>IF(W47=1,IF(V47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D17" s="6" t="str">
+        <f>IF(X47=1,IF(W47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f>IF(Y47=1,IF(X47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f>IF(Z47=1,IF(Y47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>IF(AA47=1,IF(Z47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f>IF(AB47=1,IF(AA47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>IF(AC47=1,IF(AB47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J17" s="6" t="str">
+        <f>IF(AD47=1,IF(AC47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K17" s="6" t="str">
+        <f>IF(AE47=1,IF(AD47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L17" s="6" t="str">
+        <f>IF(AF47=1,IF(AE47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M17" s="6" t="str">
+        <f>$R$12</f>
+        <v>1,</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f>IF(AH47=1,IF(AG47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O17" s="6" t="str">
+        <f>IF(AI47=1,IF(AH47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P17" s="6" t="str">
+        <f>IF(AJ47=1,IF(AI47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q17" s="6" t="str">
+        <f>IF(AK47=1,IF(AJ47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R17" s="6" t="str">
+        <f>IF(AL47=1,IF(AK47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S17" s="6" t="str">
+        <f>IF(AD5=1,IF(AE5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="T17" s="6" t="str">
+        <f>IF(AN47=1,IF(AM47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U17" s="6" t="str">
+        <f>IF(AO47=1,IF(AN47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V17" s="6" t="str">
+        <f>IF(AP47=1,IF(AO47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W17" s="3" t="str">
+        <f>IF(AD6=1,IF(AD5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="X17" s="6" t="str">
+        <f>IF(AR47=1,IF(AQ47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y17" s="6" t="str">
+        <f>IF(AS47=1,IF(AR47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z17" s="6" t="str">
+        <f>IF(AT47=1,IF(AS47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA17" s="6" t="str">
+        <f>IF(AU47=1,IF(AT47=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>31</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="6" t="str">
+        <f>IF(W48=1,IF(V48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D18" s="6" t="str">
+        <f>IF(X48=1,IF(W48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f>IF(Y48=1,IF(X48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f>IF(Z48=1,IF(Y48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G18" s="6" t="str">
+        <f>IF(AA48=1,IF(Z48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f>IF(AB48=1,IF(AA48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I18" s="6" t="str">
+        <f>IF(AC48=1,IF(AB48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J18" s="6" t="str">
+        <f>IF(AD48=1,IF(AC48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K18" s="6" t="str">
+        <f>IF(AE48=1,IF(AD48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L18" s="6" t="str">
+        <f>IF(AF48=1,IF(AE48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M18" s="6" t="str">
+        <f>IF(AG48=1,IF(AF48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f>$S$13</f>
+        <v>1,</v>
+      </c>
+      <c r="O18" s="6" t="str">
+        <f>IF(AI48=1,IF(AH48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P18" s="6" t="str">
+        <f>IF(AJ48=1,IF(AI48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q18" s="6" t="str">
+        <f>IF(AK48=1,IF(AJ48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R18" s="6" t="str">
+        <f>IF(AD5=1,IF(AE5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="S18" s="6" t="str">
+        <f>IF(AM48=1,IF(AL48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T18" s="6" t="str">
+        <f>IF(AE5=1,IF(AF5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="U18" s="6" t="str">
+        <f>IF(AO48=1,IF(AN48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V18" s="6" t="str">
+        <f>IF(AP48=1,IF(AO48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W18" s="6" t="str">
+        <f>IF(AQ48=1,IF(AP48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X18" s="3" t="str">
+        <f>IF(AE6=1,IF(AE5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Y18" s="6" t="str">
+        <f>IF(AS48=1,IF(AR48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z18" s="6" t="str">
+        <f>IF(AT48=1,IF(AS48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA18" s="6" t="str">
+        <f>IF(AU48=1,IF(AT48=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>32</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="6" t="str">
+        <f>IF(W49=1,IF(V49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D19" s="6" t="str">
+        <f>IF(X49=1,IF(W49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f>IF(Y49=1,IF(X49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f>IF(Z49=1,IF(Y49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>IF(AA49=1,IF(Z49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f>IF(AB49=1,IF(AA49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I19" s="6" t="str">
+        <f>IF(AC49=1,IF(AB49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f>IF(AD49=1,IF(AC49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K19" s="6" t="str">
+        <f>IF(AE49=1,IF(AD49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L19" s="6" t="str">
+        <f>IF(AF49=1,IF(AE49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M19" s="6" t="str">
+        <f>IF(AG49=1,IF(AF49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f>IF(AH49=1,IF(AG49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O19" s="6" t="str">
+        <f>$T$14</f>
+        <v>1,</v>
+      </c>
+      <c r="P19" s="6" t="str">
+        <f>IF(AJ49=1,IF(AI49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q19" s="6" t="str">
+        <f>IF(AK49=1,IF(AJ49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R19" s="6" t="str">
+        <f>IF(AL49=1,IF(AK49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S19" s="6" t="str">
+        <f>IF(AF5=1,IF(AE5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="T19" s="6" t="str">
+        <f>IF(AN49=1,IF(AM49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U19" s="6" t="str">
+        <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="V19" s="6" t="str">
+        <f>IF(AP49=1,IF(AO49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W19" s="6" t="str">
+        <f>IF(AQ49=1,IF(AP49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X19" s="6" t="str">
+        <f>IF(AR49=1,IF(AQ49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y19" s="3" t="str">
+        <f>IF(AF5=1,IF(AF6=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Z19" s="6" t="str">
+        <f>IF(AT49=1,IF(AS49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA19" s="6" t="str">
+        <f>IF(AU49=1,IF(AT49=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>33</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="6" t="str">
+        <f>IF(W50=1,IF(V50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D20" s="6" t="str">
+        <f>IF(X50=1,IF(W50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f>IF(Y50=1,IF(X50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f>IF(Z50=1,IF(Y50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G20" s="6" t="str">
+        <f>IF(AA50=1,IF(Z50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f>IF(AB50=1,IF(AA50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I20" s="6" t="str">
+        <f>IF(AC50=1,IF(AB50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J20" s="6" t="str">
+        <f>IF(AD50=1,IF(AC50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K20" s="6" t="str">
+        <f>IF(AE50=1,IF(AD50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L20" s="6" t="str">
+        <f>IF(AF50=1,IF(AE50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M20" s="6" t="str">
+        <f>IF(AG50=1,IF(AF50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N20" s="6" t="str">
+        <f>IF(AH50=1,IF(AG50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O20" s="6" t="str">
+        <f>IF(AI50=1,IF(AH50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P20" s="6" t="str">
+        <f>$U$15</f>
+        <v>1,</v>
+      </c>
+      <c r="Q20" s="6" t="str">
+        <f>IF(AK50=1,IF(AJ50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R20" s="6" t="str">
+        <f>IF(AL50=1,IF(AK50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S20" s="6" t="str">
+        <f>IF(AM50=1,IF(AL50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T20" s="6" t="str">
+        <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="U20" s="6" t="str">
+        <f>IF(AO50=1,IF(AN50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V20" s="6" t="str">
+        <f>IF(AG5=1,IF(AH5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="W20" s="6" t="str">
+        <f>IF(AQ50=1,IF(AP50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X20" s="6" t="str">
+        <f>IF(AR50=1,IF(AQ50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y20" s="6" t="str">
+        <f>IF(AS50=1,IF(AR50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z20" s="3" t="str">
+        <f>IF(AG6=1,IF(AG5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="AA20" s="6" t="str">
+        <f>IF(AU50=1,IF(AT50=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>34</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="6" t="str">
+        <f>IF(W51=1,IF(V51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D21" s="6" t="str">
+        <f>IF(X51=1,IF(W51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f>IF(Y51=1,IF(X51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f>IF(Z51=1,IF(Y51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>IF(AA51=1,IF(Z51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f>IF(AB51=1,IF(AA51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f>IF(AC51=1,IF(AB51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J21" s="6" t="str">
+        <f>IF(AD51=1,IF(AC51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K21" s="6" t="str">
+        <f>IF(AE51=1,IF(AD51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L21" s="6" t="str">
+        <f>IF(AF51=1,IF(AE51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M21" s="6" t="str">
+        <f>IF(AG51=1,IF(AF51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f>IF(AH51=1,IF(AG51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O21" s="6" t="str">
+        <f>IF(AI51=1,IF(AH51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P21" s="6" t="str">
+        <f>IF(AJ51=1,IF(AI51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q21" s="6" t="str">
+        <f>$V$16</f>
+        <v>1,</v>
+      </c>
+      <c r="R21" s="6" t="str">
+        <f>IF(AL51=1,IF(AK51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S21" s="6" t="str">
+        <f>IF(AM51=1,IF(AL51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T21" s="6" t="str">
+        <f>IF(AN51=1,IF(AM51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U21" s="6" t="str">
+        <f>$V$20</f>
+        <v>1,</v>
+      </c>
+      <c r="V21" s="6" t="str">
+        <f>IF(AP51=1,IF(AO51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W21" s="6" t="str">
+        <f>IF(AQ51=1,IF(AP51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X21" s="6" t="str">
+        <f>IF(AR51=1,IF(AQ51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y21" s="6" t="str">
+        <f>IF(AS51=1,IF(AR51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z21" s="6" t="str">
+        <f>IF(AT51=1,IF(AS51=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA21" s="3" t="str">
+        <f>IF(AH6=1,IF(AH5=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>40</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="str">
+        <f>IF(W52=1,IF(V52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D22" s="6" t="str">
+        <f>IF(X52=1,IF(W52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f>IF(Y52=1,IF(X52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f>IF(Z52=1,IF(Y52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G22" s="6" t="str">
+        <f>IF(AA52=1,IF(Z52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f>IF(AB52=1,IF(AA52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I22" s="6" t="str">
+        <f>IF(AC52=1,IF(AB52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J22" s="6" t="str">
+        <f>IF(AD52=1,IF(AC52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K22" s="6" t="str">
+        <f>IF(AE52=1,IF(AD52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L22" s="6" t="str">
+        <f>IF(AF52=1,IF(AE52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M22" s="6" t="str">
+        <f>IF(AG52=1,IF(AF52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f>IF(AH52=1,IF(AG52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O22" s="6" t="str">
+        <f>IF(AI52=1,IF(AH52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P22" s="6" t="str">
+        <f>IF(AJ52=1,IF(AI52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q22" s="6" t="str">
+        <f>IF(AK52=1,IF(AJ52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R22" s="6" t="str">
+        <f>$W$17</f>
+        <v>1,</v>
+      </c>
+      <c r="S22" s="6" t="str">
+        <f>IF(AM52=1,IF(AL52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T22" s="6" t="str">
+        <f>IF(AN52=1,IF(AM52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U22" s="6" t="str">
+        <f>IF(AO52=1,IF(AN52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V22" s="6" t="str">
+        <f>IF(AP52=1,IF(AO52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W22" s="6" t="str">
+        <f>IF(AQ52=1,IF(AP52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X22" s="6" t="str">
+        <f>IF(AD6=1,IF(AE6=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Y22" s="6" t="str">
+        <f>IF(AS52=1,IF(AR52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z22" s="6" t="str">
+        <f>IF(AT52=1,IF(AS52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA22" s="6" t="str">
+        <f>IF(AU52=1,IF(AT52=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="6" t="str">
+        <f>IF(W53=1,IF(V53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D23" s="6" t="str">
+        <f>IF(X53=1,IF(W53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f>IF(Y53=1,IF(X53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f>IF(Z53=1,IF(Y53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>IF(AA53=1,IF(Z53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f>IF(AB53=1,IF(AA53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>IF(AC53=1,IF(AB53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J23" s="6" t="str">
+        <f>IF(AD53=1,IF(AC53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K23" s="6" t="str">
+        <f>IF(AE53=1,IF(AD53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L23" s="6" t="str">
+        <f>IF(AF53=1,IF(AE53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M23" s="6" t="str">
+        <f>IF(AG53=1,IF(AF53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f>IF(AH53=1,IF(AG53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O23" s="6" t="str">
+        <f>IF(AI53=1,IF(AH53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P23" s="6" t="str">
+        <f>IF(AJ53=1,IF(AI53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q23" s="6" t="str">
+        <f>IF(AK53=1,IF(AJ53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R23" s="6" t="str">
+        <f>IF(AL53=1,IF(AK53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S23" s="6" t="str">
+        <f>$X$18</f>
+        <v>1,</v>
+      </c>
+      <c r="T23" s="6" t="str">
+        <f>IF(AN53=1,IF(AM53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U23" s="6" t="str">
+        <f>IF(AO53=1,IF(AN53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V23" s="6" t="str">
+        <f>IF(AP53=1,IF(AO53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W23" s="6" t="str">
+        <f>$X$22</f>
+        <v>1,</v>
+      </c>
+      <c r="X23" s="6" t="str">
+        <f>IF(AR53=1,IF(AQ53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y23" s="6" t="str">
+        <f>IF(AE6=1,IF(AF6=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="Z23" s="6" t="str">
+        <f>IF(AT53=1,IF(AS53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA23" s="6" t="str">
+        <f>IF(AU53=1,IF(AT53=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>42</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>IF(W54=1,IF(V54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D24" s="6" t="str">
+        <f>IF(X54=1,IF(W54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f>IF(Y54=1,IF(X54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f>IF(Z54=1,IF(Y54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f>IF(AA54=1,IF(Z54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f>IF(AB54=1,IF(AA54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I24" s="6" t="str">
+        <f>IF(AC54=1,IF(AB54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J24" s="6" t="str">
+        <f>IF(AD54=1,IF(AC54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K24" s="6" t="str">
+        <f>IF(AE54=1,IF(AD54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L24" s="6" t="str">
+        <f>IF(AF54=1,IF(AE54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M24" s="6" t="str">
+        <f>IF(AG54=1,IF(AF54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N24" s="6" t="str">
+        <f>IF(AH54=1,IF(AG54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O24" s="6" t="str">
+        <f>IF(AI54=1,IF(AH54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P24" s="6" t="str">
+        <f>IF(AJ54=1,IF(AI54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q24" s="6" t="str">
+        <f>IF(AK54=1,IF(AJ54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R24" s="6" t="str">
+        <f>IF(AL54=1,IF(AK54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S24" s="6" t="str">
+        <f>IF(AM54=1,IF(AL54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T24" s="6" t="str">
+        <f>$Y$19</f>
+        <v>1,</v>
+      </c>
+      <c r="U24" s="6" t="str">
+        <f>IF(AO54=1,IF(AN54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V24" s="6" t="str">
+        <f>IF(AP54=1,IF(AO54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W24" s="6" t="str">
+        <f>IF(AQ54=1,IF(AP54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X24" s="6" t="str">
+        <f>$Y$23</f>
+        <v>1,</v>
+      </c>
+      <c r="Y24" s="6" t="str">
+        <f>IF(AS54=1,IF(AR54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z24" s="6" t="str">
+        <f>IF(AF6=1,IF(AG6=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="AA24" s="6" t="str">
+        <f>IF(AU54=1,IF(AT54=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>43</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="str">
+        <f>IF(W55=1,IF(V55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D25" s="6" t="str">
+        <f>IF(X55=1,IF(W55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f>IF(Y55=1,IF(X55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f>IF(Z55=1,IF(Y55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>IF(AA55=1,IF(Z55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f>IF(AB55=1,IF(AA55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I25" s="6" t="str">
+        <f>IF(AC55=1,IF(AB55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J25" s="6" t="str">
+        <f>IF(AD55=1,IF(AC55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K25" s="6" t="str">
+        <f>IF(AE55=1,IF(AD55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L25" s="6" t="str">
+        <f>IF(AF55=1,IF(AE55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M25" s="6" t="str">
+        <f>IF(AG55=1,IF(AF55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f>IF(AH55=1,IF(AG55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O25" s="6" t="str">
+        <f>IF(AI55=1,IF(AH55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P25" s="6" t="str">
+        <f>IF(AJ55=1,IF(AI55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q25" s="6" t="str">
+        <f>IF(AK55=1,IF(AJ55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R25" s="6" t="str">
+        <f>IF(AL55=1,IF(AK55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S25" s="6" t="str">
+        <f>IF(AM55=1,IF(AL55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T25" s="6" t="str">
+        <f>IF(AN55=1,IF(AM55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U25" s="6" t="str">
+        <f>$Z$20</f>
+        <v>1,</v>
+      </c>
+      <c r="V25" s="6" t="str">
+        <f>IF(AP55=1,IF(AO55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="W25" s="6" t="str">
+        <f>IF(AQ55=1,IF(AP55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X25" s="6" t="str">
+        <f>IF(AR55=1,IF(AQ55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y25" s="6" t="str">
+        <f>$Z$24</f>
+        <v>1,</v>
+      </c>
+      <c r="Z25" s="6" t="str">
+        <f>IF(AT55=1,IF(AS55=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AA25" s="6" t="str">
+        <f>IF(AG6=1,IF(AH6=1,"1,","0,"),"0,")</f>
+        <v>1,</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="6" t="str">
+        <f>IF(W56=1,IF(V56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="D26" s="6" t="str">
+        <f>IF(X56=1,IF(W56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f>IF(Y56=1,IF(X56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f>IF(Z56=1,IF(Y56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f>IF(AA56=1,IF(Z56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f>IF(AB56=1,IF(AA56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="I26" s="6" t="str">
+        <f>IF(AC56=1,IF(AB56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="J26" s="6" t="str">
+        <f>IF(AD56=1,IF(AC56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="K26" s="6" t="str">
+        <f>IF(AE56=1,IF(AD56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="L26" s="6" t="str">
+        <f>IF(AF56=1,IF(AE56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="M26" s="6" t="str">
+        <f>IF(AG56=1,IF(AF56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="N26" s="6" t="str">
+        <f>IF(AH56=1,IF(AG56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="O26" s="6" t="str">
+        <f>IF(AI56=1,IF(AH56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="P26" s="6" t="str">
+        <f>IF(AJ56=1,IF(AI56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Q26" s="6" t="str">
+        <f>IF(AK56=1,IF(AJ56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="R26" s="6" t="str">
+        <f>IF(AL56=1,IF(AK56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="S26" s="6" t="str">
+        <f>IF(AM56=1,IF(AL56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="T26" s="6" t="str">
+        <f>IF(AN56=1,IF(AM56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="U26" s="6" t="str">
+        <f>IF(AO56=1,IF(AN56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="V26" s="6" t="str">
+        <f>$AA$21</f>
+        <v>1,</v>
+      </c>
+      <c r="W26" s="6" t="str">
+        <f>IF(AQ56=1,IF(AP56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="X26" s="6" t="str">
+        <f>IF(AR56=1,IF(AQ56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Y26" s="6" t="str">
+        <f>IF(AS56=1,IF(AR56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="Z26" s="6" t="str">
+        <f>$AA$25</f>
+        <v>1,</v>
+      </c>
+      <c r="AA26" s="6" t="str">
+        <f>IF(AU56=1,IF(AT56=1,"1,","0,"),"0,")</f>
+        <v>0,</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:AA26">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0,">
+      <formula>NOT(ISERROR(SEARCH("0,",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="1,">
+      <formula>NOT(ISERROR(SEARCH("1,",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="AG8" r:id="rId1" xr:uid="{D75CDBF5-BFCE-4CE5-9B6B-06B511334A6A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cao Huy\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6592F2D4-8C1E-4154-9645-FC59BF7D4EB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +178,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -190,21 +189,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF5050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,7 +507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2694,23 +2679,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="AB9" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A704CB13-5F3F-47F3-B750-56CFBFB9D202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W32" sqref="W32"/>
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1" max="26" width="3.7109375" style="3" customWidth="1"/>
+    <col min="27" max="28" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -2838,79 +2824,79 @@
         <v>1,</v>
       </c>
       <c r="I2" s="6" t="str">
-        <f>IF(AC32=1,IF(AB32=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I2:AA2" si="0">IF(AC32=1,IF(AB32=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J2" s="6" t="str">
-        <f>IF(AD32=1,IF(AC32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="K2" s="6" t="str">
-        <f>IF(AE32=1,IF(AD32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="L2" s="6" t="str">
-        <f>IF(AF32=1,IF(AE32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="M2" s="6" t="str">
-        <f>IF(AG32=1,IF(AF32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="N2" s="6" t="str">
-        <f>IF(AH32=1,IF(AG32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="O2" s="6" t="str">
-        <f>IF(AI32=1,IF(AH32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="P2" s="6" t="str">
-        <f>IF(AJ32=1,IF(AI32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="Q2" s="6" t="str">
-        <f>IF(AK32=1,IF(AJ32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="R2" s="6" t="str">
-        <f>IF(AL32=1,IF(AK32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="S2" s="6" t="str">
-        <f>IF(AM32=1,IF(AL32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="T2" s="6" t="str">
-        <f>IF(AN32=1,IF(AM32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="U2" s="6" t="str">
-        <f>IF(AO32=1,IF(AN32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="V2" s="6" t="str">
-        <f>IF(AP32=1,IF(AO32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="W2" s="6" t="str">
-        <f>IF(AQ32=1,IF(AP32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="X2" s="6" t="str">
-        <f>IF(AR32=1,IF(AQ32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="Y2" s="6" t="str">
-        <f>IF(AS32=1,IF(AR32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="Z2" s="6" t="str">
-        <f>IF(AT32=1,IF(AS32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="AA2" s="6" t="str">
-        <f>IF(AU32=1,IF(AT32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="0"/>
         <v>0,</v>
       </c>
       <c r="AB2" t="s">
@@ -2929,7 +2915,7 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2971,75 +2957,75 @@
         <v>1,</v>
       </c>
       <c r="J3" s="6" t="str">
-        <f>IF(AD33=1,IF(AC33=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J3:AA3" si="1">IF(AD33=1,IF(AC33=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K3" s="6" t="str">
-        <f>IF(AE33=1,IF(AD33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L3" s="6" t="str">
-        <f>IF(AF33=1,IF(AE33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f>IF(AG33=1,IF(AF33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N3" s="6" t="str">
-        <f>IF(AH33=1,IF(AG33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O3" s="6" t="str">
-        <f>IF(AI33=1,IF(AH33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="P3" s="6" t="str">
-        <f>IF(AJ33=1,IF(AI33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Q3" s="6" t="str">
-        <f>IF(AK33=1,IF(AJ33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="R3" s="6" t="str">
-        <f>IF(AL33=1,IF(AK33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="S3" s="6" t="str">
-        <f>IF(AM33=1,IF(AL33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="T3" s="6" t="str">
-        <f>IF(AN33=1,IF(AM33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="U3" s="6" t="str">
-        <f>IF(AO33=1,IF(AN33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="V3" s="6" t="str">
-        <f>IF(AP33=1,IF(AO33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="W3" s="6" t="str">
-        <f>IF(AQ33=1,IF(AP33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="X3" s="6" t="str">
-        <f>IF(AR33=1,IF(AQ33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Y3" s="6" t="str">
-        <f>IF(AS33=1,IF(AR33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="Z3" s="6" t="str">
-        <f>IF(AT33=1,IF(AS33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="AA3" s="6" t="str">
-        <f>IF(AU33=1,IF(AT33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="AB3" t="s">
@@ -3058,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -3085,7 +3071,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>IF(AA34=1,IF(Z34=1,"1,","0,"),"0,")</f>
@@ -3104,71 +3090,71 @@
         <v>1,</v>
       </c>
       <c r="K4" s="6" t="str">
-        <f>IF(AE34=1,IF(AD34=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="K4:AA4" si="2">IF(AE34=1,IF(AD34=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="L4" s="6" t="str">
-        <f>IF(AF34=1,IF(AE34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="M4" s="6" t="str">
-        <f>IF(AG34=1,IF(AF34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="N4" s="6" t="str">
-        <f>IF(AH34=1,IF(AG34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="O4" s="6" t="str">
-        <f>IF(AI34=1,IF(AH34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="P4" s="6" t="str">
-        <f>IF(AJ34=1,IF(AI34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Q4" s="6" t="str">
-        <f>IF(AK34=1,IF(AJ34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="R4" s="6" t="str">
-        <f>IF(AL34=1,IF(AK34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="S4" s="6" t="str">
-        <f>IF(AM34=1,IF(AL34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="T4" s="6" t="str">
-        <f>IF(AN34=1,IF(AM34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="U4" s="6" t="str">
-        <f>IF(AO34=1,IF(AN34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="V4" s="6" t="str">
-        <f>IF(AP34=1,IF(AO34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="W4" s="6" t="str">
-        <f>IF(AQ34=1,IF(AP34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="X4" s="6" t="str">
-        <f>IF(AR34=1,IF(AQ34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Y4" s="6" t="str">
-        <f>IF(AS34=1,IF(AR34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Z4" s="6" t="str">
-        <f>IF(AT34=1,IF(AS34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AA4" s="6" t="str">
-        <f>IF(AU34=1,IF(AT34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AB4" t="s">
@@ -3187,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -3210,7 +3196,7 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>IF(Z35=1,IF(Y35=1,"1,","0,"),"0,")</f>
@@ -3218,86 +3204,86 @@
       </c>
       <c r="G5" s="6" t="str">
         <f>IF(AG2=1,IF(AH2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f>IF(AB35=1,IF(AA35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="H5:J6" si="3">IF(AB35=1,IF(AA35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f>IF(AC35=1,IF(AB35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="3"/>
         <v>0,</v>
       </c>
       <c r="J5" s="6" t="str">
-        <f>IF(AD35=1,IF(AC35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="3"/>
         <v>0,</v>
       </c>
       <c r="K5" s="3" t="str">
         <f>IF(AG3=1,IF(AG2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="L5" s="6" t="str">
-        <f>IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L5:AA5" si="4">IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M5" s="6" t="str">
-        <f>IF(AG35=1,IF(AF35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="N5" s="6" t="str">
-        <f>IF(AH35=1,IF(AG35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="O5" s="6" t="str">
-        <f>IF(AI35=1,IF(AH35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="P5" s="6" t="str">
-        <f>IF(AJ35=1,IF(AI35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="Q5" s="6" t="str">
-        <f>IF(AK35=1,IF(AJ35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="R5" s="6" t="str">
-        <f>IF(AL35=1,IF(AK35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="S5" s="6" t="str">
-        <f>IF(AM35=1,IF(AL35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="T5" s="6" t="str">
-        <f>IF(AN35=1,IF(AM35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="U5" s="6" t="str">
-        <f>IF(AO35=1,IF(AN35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="V5" s="6" t="str">
-        <f>IF(AP35=1,IF(AO35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="W5" s="6" t="str">
-        <f>IF(AQ35=1,IF(AP35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="X5" s="6" t="str">
-        <f>IF(AR35=1,IF(AQ35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="Y5" s="6" t="str">
-        <f>IF(AS35=1,IF(AR35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="Z5" s="6" t="str">
-        <f>IF(AT35=1,IF(AS35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="AA5" s="6" t="str">
-        <f>IF(AU35=1,IF(AT35=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="AB5" t="s">
@@ -3307,16 +3293,16 @@
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3343,22 +3329,22 @@
       </c>
       <c r="F6" s="6" t="str">
         <f>IF(AG2=1,IF(AH2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="G6" s="6" t="str">
         <f>IF(AA36=1,IF(Z36=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f>IF(AB36=1,IF(AA36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="3"/>
         <v>0,</v>
       </c>
       <c r="I6" s="6" t="str">
-        <f>IF(AC36=1,IF(AB36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="3"/>
         <v>0,</v>
       </c>
       <c r="J6" s="6" t="str">
-        <f>IF(AD36=1,IF(AC36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="3"/>
         <v>0,</v>
       </c>
       <c r="K6" s="6" t="str">
@@ -3370,63 +3356,63 @@
         <v>1,</v>
       </c>
       <c r="M6" s="6" t="str">
-        <f>IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M6:AA6" si="5">IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N6" s="6" t="str">
-        <f>IF(AH36=1,IF(AG36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="O6" s="6" t="str">
-        <f>IF(AI36=1,IF(AH36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="P6" s="6" t="str">
-        <f>IF(AJ36=1,IF(AI36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="Q6" s="6" t="str">
-        <f>IF(AK36=1,IF(AJ36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="R6" s="6" t="str">
-        <f>IF(AL36=1,IF(AK36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="S6" s="6" t="str">
-        <f>IF(AM36=1,IF(AL36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="T6" s="6" t="str">
-        <f>IF(AN36=1,IF(AM36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="U6" s="6" t="str">
-        <f>IF(AO36=1,IF(AN36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="V6" s="6" t="str">
-        <f>IF(AP36=1,IF(AO36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="W6" s="6" t="str">
-        <f>IF(AQ36=1,IF(AP36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="X6" s="6" t="str">
-        <f>IF(AR36=1,IF(AQ36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="Y6" s="6" t="str">
-        <f>IF(AS36=1,IF(AR36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="Z6" s="6" t="str">
-        <f>IF(AT36=1,IF(AS36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="AA6" s="6" t="str">
-        <f>IF(AU36=1,IF(AT36=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="AB6" t="s">
@@ -3503,59 +3489,59 @@
         <v>1,</v>
       </c>
       <c r="N7" s="6" t="str">
-        <f>IF(AH37=1,IF(AG37=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="N7:AA7" si="6">IF(AH37=1,IF(AG37=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="O7" s="6" t="str">
-        <f>IF(AI37=1,IF(AH37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="P7" s="6" t="str">
-        <f>IF(AJ37=1,IF(AI37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="Q7" s="6" t="str">
-        <f>IF(AK37=1,IF(AJ37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="R7" s="6" t="str">
-        <f>IF(AL37=1,IF(AK37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="S7" s="6" t="str">
-        <f>IF(AM37=1,IF(AL37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="T7" s="6" t="str">
-        <f>IF(AN37=1,IF(AM37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="U7" s="6" t="str">
-        <f>IF(AO37=1,IF(AN37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="V7" s="6" t="str">
-        <f>IF(AP37=1,IF(AO37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="W7" s="6" t="str">
-        <f>IF(AQ37=1,IF(AP37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="X7" s="6" t="str">
-        <f>IF(AR37=1,IF(AQ37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="Y7" s="6" t="str">
-        <f>IF(AS37=1,IF(AR37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="Z7" s="6" t="str">
-        <f>IF(AT37=1,IF(AS37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="AA7" s="6" t="str">
-        <f>IF(AU37=1,IF(AT37=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="AB7" t="s">
@@ -3570,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="6" t="str">
-        <f>IF(W38=1,IF(V38=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="C8:C26" si="7">IF(W38=1,IF(V38=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="D8" s="6" t="str">
@@ -3618,55 +3604,55 @@
         <v>1,</v>
       </c>
       <c r="O8" s="6" t="str">
-        <f>IF(AI38=1,IF(AH38=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O8:AA8" si="8">IF(AI38=1,IF(AH38=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P8" s="6" t="str">
-        <f>IF(AJ38=1,IF(AI38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="Q8" s="6" t="str">
-        <f>IF(AK38=1,IF(AJ38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="R8" s="6" t="str">
-        <f>IF(AL38=1,IF(AK38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="S8" s="6" t="str">
-        <f>IF(AM38=1,IF(AL38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="T8" s="6" t="str">
-        <f>IF(AN38=1,IF(AM38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="U8" s="6" t="str">
-        <f>IF(AO38=1,IF(AN38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="V8" s="6" t="str">
-        <f>IF(AP38=1,IF(AO38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="W8" s="6" t="str">
-        <f>IF(AQ38=1,IF(AP38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="X8" s="6" t="str">
-        <f>IF(AR38=1,IF(AQ38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="Y8" s="6" t="str">
-        <f>IF(AS38=1,IF(AR38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="Z8" s="6" t="str">
-        <f>IF(AT38=1,IF(AS38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="AA8" s="6" t="str">
-        <f>IF(AU38=1,IF(AT38=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="AB8" t="s">
@@ -3684,11 +3670,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="6" t="str">
-        <f>IF(W39=1,IF(V39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D9" s="6" t="str">
-        <f>IF(X39=1,IF(W39=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="D9:D26" si="9">IF(X39=1,IF(W39=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="E9" s="6" t="str">
@@ -3717,7 +3703,7 @@
       </c>
       <c r="K9" s="6" t="str">
         <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>IF(AF39=1,IF(AE39=1,"1,","0,"),"0,")</f>
@@ -3736,51 +3722,51 @@
         <v>1,</v>
       </c>
       <c r="P9" s="6" t="str">
-        <f>IF(AJ39=1,IF(AI39=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P9:AA9" si="10">IF(AJ39=1,IF(AI39=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q9" s="6" t="str">
-        <f>IF(AK39=1,IF(AJ39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="R9" s="6" t="str">
-        <f>IF(AL39=1,IF(AK39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="S9" s="6" t="str">
-        <f>IF(AM39=1,IF(AL39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="T9" s="6" t="str">
-        <f>IF(AN39=1,IF(AM39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="U9" s="6" t="str">
-        <f>IF(AO39=1,IF(AN39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="V9" s="6" t="str">
-        <f>IF(AP39=1,IF(AO39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="W9" s="6" t="str">
-        <f>IF(AQ39=1,IF(AP39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="X9" s="6" t="str">
-        <f>IF(AR39=1,IF(AQ39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="Y9" s="6" t="str">
-        <f>IF(AS39=1,IF(AR39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="Z9" s="6" t="str">
-        <f>IF(AT39=1,IF(AS39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="AA9" s="6" t="str">
-        <f>IF(AU39=1,IF(AT39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="AB9" t="s">
@@ -3795,20 +3781,20 @@
         <v>19</v>
       </c>
       <c r="C10" s="6" t="str">
-        <f>IF(W40=1,IF(V40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D10" s="6" t="str">
-        <f>IF(X40=1,IF(W40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E10" s="6" t="str">
-        <f>IF(Y40=1,IF(X40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="E10:E26" si="11">IF(Y40=1,IF(X40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="F10" s="6" t="str">
         <f>$K$5</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>IF(AA40=1,IF(Z40=1,"1,","0,"),"0,")</f>
@@ -3824,7 +3810,7 @@
       </c>
       <c r="J10" s="6" t="str">
         <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="K10" s="6" t="str">
         <f>IF(AE40=1,IF(AD40=1,"1,","0,"),"0,")</f>
@@ -3832,7 +3818,7 @@
       </c>
       <c r="L10" s="6" t="str">
         <f>IF(AG3=1,IF(AH3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="M10" s="6" t="str">
         <f>IF(AG40=1,IF(AF40=1,"1,","0,"),"0,")</f>
@@ -3848,50 +3834,50 @@
       </c>
       <c r="P10" s="3" t="str">
         <f>IF(AG4=1,IF(AG3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Q10" s="6" t="str">
-        <f>IF(AK40=1,IF(AJ40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q10:AA10" si="12">IF(AK40=1,IF(AJ40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R10" s="6" t="str">
-        <f>IF(AL40=1,IF(AK40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S10" s="6" t="str">
-        <f>IF(AM40=1,IF(AL40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T10" s="6" t="str">
-        <f>IF(AN40=1,IF(AM40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U10" s="6" t="str">
-        <f>IF(AO40=1,IF(AN40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="V10" s="6" t="str">
-        <f>IF(AP40=1,IF(AO40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="W10" s="6" t="str">
-        <f>IF(AQ40=1,IF(AP40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X10" s="6" t="str">
-        <f>IF(AR40=1,IF(AQ40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="Y10" s="6" t="str">
-        <f>IF(AS40=1,IF(AR40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="Z10" s="6" t="str">
-        <f>IF(AT40=1,IF(AS40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="AA10" s="6" t="str">
-        <f>IF(AU40=1,IF(AT40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="AB10" t="s">
@@ -3906,19 +3892,19 @@
         <v>19</v>
       </c>
       <c r="C11" s="6" t="str">
-        <f>IF(W41=1,IF(V41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D11" s="6" t="str">
-        <f>IF(X41=1,IF(W41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E11" s="6" t="str">
-        <f>IF(Y41=1,IF(X41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f>IF(Z41=1,IF(Y41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="F11:F26" si="13">IF(Z41=1,IF(Y41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="G11" s="6" t="str">
@@ -3939,7 +3925,7 @@
       </c>
       <c r="K11" s="6" t="str">
         <f>IF(AG3=1,IF(AH3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="L11" s="6" t="str">
         <f>IF(AF41=1,IF(AE41=1,"1,","0,"),"0,")</f>
@@ -3966,43 +3952,43 @@
         <v>1,</v>
       </c>
       <c r="R11" s="6" t="str">
-        <f>IF(AL41=1,IF(AK41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="R11:AA11" si="14">IF(AL41=1,IF(AK41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="S11" s="6" t="str">
-        <f>IF(AM41=1,IF(AL41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="T11" s="6" t="str">
-        <f>IF(AN41=1,IF(AM41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="U11" s="6" t="str">
-        <f>IF(AO41=1,IF(AN41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="V11" s="6" t="str">
-        <f>IF(AP41=1,IF(AO41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="W11" s="6" t="str">
-        <f>IF(AQ41=1,IF(AP41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="X11" s="6" t="str">
-        <f>IF(AR41=1,IF(AQ41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="Y11" s="6" t="str">
-        <f>IF(AS41=1,IF(AR41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="Z11" s="6" t="str">
-        <f>IF(AT41=1,IF(AS41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="AA11" s="6" t="str">
-        <f>IF(AU41=1,IF(AT41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="AB11" t="s">
@@ -4017,23 +4003,23 @@
         <v>19</v>
       </c>
       <c r="C12" s="6" t="str">
-        <f>IF(W42=1,IF(V42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D12" s="6" t="str">
-        <f>IF(X42=1,IF(W42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E12" s="6" t="str">
-        <f>IF(Y42=1,IF(X42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f>IF(Z42=1,IF(Y42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G12" s="6" t="str">
-        <f>IF(AA42=1,IF(Z42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="G12:G26" si="15">IF(AA42=1,IF(Z42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="H12" s="6" t="str">
@@ -4078,42 +4064,42 @@
       </c>
       <c r="R12" s="3" t="str">
         <f>IF(AD5=1,IF(AD4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S12" s="6" t="str">
-        <f>IF(AM42=1,IF(AL42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="S12:AA12" si="16">IF(AM42=1,IF(AL42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="T12" s="6" t="str">
-        <f>IF(AN42=1,IF(AM42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="U12" s="6" t="str">
-        <f>IF(AO42=1,IF(AN42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="V12" s="6" t="str">
-        <f>IF(AP42=1,IF(AO42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="W12" s="6" t="str">
-        <f>IF(AQ42=1,IF(AP42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="X12" s="6" t="str">
-        <f>IF(AR42=1,IF(AQ42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="Y12" s="6" t="str">
-        <f>IF(AS42=1,IF(AR42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="Z12" s="6" t="str">
-        <f>IF(AT42=1,IF(AS42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="AA12" s="6" t="str">
-        <f>IF(AU42=1,IF(AT42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="AB12" t="s">
@@ -4128,27 +4114,27 @@
         <v>19</v>
       </c>
       <c r="C13" s="6" t="str">
-        <f>IF(W43=1,IF(V43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D13" s="6" t="str">
-        <f>IF(X43=1,IF(W43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E13" s="6" t="str">
-        <f>IF(Y43=1,IF(X43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F13" s="6" t="str">
-        <f>IF(Z43=1,IF(Y43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G13" s="6" t="str">
-        <f>IF(AA43=1,IF(Z43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f>IF(AB43=1,IF(AA43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="H13:H26" si="17">IF(AB43=1,IF(AA43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="I13" s="6" t="str">
@@ -4193,38 +4179,38 @@
       </c>
       <c r="S13" s="3" t="str">
         <f>IF(AE5=1,IF(AE4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T13" s="6" t="str">
-        <f>IF(AN43=1,IF(AM43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="T13:AA13" si="18">IF(AN43=1,IF(AM43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="U13" s="6" t="str">
-        <f>IF(AO43=1,IF(AN43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="V13" s="6" t="str">
-        <f>IF(AP43=1,IF(AO43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="W13" s="6" t="str">
-        <f>IF(AQ43=1,IF(AP43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="X13" s="6" t="str">
-        <f>IF(AR43=1,IF(AQ43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="Y13" s="6" t="str">
-        <f>IF(AS43=1,IF(AR43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="Z13" s="6" t="str">
-        <f>IF(AT43=1,IF(AS43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="AA13" s="6" t="str">
-        <f>IF(AU43=1,IF(AT43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="AB13" t="s">
@@ -4239,31 +4225,31 @@
         <v>19</v>
       </c>
       <c r="C14" s="6" t="str">
-        <f>IF(W44=1,IF(V44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D14" s="6" t="str">
-        <f>IF(X44=1,IF(W44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E14" s="6" t="str">
-        <f>IF(Y44=1,IF(X44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f>IF(Z44=1,IF(Y44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G14" s="6" t="str">
-        <f>IF(AA44=1,IF(Z44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f>IF(AB44=1,IF(AA44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I14" s="6" t="str">
-        <f>IF(AC44=1,IF(AB44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I14:I26" si="19">IF(AC44=1,IF(AB44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J14" s="6" t="str">
@@ -4292,7 +4278,7 @@
       </c>
       <c r="P14" s="6" t="str">
         <f>IF(AF4=1,IF(AG4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Q14" s="6" t="str">
         <f>IF(AK44=1,IF(AJ44=1,"1,","0,"),"0,")</f>
@@ -4308,34 +4294,34 @@
       </c>
       <c r="T14" s="3" t="str">
         <f>IF(AF5=1,IF(AF4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U14" s="6" t="str">
-        <f>IF(AO44=1,IF(AN44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="U14:AA14" si="20">IF(AO44=1,IF(AN44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="V14" s="6" t="str">
-        <f>IF(AP44=1,IF(AO44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="W14" s="6" t="str">
-        <f>IF(AQ44=1,IF(AP44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="X14" s="6" t="str">
-        <f>IF(AR44=1,IF(AQ44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="Y14" s="6" t="str">
-        <f>IF(AS44=1,IF(AR44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="Z14" s="6" t="str">
-        <f>IF(AT44=1,IF(AS44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="AA14" s="6" t="str">
-        <f>IF(AU44=1,IF(AT44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="20"/>
         <v>0,</v>
       </c>
       <c r="AB14" t="s">
@@ -4350,40 +4336,40 @@
         <v>19</v>
       </c>
       <c r="C15" s="6" t="str">
-        <f>IF(W45=1,IF(V45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D15" s="6" t="str">
-        <f>IF(X45=1,IF(W45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E15" s="6" t="str">
-        <f>IF(Y45=1,IF(X45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f>IF(Z45=1,IF(Y45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G15" s="6" t="str">
-        <f>IF(AA45=1,IF(Z45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f>IF(AB45=1,IF(AA45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I15" s="6" t="str">
-        <f>IF(AC45=1,IF(AB45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J15" s="6" t="str">
-        <f>IF(AD45=1,IF(AC45=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J15:J26" si="21">IF(AD45=1,IF(AC45=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K15" s="6" t="str">
         <f>$P$10</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="L15" s="6" t="str">
         <f>IF(AF45=1,IF(AE45=1,"1,","0,"),"0,")</f>
@@ -4399,7 +4385,7 @@
       </c>
       <c r="O15" s="6" t="str">
         <f>IF(AF4=1,IF(AG4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="P15" s="6" t="str">
         <f>IF(AJ45=1,IF(AI45=1,"1,","0,"),"0,")</f>
@@ -4407,7 +4393,7 @@
       </c>
       <c r="Q15" s="6" t="str">
         <f>IF(AG4=1,IF(AH4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="R15" s="6" t="str">
         <f>IF(AL45=1,IF(AK45=1,"1,","0,"),"0,")</f>
@@ -4423,30 +4409,30 @@
       </c>
       <c r="U15" s="3" t="str">
         <f>IF(AG5=1,IF(AG4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="V15" s="6" t="str">
-        <f>IF(AP45=1,IF(AO45=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="V15:AA15" si="22">IF(AP45=1,IF(AO45=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="W15" s="6" t="str">
-        <f>IF(AQ45=1,IF(AP45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="X15" s="6" t="str">
-        <f>IF(AR45=1,IF(AQ45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="Y15" s="6" t="str">
-        <f>IF(AS45=1,IF(AR45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="Z15" s="6" t="str">
-        <f>IF(AT45=1,IF(AS45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="AA15" s="6" t="str">
-        <f>IF(AU45=1,IF(AT45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="AB15" t="s">
@@ -4461,39 +4447,39 @@
         <v>19</v>
       </c>
       <c r="C16" s="6" t="str">
-        <f>IF(W46=1,IF(V46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D16" s="6" t="str">
-        <f>IF(X46=1,IF(W46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E16" s="6" t="str">
-        <f>IF(Y46=1,IF(X46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F16" s="6" t="str">
-        <f>IF(Z46=1,IF(Y46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G16" s="6" t="str">
-        <f>IF(AA46=1,IF(Z46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f>IF(AB46=1,IF(AA46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I16" s="6" t="str">
-        <f>IF(AC46=1,IF(AB46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J16" s="6" t="str">
-        <f>IF(AD46=1,IF(AC46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K16" s="6" t="str">
-        <f>IF(AE46=1,IF(AD46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="K16:K26" si="23">IF(AE46=1,IF(AD46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="L16" s="6" t="str">
@@ -4514,7 +4500,7 @@
       </c>
       <c r="P16" s="6" t="str">
         <f>IF(AG4=1,IF(AH4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Q16" s="6" t="str">
         <f>IF(AK46=1,IF(AJ46=1,"1,","0,"),"0,")</f>
@@ -4572,48 +4558,48 @@
         <v>19</v>
       </c>
       <c r="C17" s="6" t="str">
-        <f>IF(W47=1,IF(V47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D17" s="6" t="str">
-        <f>IF(X47=1,IF(W47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E17" s="6" t="str">
-        <f>IF(Y47=1,IF(X47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F17" s="6" t="str">
-        <f>IF(Z47=1,IF(Y47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G17" s="6" t="str">
-        <f>IF(AA47=1,IF(Z47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f>IF(AB47=1,IF(AA47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I17" s="6" t="str">
-        <f>IF(AC47=1,IF(AB47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J17" s="6" t="str">
-        <f>IF(AD47=1,IF(AC47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K17" s="6" t="str">
-        <f>IF(AE47=1,IF(AD47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L17" s="6" t="str">
-        <f>IF(AF47=1,IF(AE47=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L17:L26" si="24">IF(AF47=1,IF(AE47=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M17" s="6" t="str">
         <f>$R$12</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="N17" s="6" t="str">
         <f>IF(AH47=1,IF(AG47=1,"1,","0,"),"0,")</f>
@@ -4637,7 +4623,7 @@
       </c>
       <c r="S17" s="6" t="str">
         <f>IF(AD5=1,IF(AE5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T17" s="6" t="str">
         <f>IF(AN47=1,IF(AM47=1,"1,","0,"),"0,")</f>
@@ -4653,7 +4639,7 @@
       </c>
       <c r="W17" s="3" t="str">
         <f>IF(AD6=1,IF(AD5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="X17" s="6" t="str">
         <f>IF(AR47=1,IF(AQ47=1,"1,","0,"),"0,")</f>
@@ -4683,52 +4669,52 @@
         <v>19</v>
       </c>
       <c r="C18" s="6" t="str">
-        <f>IF(W48=1,IF(V48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D18" s="6" t="str">
-        <f>IF(X48=1,IF(W48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E18" s="6" t="str">
-        <f>IF(Y48=1,IF(X48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F18" s="6" t="str">
-        <f>IF(Z48=1,IF(Y48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G18" s="6" t="str">
-        <f>IF(AA48=1,IF(Z48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f>IF(AB48=1,IF(AA48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I18" s="6" t="str">
-        <f>IF(AC48=1,IF(AB48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J18" s="6" t="str">
-        <f>IF(AD48=1,IF(AC48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K18" s="6" t="str">
-        <f>IF(AE48=1,IF(AD48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L18" s="6" t="str">
-        <f>IF(AF48=1,IF(AE48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M18" s="6" t="str">
-        <f>IF(AG48=1,IF(AF48=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M18:M26" si="25">IF(AG48=1,IF(AF48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N18" s="6" t="str">
         <f>$S$13</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="O18" s="6" t="str">
         <f>IF(AI48=1,IF(AH48=1,"1,","0,"),"0,")</f>
@@ -4744,7 +4730,7 @@
       </c>
       <c r="R18" s="6" t="str">
         <f>IF(AD5=1,IF(AE5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S18" s="6" t="str">
         <f>IF(AM48=1,IF(AL48=1,"1,","0,"),"0,")</f>
@@ -4752,7 +4738,7 @@
       </c>
       <c r="T18" s="6" t="str">
         <f>IF(AE5=1,IF(AF5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U18" s="6" t="str">
         <f>IF(AO48=1,IF(AN48=1,"1,","0,"),"0,")</f>
@@ -4768,7 +4754,7 @@
       </c>
       <c r="X18" s="3" t="str">
         <f>IF(AE6=1,IF(AE5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Y18" s="6" t="str">
         <f>IF(AS48=1,IF(AR48=1,"1,","0,"),"0,")</f>
@@ -4794,56 +4780,56 @@
         <v>19</v>
       </c>
       <c r="C19" s="6" t="str">
-        <f>IF(W49=1,IF(V49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D19" s="6" t="str">
-        <f>IF(X49=1,IF(W49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E19" s="6" t="str">
-        <f>IF(Y49=1,IF(X49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F19" s="6" t="str">
-        <f>IF(Z49=1,IF(Y49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G19" s="6" t="str">
-        <f>IF(AA49=1,IF(Z49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f>IF(AB49=1,IF(AA49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I19" s="6" t="str">
-        <f>IF(AC49=1,IF(AB49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J19" s="6" t="str">
-        <f>IF(AD49=1,IF(AC49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K19" s="6" t="str">
-        <f>IF(AE49=1,IF(AD49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L19" s="6" t="str">
-        <f>IF(AF49=1,IF(AE49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M19" s="6" t="str">
-        <f>IF(AG49=1,IF(AF49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N19" s="6" t="str">
-        <f>IF(AH49=1,IF(AG49=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="N19:N26" si="26">IF(AH49=1,IF(AG49=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="O19" s="6" t="str">
         <f>$T$14</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="P19" s="6" t="str">
         <f>IF(AJ49=1,IF(AI49=1,"1,","0,"),"0,")</f>
@@ -4859,7 +4845,7 @@
       </c>
       <c r="S19" s="6" t="str">
         <f>IF(AF5=1,IF(AE5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T19" s="6" t="str">
         <f>IF(AN49=1,IF(AM49=1,"1,","0,"),"0,")</f>
@@ -4867,7 +4853,7 @@
       </c>
       <c r="U19" s="6" t="str">
         <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="V19" s="6" t="str">
         <f>IF(AP49=1,IF(AO49=1,"1,","0,"),"0,")</f>
@@ -4883,7 +4869,7 @@
       </c>
       <c r="Y19" s="3" t="str">
         <f>IF(AF5=1,IF(AF6=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Z19" s="6" t="str">
         <f>IF(AT49=1,IF(AS49=1,"1,","0,"),"0,")</f>
@@ -4905,60 +4891,60 @@
         <v>19</v>
       </c>
       <c r="C20" s="6" t="str">
-        <f>IF(W50=1,IF(V50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D20" s="6" t="str">
-        <f>IF(X50=1,IF(W50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E20" s="6" t="str">
-        <f>IF(Y50=1,IF(X50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f>IF(Z50=1,IF(Y50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G20" s="6" t="str">
-        <f>IF(AA50=1,IF(Z50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f>IF(AB50=1,IF(AA50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I20" s="6" t="str">
-        <f>IF(AC50=1,IF(AB50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J20" s="6" t="str">
-        <f>IF(AD50=1,IF(AC50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K20" s="6" t="str">
-        <f>IF(AE50=1,IF(AD50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L20" s="6" t="str">
-        <f>IF(AF50=1,IF(AE50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M20" s="6" t="str">
-        <f>IF(AG50=1,IF(AF50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N20" s="6" t="str">
-        <f>IF(AH50=1,IF(AG50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O20" s="6" t="str">
-        <f>IF(AI50=1,IF(AH50=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O20:O26" si="27">IF(AI50=1,IF(AH50=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P20" s="6" t="str">
         <f>$U$15</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Q20" s="6" t="str">
         <f>IF(AK50=1,IF(AJ50=1,"1,","0,"),"0,")</f>
@@ -4974,7 +4960,7 @@
       </c>
       <c r="T20" s="6" t="str">
         <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U20" s="6" t="str">
         <f>IF(AO50=1,IF(AN50=1,"1,","0,"),"0,")</f>
@@ -4982,7 +4968,7 @@
       </c>
       <c r="V20" s="6" t="str">
         <f>IF(AG5=1,IF(AH5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="W20" s="6" t="str">
         <f>IF(AQ50=1,IF(AP50=1,"1,","0,"),"0,")</f>
@@ -4998,7 +4984,7 @@
       </c>
       <c r="Z20" s="3" t="str">
         <f>IF(AG6=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="AA20" s="6" t="str">
         <f>IF(AU50=1,IF(AT50=1,"1,","0,"),"0,")</f>
@@ -5016,59 +5002,59 @@
         <v>19</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f>IF(W51=1,IF(V51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>IF(X51=1,IF(W51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f>IF(Y51=1,IF(X51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f>IF(Z51=1,IF(Y51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>IF(AA51=1,IF(Z51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f>IF(AB51=1,IF(AA51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I21" s="6" t="str">
-        <f>IF(AC51=1,IF(AB51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J21" s="6" t="str">
-        <f>IF(AD51=1,IF(AC51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K21" s="6" t="str">
-        <f>IF(AE51=1,IF(AD51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L21" s="6" t="str">
-        <f>IF(AF51=1,IF(AE51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M21" s="6" t="str">
-        <f>IF(AG51=1,IF(AF51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N21" s="6" t="str">
-        <f>IF(AH51=1,IF(AG51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O21" s="6" t="str">
-        <f>IF(AI51=1,IF(AH51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P21" s="6" t="str">
-        <f>IF(AJ51=1,IF(AI51=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P21:P26" si="28">IF(AJ51=1,IF(AI51=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q21" s="6" t="str">
@@ -5089,7 +5075,7 @@
       </c>
       <c r="U21" s="6" t="str">
         <f>$V$20</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="V21" s="6" t="str">
         <f>IF(AP51=1,IF(AO51=1,"1,","0,"),"0,")</f>
@@ -5127,59 +5113,59 @@
         <v>19</v>
       </c>
       <c r="C22" s="6" t="str">
-        <f>IF(W52=1,IF(V52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D22" s="6" t="str">
-        <f>IF(X52=1,IF(W52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E22" s="6" t="str">
-        <f>IF(Y52=1,IF(X52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F22" s="6" t="str">
-        <f>IF(Z52=1,IF(Y52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G22" s="6" t="str">
-        <f>IF(AA52=1,IF(Z52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f>IF(AB52=1,IF(AA52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I22" s="6" t="str">
-        <f>IF(AC52=1,IF(AB52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J22" s="6" t="str">
-        <f>IF(AD52=1,IF(AC52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K22" s="6" t="str">
-        <f>IF(AE52=1,IF(AD52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L22" s="6" t="str">
-        <f>IF(AF52=1,IF(AE52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M22" s="6" t="str">
-        <f>IF(AG52=1,IF(AF52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N22" s="6" t="str">
-        <f>IF(AH52=1,IF(AG52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O22" s="6" t="str">
-        <f>IF(AI52=1,IF(AH52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P22" s="6" t="str">
-        <f>IF(AJ52=1,IF(AI52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Q22" s="6" t="str">
@@ -5188,7 +5174,7 @@
       </c>
       <c r="R22" s="6" t="str">
         <f>$W$17</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="S22" s="6" t="str">
         <f>IF(AM52=1,IF(AL52=1,"1,","0,"),"0,")</f>
@@ -5238,59 +5224,59 @@
         <v>19</v>
       </c>
       <c r="C23" s="6" t="str">
-        <f>IF(W53=1,IF(V53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D23" s="6" t="str">
-        <f>IF(X53=1,IF(W53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E23" s="6" t="str">
-        <f>IF(Y53=1,IF(X53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f>IF(Z53=1,IF(Y53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f>IF(AA53=1,IF(Z53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f>IF(AB53=1,IF(AA53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I23" s="6" t="str">
-        <f>IF(AC53=1,IF(AB53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J23" s="6" t="str">
-        <f>IF(AD53=1,IF(AC53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K23" s="6" t="str">
-        <f>IF(AE53=1,IF(AD53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L23" s="6" t="str">
-        <f>IF(AF53=1,IF(AE53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M23" s="6" t="str">
-        <f>IF(AG53=1,IF(AF53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N23" s="6" t="str">
-        <f>IF(AH53=1,IF(AG53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O23" s="6" t="str">
-        <f>IF(AI53=1,IF(AH53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P23" s="6" t="str">
-        <f>IF(AJ53=1,IF(AI53=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Q23" s="6" t="str">
@@ -5303,7 +5289,7 @@
       </c>
       <c r="S23" s="6" t="str">
         <f>$X$18</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="T23" s="6" t="str">
         <f>IF(AN53=1,IF(AM53=1,"1,","0,"),"0,")</f>
@@ -5349,59 +5335,59 @@
         <v>19</v>
       </c>
       <c r="C24" s="6" t="str">
-        <f>IF(W54=1,IF(V54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D24" s="6" t="str">
-        <f>IF(X54=1,IF(W54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E24" s="6" t="str">
-        <f>IF(Y54=1,IF(X54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f>IF(Z54=1,IF(Y54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G24" s="6" t="str">
-        <f>IF(AA54=1,IF(Z54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f>IF(AB54=1,IF(AA54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I24" s="6" t="str">
-        <f>IF(AC54=1,IF(AB54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J24" s="6" t="str">
-        <f>IF(AD54=1,IF(AC54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K24" s="6" t="str">
-        <f>IF(AE54=1,IF(AD54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L24" s="6" t="str">
-        <f>IF(AF54=1,IF(AE54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M24" s="6" t="str">
-        <f>IF(AG54=1,IF(AF54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N24" s="6" t="str">
-        <f>IF(AH54=1,IF(AG54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O24" s="6" t="str">
-        <f>IF(AI54=1,IF(AH54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P24" s="6" t="str">
-        <f>IF(AJ54=1,IF(AI54=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Q24" s="6" t="str">
@@ -5418,7 +5404,7 @@
       </c>
       <c r="T24" s="6" t="str">
         <f>$Y$19</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="U24" s="6" t="str">
         <f>IF(AO54=1,IF(AN54=1,"1,","0,"),"0,")</f>
@@ -5460,59 +5446,59 @@
         <v>19</v>
       </c>
       <c r="C25" s="6" t="str">
-        <f>IF(W55=1,IF(V55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D25" s="6" t="str">
-        <f>IF(X55=1,IF(W55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E25" s="6" t="str">
-        <f>IF(Y55=1,IF(X55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f>IF(Z55=1,IF(Y55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f>IF(AA55=1,IF(Z55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f>IF(AB55=1,IF(AA55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I25" s="6" t="str">
-        <f>IF(AC55=1,IF(AB55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J25" s="6" t="str">
-        <f>IF(AD55=1,IF(AC55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K25" s="6" t="str">
-        <f>IF(AE55=1,IF(AD55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L25" s="6" t="str">
-        <f>IF(AF55=1,IF(AE55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M25" s="6" t="str">
-        <f>IF(AG55=1,IF(AF55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N25" s="6" t="str">
-        <f>IF(AH55=1,IF(AG55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O25" s="6" t="str">
-        <f>IF(AI55=1,IF(AH55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P25" s="6" t="str">
-        <f>IF(AJ55=1,IF(AI55=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Q25" s="6" t="str">
@@ -5533,7 +5519,7 @@
       </c>
       <c r="U25" s="6" t="str">
         <f>$Z$20</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="V25" s="6" t="str">
         <f>IF(AP55=1,IF(AO55=1,"1,","0,"),"0,")</f>
@@ -5571,59 +5557,59 @@
         <v>19</v>
       </c>
       <c r="C26" s="6" t="str">
-        <f>IF(W56=1,IF(V56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="D26" s="6" t="str">
-        <f>IF(X56=1,IF(W56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="E26" s="6" t="str">
-        <f>IF(Y56=1,IF(X56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="F26" s="6" t="str">
-        <f>IF(Z56=1,IF(Y56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="G26" s="6" t="str">
-        <f>IF(AA56=1,IF(Z56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f>IF(AB56=1,IF(AA56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="I26" s="6" t="str">
-        <f>IF(AC56=1,IF(AB56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="J26" s="6" t="str">
-        <f>IF(AD56=1,IF(AC56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="K26" s="6" t="str">
-        <f>IF(AE56=1,IF(AD56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="L26" s="6" t="str">
-        <f>IF(AF56=1,IF(AE56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="M26" s="6" t="str">
-        <f>IF(AG56=1,IF(AF56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="N26" s="6" t="str">
-        <f>IF(AH56=1,IF(AG56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O26" s="6" t="str">
-        <f>IF(AI56=1,IF(AH56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="P26" s="6" t="str">
-        <f>IF(AJ56=1,IF(AI56=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Q26" s="6" t="str">
@@ -5676,15 +5662,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AA26">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0,">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="0,">
       <formula>NOT(ISERROR(SEARCH("0,",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="1,">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="1,">
       <formula>NOT(ISERROR(SEARCH("1,",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AG8" r:id="rId1" xr:uid="{D75CDBF5-BFCE-4CE5-9B6B-06B511334A6A}"/>
+    <hyperlink ref="AG8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5692,7 +5678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
   <si>
     <t>https://cachhoc.net/2013/10/13/thuat-toan-tim-duong-di-ngan-nhat-dijkstra-floyd/</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>}};</t>
+  </si>
+  <si>
+    <t>{{</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2693,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>IF(W32=1,IF(V32=1,"1,","0,"),"0,")</f>
@@ -2918,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
@@ -3047,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
@@ -3176,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
@@ -3305,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -3353,7 +3356,7 @@
       </c>
       <c r="L6" s="3" t="str">
         <f>IF(AH3=1,IF(AH2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="M6" s="6" t="str">
         <f t="shared" ref="M6:AA6" si="5">IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
@@ -3422,19 +3425,19 @@
         <v>4</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -3909,7 +3912,7 @@
       </c>
       <c r="G11" s="6" t="str">
         <f>$L$6</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="H11" s="6" t="str">
         <f>IF(AB41=1,IF(AA41=1,"1,","0,"),"0,")</f>
@@ -3949,7 +3952,7 @@
       </c>
       <c r="Q11" s="3" t="str">
         <f>IF(AH4=1,IF(AH3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="R11" s="6" t="str">
         <f t="shared" ref="R11:AA11" si="14">IF(AL41=1,IF(AK41=1,"1,","0,"),"0,")</f>
@@ -4484,7 +4487,7 @@
       </c>
       <c r="L16" s="6" t="str">
         <f>$Q$11</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="M16" s="6" t="str">
         <f>IF(AG46=1,IF(AF46=1,"1,","0,"),"0,")</f>
@@ -4524,7 +4527,7 @@
       </c>
       <c r="V16" s="3" t="str">
         <f>IF(AH5=1,IF(AH4=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="W16" s="6" t="str">
         <f>IF(AQ46=1,IF(AP46=1,"1,","0,"),"0,")</f>
@@ -5059,7 +5062,7 @@
       </c>
       <c r="Q21" s="6" t="str">
         <f>$V$16</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="R21" s="6" t="str">
         <f>IF(AL51=1,IF(AK51=1,"1,","0,"),"0,")</f>
@@ -5099,7 +5102,7 @@
       </c>
       <c r="AA21" s="3" t="str">
         <f>IF(AH6=1,IF(AH5=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="AB21" t="s">
         <v>18</v>
@@ -5198,7 +5201,7 @@
       </c>
       <c r="X22" s="6" t="str">
         <f>IF(AD6=1,IF(AE6=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Y22" s="6" t="str">
         <f>IF(AS52=1,IF(AR52=1,"1,","0,"),"0,")</f>
@@ -5305,7 +5308,7 @@
       </c>
       <c r="W23" s="6" t="str">
         <f>$X$22</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="X23" s="6" t="str">
         <f>IF(AR53=1,IF(AQ53=1,"1,","0,"),"0,")</f>
@@ -5313,7 +5316,7 @@
       </c>
       <c r="Y23" s="6" t="str">
         <f>IF(AE6=1,IF(AF6=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Z23" s="6" t="str">
         <f>IF(AT53=1,IF(AS53=1,"1,","0,"),"0,")</f>
@@ -5420,7 +5423,7 @@
       </c>
       <c r="X24" s="6" t="str">
         <f>$Y$23</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Y24" s="6" t="str">
         <f>IF(AS54=1,IF(AR54=1,"1,","0,"),"0,")</f>
@@ -5428,7 +5431,7 @@
       </c>
       <c r="Z24" s="6" t="str">
         <f>IF(AF6=1,IF(AG6=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="AA24" s="6" t="str">
         <f>IF(AU54=1,IF(AT54=1,"1,","0,"),"0,")</f>
@@ -5535,7 +5538,7 @@
       </c>
       <c r="Y25" s="6" t="str">
         <f>$Z$24</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="Z25" s="6" t="str">
         <f>IF(AT55=1,IF(AS55=1,"1,","0,"),"0,")</f>
@@ -5543,7 +5546,7 @@
       </c>
       <c r="AA25" s="6" t="str">
         <f>IF(AG6=1,IF(AH6=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="AB25" t="s">
         <v>18</v>
@@ -5634,7 +5637,7 @@
       </c>
       <c r="V26" s="6" t="str">
         <f>$AA$21</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="W26" s="6" t="str">
         <f>IF(AQ56=1,IF(AP56=1,"1,","0,"),"0,")</f>
@@ -5650,7 +5653,7 @@
       </c>
       <c r="Z26" s="6" t="str">
         <f>$AA$25</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="AA26" s="6" t="str">
         <f>IF(AU56=1,IF(AT56=1,"1,","0,"),"0,")</f>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1072FD-0A46-4F34-99EF-9160FC8AF1FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,12 +98,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -110,7 +111,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -510,19 +511,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:AF26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="5.7109375" customWidth="1"/>
+    <col min="1" max="26" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -600,7 +601,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -696,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -792,7 +793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -887,7 +888,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -982,7 +983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>11</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>12</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>13</v>
       </c>
@@ -1400,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -1480,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>22</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>23</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>30</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>31</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>32</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>33</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>34</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>40</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -2600,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44</v>
       </c>
@@ -2682,27 +2683,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AB9" r:id="rId1"/>
+    <hyperlink ref="AB9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+      <selection activeCell="AB26" sqref="B2:AB26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="26" width="3.7109375" style="3" customWidth="1"/>
-    <col min="27" max="28" width="3.7109375" customWidth="1"/>
+    <col min="1" max="26" width="3.75" style="3" customWidth="1"/>
+    <col min="27" max="28" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="C1" s="6">
         <v>0</v>
@@ -2795,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
@@ -2918,13 +2919,13 @@
         <v>1</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="I3" s="3" t="str">
         <f>IF(AE3=1,IF(AE2=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="J3" s="6" t="str">
         <f t="shared" ref="J3:AA3" si="1">IF(AD33=1,IF(AC33=1,"1,","0,"),"0,")</f>
@@ -3041,19 +3042,19 @@
         <v>1</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3074,7 +3075,7 @@
       </c>
       <c r="F4" s="3" t="str">
         <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="G4" s="6" t="str">
         <f>IF(AA34=1,IF(Z34=1,"1,","0,"),"0,")</f>
@@ -3182,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -3199,7 +3200,7 @@
       </c>
       <c r="E5" s="3" t="str">
         <f>IF(AG2=1,IF(AF2=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="F5" s="6" t="str">
         <f>IF(Z35=1,IF(Y35=1,"1,","0,"),"0,")</f>
@@ -3223,7 +3224,7 @@
       </c>
       <c r="K5" s="3" t="str">
         <f>IF(AG3=1,IF(AG2=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L5" s="6" t="str">
         <f t="shared" ref="L5:AA5" si="4">IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
@@ -3296,22 +3297,22 @@
         <v>3</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>10</v>
       </c>
@@ -3473,7 +3474,7 @@
       </c>
       <c r="I7" s="6" t="str">
         <f>IF(AD3=1,IF(AE3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="J7" s="6" t="str">
         <f>IF(AD37=1,IF(AC37=1,"1,","0,"),"0,")</f>
@@ -3551,7 +3552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>11</v>
       </c>
@@ -3564,7 +3565,7 @@
       </c>
       <c r="D8" s="6" t="str">
         <f>$I$3</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="E8" s="6" t="str">
         <f>IF(Y38=1,IF(X38=1,"1,","0,"),"0,")</f>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="H8" s="6" t="str">
         <f>IF(AD3=1,IF(AE3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="I8" s="6" t="str">
         <f>IF(AC38=1,IF(AB38=1,"1,","0,"),"0,")</f>
@@ -3588,7 +3589,7 @@
       </c>
       <c r="J8" s="6" t="str">
         <f>IF(AE3=1,IF(AF3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="K8" s="6" t="str">
         <f>IF(AE38=1,IF(AD38=1,"1,","0,"),"0,")</f>
@@ -3604,7 +3605,7 @@
       </c>
       <c r="N8" s="3" t="str">
         <f>IF(AE4=1,IF(AE3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="O8" s="6" t="str">
         <f t="shared" ref="O8:AA8" si="8">IF(AI38=1,IF(AH38=1,"1,","0,"),"0,")</f>
@@ -3665,7 +3666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>12</v>
       </c>
@@ -3698,7 +3699,7 @@
       </c>
       <c r="I9" s="6" t="str">
         <f>IF(AE3=1,IF(AF3=1,"1,","0,"),"0,")</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="J9" s="6" t="str">
         <f>IF(AD39=1,IF(AC39=1,"1,","0,"),"0,")</f>
@@ -3706,7 +3707,7 @@
       </c>
       <c r="K9" s="6" t="str">
         <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="L9" s="6" t="str">
         <f>IF(AF39=1,IF(AE39=1,"1,","0,"),"0,")</f>
@@ -3776,7 +3777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -3797,7 +3798,7 @@
       </c>
       <c r="F10" s="6" t="str">
         <f>$K$5</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="G10" s="6" t="str">
         <f>IF(AA40=1,IF(Z40=1,"1,","0,"),"0,")</f>
@@ -3813,7 +3814,7 @@
       </c>
       <c r="J10" s="6" t="str">
         <f>IF(AF3=1,IF(AG3=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="K10" s="6" t="str">
         <f>IF(AE40=1,IF(AD40=1,"1,","0,"),"0,")</f>
@@ -3887,7 +3888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>14</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>20</v>
       </c>
@@ -4067,7 +4068,7 @@
       </c>
       <c r="R12" s="3" t="str">
         <f>IF(AD5=1,IF(AD4=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="S12" s="6" t="str">
         <f t="shared" ref="S12:AA12" si="16">IF(AM42=1,IF(AL42=1,"1,","0,"),"0,")</f>
@@ -4109,7 +4110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>21</v>
       </c>
@@ -4142,7 +4143,7 @@
       </c>
       <c r="I13" s="6" t="str">
         <f>$N$8</f>
-        <v>1,</v>
+        <v>0,</v>
       </c>
       <c r="J13" s="6" t="str">
         <f>IF(AD43=1,IF(AC43=1,"1,","0,"),"0,")</f>
@@ -4220,7 +4221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>22</v>
       </c>
@@ -4297,7 +4298,7 @@
       </c>
       <c r="T14" s="3" t="str">
         <f>IF(AF5=1,IF(AF4=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U14" s="6" t="str">
         <f t="shared" ref="U14:AA14" si="20">IF(AO44=1,IF(AN44=1,"1,","0,"),"0,")</f>
@@ -4331,7 +4332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>23</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>24</v>
       </c>
@@ -4553,7 +4554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>30</v>
       </c>
@@ -4602,7 +4603,7 @@
       </c>
       <c r="M17" s="6" t="str">
         <f>$R$12</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="N17" s="6" t="str">
         <f>IF(AH47=1,IF(AG47=1,"1,","0,"),"0,")</f>
@@ -4664,7 +4665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>31</v>
       </c>
@@ -4775,7 +4776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>32</v>
       </c>
@@ -4832,7 +4833,7 @@
       </c>
       <c r="O19" s="6" t="str">
         <f>$T$14</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="P19" s="6" t="str">
         <f>IF(AJ49=1,IF(AI49=1,"1,","0,"),"0,")</f>
@@ -4856,7 +4857,7 @@
       </c>
       <c r="U19" s="6" t="str">
         <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="V19" s="6" t="str">
         <f>IF(AP49=1,IF(AO49=1,"1,","0,"),"0,")</f>
@@ -4886,7 +4887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>33</v>
       </c>
@@ -4963,7 +4964,7 @@
       </c>
       <c r="T20" s="6" t="str">
         <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+        <v>1,</v>
       </c>
       <c r="U20" s="6" t="str">
         <f>IF(AO50=1,IF(AN50=1,"1,","0,"),"0,")</f>
@@ -4997,7 +4998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>34</v>
       </c>
@@ -5108,7 +5109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>40</v>
       </c>
@@ -5219,7 +5220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>41</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>42</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>43</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>44</v>
       </c>
@@ -5673,7 +5674,7 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="AG8" r:id="rId1"/>
+    <hyperlink ref="AG8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -5681,16 +5682,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -5717,7 +5718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -5833,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -6041,7 +6042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
@@ -6055,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6083,7 +6084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS CAO HUY\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D195C5FB-B41B-4FBF-8ABC-4EEE292559C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41923B6-8876-49B6-8586-D53E48A279D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,20 +17,12 @@
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
   <si>
     <t>https://cachhoc.net/2013/10/13/thuat-toan-tim-duong-di-ngan-nhat-dijkstra-floyd/</t>
   </si>
@@ -247,6 +239,9 @@
   <si>
     <t>(Matric[4][4]==1?((Matric[4][3]==1)?1:0):0),</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -294,18 +289,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -388,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -34061,20 +34050,17 @@
   <dimension ref="A1:BB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
+      <selection pane="bottomRight" activeCell="AA47" sqref="AA47:AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="7" width="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="18" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="27" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="7.75" customWidth="1"/>
     <col min="28" max="28" width="2.625" customWidth="1"/>
     <col min="29" max="35" width="8.625" customWidth="1"/>
   </cols>
@@ -34204,27 +34190,27 @@
         <v>5</v>
       </c>
       <c r="I2" s="4" t="str">
-        <f t="shared" ref="I2:N2" si="0">IF(AC32=1,IF(AB32=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I2" si="0">IF(AC32=1,IF(AB32=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J2" s="4" t="str">
-        <f>IF(AD32=1,IF(AC32=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J2:N3" si="1">IF(AD32=1,IF(AC32=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K2" s="4" t="str">
-        <f>IF(AE32=1,IF(AD32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L2" s="4" t="str">
-        <f>IF(AF32=1,IF(AE32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M2" s="4" t="str">
-        <f>IF(AG32=1,IF(AF32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N2" s="4" t="str">
-        <f>IF(AH32=1,IF(AG32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O2" s="4" t="str">
@@ -34232,51 +34218,51 @@
         <v>0,</v>
       </c>
       <c r="P2" s="4" t="str">
-        <f>IF(AK32=1,IF(AJ32=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P2:AA4" si="2">IF(AK32=1,IF(AJ32=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q2" s="4" t="str">
-        <f>IF(AL32=1,IF(AK32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="R2" s="4" t="str">
-        <f>IF(AM32=1,IF(AL32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="S2" s="4" t="str">
-        <f>IF(AN32=1,IF(AM32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="T2" s="4" t="str">
-        <f>IF(AO32=1,IF(AN32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="U2" s="4" t="str">
-        <f>IF(AP32=1,IF(AO32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="V2" s="4" t="str">
-        <f>IF(AQ32=1,IF(AP32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="W2" s="4" t="str">
-        <f>IF(AR32=1,IF(AQ32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="X2" s="4" t="str">
-        <f>IF(AS32=1,IF(AR32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Y2" s="4" t="str">
-        <f>IF(AT32=1,IF(AS32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Z2" s="4" t="str">
-        <f>IF(AU32=1,IF(AT32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AA2" s="4" t="str">
-        <f>IF(AV32=1,IF(AU32=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AB2" s="2" t="s">
@@ -34338,23 +34324,23 @@
         <v>7</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f>IF(AD33=1,IF(AC33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="K3" s="4" t="str">
-        <f>IF(AE33=1,IF(AD33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="L3" s="4" t="str">
-        <f>IF(AF33=1,IF(AE33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="M3" s="4" t="str">
-        <f>IF(AG33=1,IF(AF33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="N3" s="4" t="str">
-        <f>IF(AH33=1,IF(AG33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="1"/>
         <v>0,</v>
       </c>
       <c r="O3" s="4" t="str">
@@ -34362,51 +34348,51 @@
         <v>0,</v>
       </c>
       <c r="P3" s="4" t="str">
-        <f>IF(AK33=1,IF(AJ33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Q3" s="4" t="str">
-        <f>IF(AL33=1,IF(AK33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="R3" s="4" t="str">
-        <f>IF(AM33=1,IF(AL33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="S3" s="4" t="str">
-        <f>IF(AN33=1,IF(AM33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="T3" s="4" t="str">
-        <f>IF(AO33=1,IF(AN33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="U3" s="4" t="str">
-        <f>IF(AP33=1,IF(AO33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="V3" s="4" t="str">
-        <f>IF(AQ33=1,IF(AP33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="W3" s="4" t="str">
-        <f>IF(AR33=1,IF(AQ33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="X3" s="4" t="str">
-        <f>IF(AS33=1,IF(AR33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Y3" s="4" t="str">
-        <f>IF(AT33=1,IF(AS33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Z3" s="4" t="str">
-        <f>IF(AU33=1,IF(AT33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AA3" s="4" t="str">
-        <f>IF(AV33=1,IF(AU33=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AB3" s="2" t="s">
@@ -34465,7 +34451,7 @@
         <v>0,</v>
       </c>
       <c r="I4" s="4" t="str">
-        <f t="shared" ref="I4" si="1">IF(AC34=1,IF(AB34=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I4" si="3">IF(AC34=1,IF(AB34=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -34492,51 +34478,51 @@
         <v>0,</v>
       </c>
       <c r="P4" s="4" t="str">
-        <f>IF(AK34=1,IF(AJ34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>IF(AL34=1,IF(AK34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="R4" s="4" t="str">
-        <f>IF(AM34=1,IF(AL34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="S4" s="4" t="str">
-        <f>IF(AN34=1,IF(AM34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="T4" s="4" t="str">
-        <f>IF(AO34=1,IF(AN34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="U4" s="4" t="str">
-        <f>IF(AP34=1,IF(AO34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="V4" s="4" t="str">
-        <f>IF(AQ34=1,IF(AP34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="W4" s="4" t="str">
-        <f>IF(AR34=1,IF(AQ34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="X4" s="4" t="str">
-        <f>IF(AS34=1,IF(AR34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Y4" s="4" t="str">
-        <f>IF(AT34=1,IF(AS34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="Z4" s="4" t="str">
-        <f>IF(AU34=1,IF(AT34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AA4" s="4" t="str">
-        <f>IF(AV34=1,IF(AU34=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="2"/>
         <v>0,</v>
       </c>
       <c r="AB4" s="2" t="s">
@@ -34594,78 +34580,78 @@
         <v>0,</v>
       </c>
       <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:J5" si="2">IF(AC35=1,IF(AB35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I5:J5" si="4">IF(AC35=1,IF(AB35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J5" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0,</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="str">
-        <f t="shared" ref="L5:N5" si="3">IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L5:N5" si="5">IF(AF35=1,IF(AE35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="N5" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0,</v>
       </c>
       <c r="O5" s="4" t="str">
-        <f t="shared" ref="O2:O8" si="4">IF(AJ35=1,IF(AH35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O5:O8" si="6">IF(AJ35=1,IF(AH35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P5" s="4" t="str">
-        <f t="shared" ref="P5:AA5" si="5">IF(AK35=1,IF(AJ35=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P5:AA5" si="7">IF(AK35=1,IF(AJ35=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="R5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="S5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="T5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="U5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="V5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="W5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="X5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="Y5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="Z5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="AA5" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0,</v>
       </c>
       <c r="AB5" s="2" t="s">
@@ -34724,78 +34710,78 @@
         <v>0,</v>
       </c>
       <c r="I6" s="4" t="str">
-        <f t="shared" ref="I6:K6" si="6">IF(AC36=1,IF(AB36=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I6:K6" si="8">IF(AC36=1,IF(AB36=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J6" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="K6" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0,</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="4" t="str">
-        <f t="shared" ref="M6:N6" si="7">IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M6:N6" si="9">IF(AG36=1,IF(AF36=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N6" s="4" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0,</v>
       </c>
       <c r="O6" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="P6" s="4" t="str">
-        <f t="shared" ref="P6:AA6" si="8">IF(AK36=1,IF(AJ36=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P6:AA6" si="10">IF(AK36=1,IF(AJ36=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="R6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="S6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="T6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="U6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="V6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="W6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="X6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="Y6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="Z6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="AA6" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0,</v>
       </c>
       <c r="AB6" s="2" t="s">
@@ -34858,15 +34844,15 @@
         <v>15</v>
       </c>
       <c r="J7" s="4" t="str">
-        <f t="shared" ref="J7:L7" si="9">IF(AD37=1,IF(AC37=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J7:L7" si="11">IF(AD37=1,IF(AC37=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K7" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="L7" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0,</v>
       </c>
       <c r="M7" s="9" t="s">
@@ -34877,55 +34863,55 @@
         <v>0,</v>
       </c>
       <c r="O7" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="P7" s="4" t="str">
-        <f t="shared" ref="P7:AA7" si="10">IF(AK37=1,IF(AJ37=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P7:AA7" si="12">IF(AK37=1,IF(AJ37=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="R7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="S7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="T7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="U7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="V7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="W7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="X7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="Y7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="Z7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="AA7" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0,</v>
       </c>
       <c r="AB7" s="2" t="s">
@@ -34943,7 +34929,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="4" t="str">
-        <f>IF(W38=1,IF(V38=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="C8:C22" si="13">IF(W38=1,IF(V38=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="D8" s="5" t="str">
@@ -34973,70 +34959,70 @@
         <v>18</v>
       </c>
       <c r="K8" s="4" t="str">
-        <f t="shared" ref="K8:M8" si="11">IF(AE38=1,IF(AD38=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="K8:M8" si="14">IF(AE38=1,IF(AD38=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="L8" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="M8" s="4" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0,</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0,</v>
       </c>
       <c r="P8" s="4" t="str">
-        <f t="shared" ref="P8:AA8" si="12">IF(AK38=1,IF(AJ38=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P8:AA8" si="15">IF(AK38=1,IF(AJ38=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="R8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="S8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="T8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="U8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="V8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="W8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="X8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="Y8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="Z8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="AA8" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0,</v>
       </c>
       <c r="AB8" s="2" t="s">
@@ -35057,11 +35043,11 @@
         <v>3</v>
       </c>
       <c r="C9" s="4" t="str">
-        <f>IF(W39=1,IF(V39=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D9" s="4" t="str">
-        <f>IF(X39=1,IF(W39=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="D9:D22" si="16">IF(X39=1,IF(W39=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -35090,66 +35076,66 @@
         <v>22</v>
       </c>
       <c r="L9" s="4" t="str">
-        <f t="shared" ref="L9:N9" si="13">IF(AF39=1,IF(AE39=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L9:N9" si="17">IF(AF39=1,IF(AE39=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M9" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="N9" s="4" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0,</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="P9" s="4" t="str">
-        <f t="shared" ref="P9:AA9" si="14">IF(AK39=1,IF(AJ39=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P9:AA9" si="18">IF(AK39=1,IF(AJ39=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="R9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="T9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="U9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="V9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="W9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="X9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="Y9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="Z9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="AA9" s="4" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0,</v>
       </c>
       <c r="AB9" s="2" t="s">
@@ -35167,15 +35153,15 @@
         <v>3</v>
       </c>
       <c r="C10" s="4" t="str">
-        <f>IF(W40=1,IF(V40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>IF(X40=1,IF(W40=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>IF(Y40=1,IF(X40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="E10:E22" si="19">IF(Y40=1,IF(X40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -35190,7 +35176,7 @@
         <v>0,</v>
       </c>
       <c r="I10" s="4" t="str">
-        <f t="shared" ref="I10" si="15">IF(AC40=1,IF(AB40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I10" si="20">IF(AC40=1,IF(AB40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J10" s="9" t="s">
@@ -35204,62 +35190,62 @@
         <v>26</v>
       </c>
       <c r="M10" s="4" t="str">
-        <f t="shared" ref="M10:N10" si="16">IF(AG40=1,IF(AF40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M10:N10" si="21">IF(AG40=1,IF(AF40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N10" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>0,</v>
       </c>
       <c r="O10" s="4" t="str">
-        <f t="shared" ref="O10:O12" si="17">IF(AJ40=1,IF(AH40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O10:O12" si="22">IF(AJ40=1,IF(AH40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f t="shared" ref="Q10:AA10" si="18">IF(AL40=1,IF(AK40=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q10:AA10" si="23">IF(AL40=1,IF(AK40=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="S10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="T10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="U10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="V10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="W10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="X10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="Y10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="Z10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="AA10" s="4" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0,</v>
       </c>
       <c r="AB10" s="2" t="s">
@@ -35302,19 +35288,19 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="str">
-        <f>IF(W41=1,IF(V41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D11" s="4" t="str">
-        <f>IF(X41=1,IF(W41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>IF(Y41=1,IF(X41=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F11" s="4" t="str">
-        <f>IF(Z41=1,IF(Y41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="F11:F22" si="24">IF(Z41=1,IF(Y41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -35325,77 +35311,77 @@
         <v>0,</v>
       </c>
       <c r="I11" s="4" t="str">
-        <f t="shared" ref="I11:J11" si="19">IF(AC41=1,IF(AB41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I11:J11" si="25">IF(AC41=1,IF(AB41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J11" s="4" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>0,</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="L11" s="4" t="str">
-        <f t="shared" ref="L11:N11" si="20">IF(AF41=1,IF(AE41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L11:N11" si="26">IF(AF41=1,IF(AE41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M11" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="N11" s="4" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>0,</v>
       </c>
       <c r="O11" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="P11" s="4" t="str">
-        <f t="shared" ref="P11:P13" si="21">IF(AK41=1,IF(AJ41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P11:P13" si="27">IF(AK41=1,IF(AJ41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="R11" s="4" t="str">
-        <f t="shared" ref="R11:AA11" si="22">IF(AM41=1,IF(AL41=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="R11:AA11" si="28">IF(AM41=1,IF(AL41=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="S11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="T11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="U11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="V11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="W11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="X11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Y11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="Z11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="AA11" s="4" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>0,</v>
       </c>
       <c r="AB11" s="2" t="s">
@@ -35438,100 +35424,100 @@
         <v>3</v>
       </c>
       <c r="C12" s="4" t="str">
-        <f>IF(W42=1,IF(V42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D12" s="4" t="str">
-        <f>IF(X42=1,IF(W42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>IF(Y42=1,IF(X42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F12" s="4" t="str">
-        <f>IF(Z42=1,IF(Y42=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G12" s="4" t="str">
-        <f>IF(AA42=1,IF(Z42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="G12:G22" si="29">IF(AA42=1,IF(Z42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="4" t="str">
-        <f t="shared" ref="I12:M12" si="23">IF(AC42=1,IF(AB42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I12:M12" si="30">IF(AC42=1,IF(AB42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J12" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="K12" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="L12" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="M12" s="4" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>0,</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>0,</v>
       </c>
       <c r="P12" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f t="shared" ref="Q12:Q14" si="24">IF(AL42=1,IF(AK42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q12:Q14" si="31">IF(AL42=1,IF(AK42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>33</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" ref="S12:AA12" si="25">IF(AN42=1,IF(AM42=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="S12:AA12" si="32">IF(AN42=1,IF(AM42=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="T12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="U12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="V12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="W12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="X12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="Y12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="Z12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="AA12" s="4" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0,</v>
       </c>
       <c r="AB12" s="2" t="s">
@@ -35574,42 +35560,42 @@
         <v>3</v>
       </c>
       <c r="C13" s="4" t="str">
-        <f>IF(W43=1,IF(V43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D13" s="4" t="str">
-        <f>IF(X43=1,IF(W43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>IF(Y43=1,IF(X43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F13" s="4" t="str">
-        <f>IF(Z43=1,IF(Y43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G13" s="4" t="str">
-        <f>IF(AA43=1,IF(Z43=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H13" s="4" t="str">
-        <f>IF(AB43=1,IF(AA43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="H13:H22" si="33">IF(AB43=1,IF(AA43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>34</v>
       </c>
       <c r="J13" s="4" t="str">
-        <f t="shared" ref="J13:L13" si="26">IF(AD43=1,IF(AC43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J13:L13" si="34">IF(AD43=1,IF(AC43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K13" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0,</v>
       </c>
       <c r="L13" s="4" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>0,</v>
       </c>
       <c r="M13" s="9" t="s">
@@ -35623,15 +35609,15 @@
         <v>36</v>
       </c>
       <c r="P13" s="4" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0,</v>
       </c>
       <c r="Q13" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="R13" s="4" t="str">
-        <f t="shared" ref="R13:R15" si="27">IF(AM43=1,IF(AL43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="R13:R15" si="35">IF(AM43=1,IF(AL43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="S13" s="5" t="str">
@@ -35639,35 +35625,35 @@
         <v>0,</v>
       </c>
       <c r="T13" s="4" t="str">
-        <f t="shared" ref="T13:AA13" si="28">IF(AO43=1,IF(AN43=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="T13:AA13" si="36">IF(AO43=1,IF(AN43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="U13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="V13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="W13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="X13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="Y13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="Z13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="AA13" s="4" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>0,</v>
       </c>
       <c r="AB13" s="2" t="s">
@@ -35710,46 +35696,46 @@
         <v>3</v>
       </c>
       <c r="C14" s="4" t="str">
-        <f>IF(W44=1,IF(V44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D14" s="4" t="str">
-        <f>IF(X44=1,IF(W44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>IF(Y44=1,IF(X44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F14" s="4" t="str">
-        <f>IF(Z44=1,IF(Y44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f>IF(AA44=1,IF(Z44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f>IF(AB44=1,IF(AA44=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I14" s="4" t="str">
-        <f t="shared" ref="I14:I26" si="29">IF(AC44=1,IF(AB44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="I14:I26" si="37">IF(AC44=1,IF(AB44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K14" s="4" t="str">
-        <f t="shared" ref="K14:M14" si="30">IF(AE44=1,IF(AD44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="K14:M14" si="38">IF(AE44=1,IF(AD44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="L14" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0,</v>
       </c>
       <c r="M14" s="4" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>0,</v>
       </c>
       <c r="N14" s="9" t="s">
@@ -35763,46 +35749,46 @@
         <v>39</v>
       </c>
       <c r="Q14" s="4" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>0,</v>
       </c>
       <c r="R14" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0,</v>
       </c>
       <c r="S14" s="4" t="str">
-        <f t="shared" ref="S14:S15" si="31">IF(AN44=1,IF(AM44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="S14:S15" si="39">IF(AN44=1,IF(AM44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="T14" s="9" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="4" t="str">
-        <f t="shared" ref="U14:AA14" si="32">IF(AP44=1,IF(AO44=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="U14:AA14" si="40">IF(AP44=1,IF(AO44=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="V14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="W14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="X14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="Y14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="Z14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="AA14" s="4" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="40"/>
         <v>0,</v>
       </c>
       <c r="AB14" s="2" t="s">
@@ -35845,50 +35831,50 @@
         <v>3</v>
       </c>
       <c r="C15" s="4" t="str">
-        <f>IF(W45=1,IF(V45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>IF(X45=1,IF(W45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>IF(Y45=1,IF(X45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F15" s="4" t="str">
-        <f>IF(Z45=1,IF(Y45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G15" s="4" t="str">
-        <f>IF(AA45=1,IF(Z45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f>IF(AB45=1,IF(AA45=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I15" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J15" s="4" t="str">
-        <f t="shared" ref="J15:J26" si="33">IF(AD45=1,IF(AC45=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="J15:J26" si="41">IF(AD45=1,IF(AC45=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="4" t="str">
-        <f t="shared" ref="L15:N15" si="34">IF(AF45=1,IF(AE45=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L15:N15" si="42">IF(AF45=1,IF(AE45=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M15" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>0,</v>
       </c>
       <c r="N15" s="4" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>0,</v>
       </c>
       <c r="O15" s="9" t="s">
@@ -35902,11 +35888,11 @@
         <v>43</v>
       </c>
       <c r="R15" s="4" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>0,</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>0,</v>
       </c>
       <c r="T15" s="4" t="str">
@@ -35917,27 +35903,27 @@
         <v>44</v>
       </c>
       <c r="V15" s="4" t="str">
-        <f t="shared" ref="V15:AA15" si="35">IF(AQ45=1,IF(AP45=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="V15:AA15" si="43">IF(AQ45=1,IF(AP45=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="W15" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0,</v>
       </c>
       <c r="X15" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0,</v>
       </c>
       <c r="Y15" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0,</v>
       </c>
       <c r="Z15" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0,</v>
       </c>
       <c r="AA15" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>0,</v>
       </c>
       <c r="AB15" s="2" t="s">
@@ -35980,100 +35966,100 @@
         <v>3</v>
       </c>
       <c r="C16" s="4" t="str">
-        <f>IF(W46=1,IF(V46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D16" s="4" t="str">
-        <f>IF(X46=1,IF(W46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>IF(Y46=1,IF(X46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F16" s="4" t="str">
-        <f>IF(Z46=1,IF(Y46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G16" s="4" t="str">
-        <f>IF(AA46=1,IF(Z46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f>IF(AB46=1,IF(AA46=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I16" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J16" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K16" s="4" t="str">
-        <f t="shared" ref="K16:K26" si="36">IF(AE46=1,IF(AD46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="K16:K26" si="44">IF(AE46=1,IF(AD46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="L16" s="9" t="s">
         <v>45</v>
       </c>
       <c r="M16" s="4" t="str">
-        <f t="shared" ref="M16:N16" si="37">IF(AG46=1,IF(AF46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M16:N16" si="45">IF(AG46=1,IF(AF46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N16" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>0,</v>
       </c>
       <c r="O16" s="4" t="str">
-        <f t="shared" ref="O16:O18" si="38">IF(AJ46=1,IF(AH46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O16:O18" si="46">IF(AJ46=1,IF(AH46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>46</v>
       </c>
       <c r="Q16" s="4" t="str">
-        <f t="shared" ref="Q16:U16" si="39">IF(AL46=1,IF(AK46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q16:U16" si="47">IF(AL46=1,IF(AK46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R16" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0,</v>
       </c>
       <c r="S16" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0,</v>
       </c>
       <c r="T16" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0,</v>
       </c>
       <c r="U16" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>0,</v>
       </c>
       <c r="V16" s="9" t="s">
         <v>47</v>
       </c>
       <c r="W16" s="4" t="str">
-        <f t="shared" ref="W16:AA16" si="40">IF(AR46=1,IF(AQ46=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="W16:AA16" si="48">IF(AR46=1,IF(AQ46=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="X16" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0,</v>
       </c>
       <c r="Y16" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0,</v>
       </c>
       <c r="Z16" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0,</v>
       </c>
       <c r="AA16" s="4" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>0,</v>
       </c>
       <c r="AB16" s="2" t="s">
@@ -36116,43 +36102,43 @@
         <v>3</v>
       </c>
       <c r="C17" s="4" t="str">
-        <f>IF(W47=1,IF(V47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D17" s="4" t="str">
-        <f>IF(X47=1,IF(W47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>IF(Y47=1,IF(X47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F17" s="4" t="str">
-        <f>IF(Z47=1,IF(Y47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G17" s="4" t="str">
-        <f>IF(AA47=1,IF(Z47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f>IF(AB47=1,IF(AA47=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I17" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J17" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K17" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L17" s="4" t="str">
-        <f t="shared" ref="L17:L26" si="41">IF(AF47=1,IF(AE47=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="L17:L26" si="49">IF(AF47=1,IF(AE47=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="M17" s="9" t="s">
@@ -36163,19 +36149,19 @@
         <v>0,</v>
       </c>
       <c r="O17" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0,</v>
       </c>
       <c r="P17" s="4" t="str">
-        <f t="shared" ref="P17:R17" si="42">IF(AK47=1,IF(AJ47=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P17:R17" si="50">IF(AK47=1,IF(AJ47=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q17" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0,</v>
       </c>
       <c r="R17" s="4" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>0,</v>
       </c>
       <c r="S17" s="4" t="str">
@@ -36183,34 +36169,34 @@
         <v>0,</v>
       </c>
       <c r="T17" s="4" t="str">
-        <f t="shared" ref="T17:V17" si="43">IF(AO47=1,IF(AN47=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="T17:V17" si="51">IF(AO47=1,IF(AN47=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="U17" s="4" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0,</v>
       </c>
       <c r="V17" s="4" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>0,</v>
       </c>
       <c r="W17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="X17" s="4" t="str">
-        <f t="shared" ref="X17:AA17" si="44">IF(AS47=1,IF(AR47=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="X17:AA17" si="52">IF(AS47=1,IF(AR47=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Y17" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0,</v>
       </c>
       <c r="Z17" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0,</v>
       </c>
       <c r="AA17" s="4" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0,</v>
       </c>
       <c r="AB17" s="2" t="s">
@@ -36253,47 +36239,47 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f>IF(W48=1,IF(V48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f>IF(X48=1,IF(W48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>IF(Y48=1,IF(X48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f>IF(Z48=1,IF(Y48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G18" s="4" t="str">
-        <f>IF(AA48=1,IF(Z48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f>IF(AB48=1,IF(AA48=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I18" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J18" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K18" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L18" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M18" s="4" t="str">
-        <f t="shared" ref="M18:M26" si="45">IF(AG48=1,IF(AF48=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="M18:M26" si="53">IF(AG48=1,IF(AF48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="N18" s="4" t="str">
@@ -36301,15 +36287,15 @@
         <v>0,</v>
       </c>
       <c r="O18" s="4" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>0,</v>
       </c>
       <c r="P18" s="4" t="str">
-        <f t="shared" ref="P18:Q18" si="46">IF(AK48=1,IF(AJ48=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P18:Q18" si="54">IF(AK48=1,IF(AJ48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q18" s="4" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="54"/>
         <v>0,</v>
       </c>
       <c r="R18" s="4" t="str">
@@ -36325,15 +36311,15 @@
         <v>0,</v>
       </c>
       <c r="U18" s="4" t="str">
-        <f t="shared" ref="U18:W18" si="47">IF(AP48=1,IF(AO48=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="U18:W18" si="55">IF(AP48=1,IF(AO48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="V18" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0,</v>
       </c>
       <c r="W18" s="4" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>0,</v>
       </c>
       <c r="X18" s="5" t="str">
@@ -36341,15 +36327,15 @@
         <v>0,</v>
       </c>
       <c r="Y18" s="4" t="str">
-        <f t="shared" ref="Y18:AA18" si="48">IF(AT48=1,IF(AS48=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Y18:AA18" si="56">IF(AT48=1,IF(AS48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Z18" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0,</v>
       </c>
       <c r="AA18" s="4" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>0,</v>
       </c>
       <c r="AB18" s="2" t="s">
@@ -36392,66 +36378,66 @@
         <v>3</v>
       </c>
       <c r="C19" s="4" t="str">
-        <f>IF(W49=1,IF(V49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D19" s="4" t="str">
-        <f>IF(X49=1,IF(W49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>IF(Y49=1,IF(X49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F19" s="4" t="str">
-        <f>IF(Z49=1,IF(Y49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G19" s="4" t="str">
-        <f>IF(AA49=1,IF(Z49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f>IF(AB49=1,IF(AA49=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I19" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J19" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K19" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L19" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M19" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0,</v>
       </c>
       <c r="N19" s="4" t="str">
-        <f t="shared" ref="N19:N26" si="49">IF(AH49=1,IF(AG49=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="N19:N26" si="57">IF(AH49=1,IF(AG49=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="O19" s="9" t="s">
         <v>50</v>
       </c>
       <c r="P19" s="4" t="str">
-        <f t="shared" ref="P19:R19" si="50">IF(AK49=1,IF(AJ49=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P19:R19" si="58">IF(AK49=1,IF(AJ49=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q19" s="4" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0,</v>
       </c>
       <c r="R19" s="4" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>0,</v>
       </c>
       <c r="S19" s="4" t="str">
@@ -36466,26 +36452,26 @@
         <v>51</v>
       </c>
       <c r="V19" s="4" t="str">
-        <f t="shared" ref="V19:X19" si="51">IF(AQ49=1,IF(AP49=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="V19:X19" si="59">IF(AQ49=1,IF(AP49=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="W19" s="4" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0,</v>
       </c>
       <c r="X19" s="4" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>0,</v>
       </c>
       <c r="Y19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="Z19" s="4" t="str">
-        <f t="shared" ref="Z19:AA19" si="52">IF(AU49=1,IF(AT49=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Z19:AA19" si="60">IF(AU49=1,IF(AT49=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="AA19" s="4" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="60"/>
         <v>0,</v>
       </c>
       <c r="AB19" s="2" t="s">
@@ -36528,70 +36514,70 @@
         <v>3</v>
       </c>
       <c r="C20" s="4" t="str">
-        <f>IF(W50=1,IF(V50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D20" s="4" t="str">
-        <f>IF(X50=1,IF(W50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>IF(Y50=1,IF(X50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F20" s="4" t="str">
-        <f>IF(Z50=1,IF(Y50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G20" s="4" t="str">
-        <f>IF(AA50=1,IF(Z50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f>IF(AB50=1,IF(AA50=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I20" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J20" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K20" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L20" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M20" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0,</v>
       </c>
       <c r="N20" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0,</v>
       </c>
       <c r="O20" s="4" t="str">
-        <f t="shared" ref="O20:O26" si="53">IF(AJ50=1,IF(AH50=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="O20:O26" si="61">IF(AJ50=1,IF(AH50=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="P20" s="9" t="s">
         <v>53</v>
       </c>
       <c r="Q20" s="4" t="str">
-        <f t="shared" ref="Q20:S20" si="54">IF(AL50=1,IF(AK50=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q20:S20" si="62">IF(AL50=1,IF(AK50=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R20" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0,</v>
       </c>
       <c r="S20" s="4" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>0,</v>
       </c>
       <c r="T20" s="9" t="s">
@@ -36605,15 +36591,15 @@
         <v>55</v>
       </c>
       <c r="W20" s="4" t="str">
-        <f t="shared" ref="W20:Y20" si="55">IF(AR50=1,IF(AQ50=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="W20:Y20" si="63">IF(AR50=1,IF(AQ50=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="X20" s="4" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0,</v>
       </c>
       <c r="Y20" s="4" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>0,</v>
       </c>
       <c r="Z20" s="9" t="s">
@@ -36663,97 +36649,97 @@
         <v>3</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f>IF(W51=1,IF(V51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>IF(X51=1,IF(W51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>IF(Y51=1,IF(X51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F21" s="4" t="str">
-        <f>IF(Z51=1,IF(Y51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G21" s="4" t="str">
-        <f>IF(AA51=1,IF(Z51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f>IF(AB51=1,IF(AA51=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I21" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J21" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K21" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L21" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M21" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0,</v>
       </c>
       <c r="N21" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0,</v>
       </c>
       <c r="O21" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0,</v>
       </c>
       <c r="P21" s="4" t="str">
-        <f t="shared" ref="P21:P26" si="56">IF(AK51=1,IF(AJ51=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="P21:P26" si="64">IF(AK51=1,IF(AJ51=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>57</v>
       </c>
       <c r="R21" s="4" t="str">
-        <f t="shared" ref="R21:T21" si="57">IF(AM51=1,IF(AL51=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="R21:T21" si="65">IF(AM51=1,IF(AL51=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="S21" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0,</v>
       </c>
       <c r="T21" s="4" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="65"/>
         <v>0,</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V21" s="4" t="str">
-        <f t="shared" ref="V21:Z21" si="58">IF(AQ51=1,IF(AP51=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="V21:Z21" si="66">IF(AQ51=1,IF(AP51=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="W21" s="4" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0,</v>
       </c>
       <c r="X21" s="4" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0,</v>
       </c>
       <c r="Y21" s="4" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0,</v>
       </c>
       <c r="Z21" s="4" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>0,</v>
       </c>
       <c r="AA21" s="9" t="s">
@@ -36799,101 +36785,101 @@
         <v>3</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f>IF(W52=1,IF(V52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="13"/>
         <v>0,</v>
       </c>
       <c r="D22" s="4" t="str">
-        <f>IF(X52=1,IF(W52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="16"/>
         <v>0,</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>IF(Y52=1,IF(X52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="19"/>
         <v>0,</v>
       </c>
       <c r="F22" s="4" t="str">
-        <f>IF(Z52=1,IF(Y52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="24"/>
         <v>0,</v>
       </c>
       <c r="G22" s="4" t="str">
-        <f>IF(AA52=1,IF(Z52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="29"/>
         <v>0,</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f>IF(AB52=1,IF(AA52=1,"1,","0,"),"0,")</f>
+        <f t="shared" si="33"/>
         <v>0,</v>
       </c>
       <c r="I22" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J22" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K22" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L22" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M22" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0,</v>
       </c>
       <c r="N22" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0,</v>
       </c>
       <c r="O22" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0,</v>
       </c>
       <c r="P22" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0,</v>
       </c>
       <c r="Q22" s="4" t="str">
-        <f t="shared" ref="Q22:Q26" si="59">IF(AL52=1,IF(AK52=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Q22:Q26" si="67">IF(AL52=1,IF(AK52=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>60</v>
       </c>
       <c r="S22" s="4" t="str">
-        <f t="shared" ref="S22:W22" si="60">IF(AN52=1,IF(AM52=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="S22:W22" si="68">IF(AN52=1,IF(AM52=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="T22" s="4" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0,</v>
       </c>
       <c r="U22" s="4" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0,</v>
       </c>
       <c r="V22" s="4" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0,</v>
       </c>
       <c r="W22" s="4" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>0,</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>61</v>
       </c>
       <c r="Y22" s="4" t="str">
-        <f t="shared" ref="Y22:AA22" si="61">IF(AT52=1,IF(AS52=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Y22:AA22" si="69">IF(AT52=1,IF(AS52=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="Z22" s="4" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>0,</v>
       </c>
       <c r="AA22" s="4" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>0,</v>
       </c>
       <c r="AB22" s="2" t="s">
@@ -36936,67 +36922,67 @@
         <v>3</v>
       </c>
       <c r="C23" s="4" t="str">
-        <f t="shared" ref="C23:C26" si="62">IF(W53=1,IF(V53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="C23:C26" si="70">IF(W53=1,IF(V53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f t="shared" ref="D23:D26" si="63">IF(X53=1,IF(W53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="D23:D26" si="71">IF(X53=1,IF(W53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" ref="E23:E26" si="64">IF(Y53=1,IF(X53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="E23:E26" si="72">IF(Y53=1,IF(X53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="F23" s="4" t="str">
-        <f t="shared" ref="F23:F26" si="65">IF(Z53=1,IF(Y53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="F23:F26" si="73">IF(Z53=1,IF(Y53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="G23" s="4" t="str">
-        <f t="shared" ref="G23:G26" si="66">IF(AA53=1,IF(Z53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="G23:G26" si="74">IF(AA53=1,IF(Z53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" ref="H23:H26" si="67">IF(AB53=1,IF(AA53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="H23:H26" si="75">IF(AB53=1,IF(AA53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="I23" s="4" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>0,</v>
       </c>
       <c r="J23" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>0,</v>
       </c>
       <c r="K23" s="4" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>0,</v>
       </c>
       <c r="L23" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="49"/>
         <v>0,</v>
       </c>
       <c r="M23" s="4" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>0,</v>
       </c>
       <c r="N23" s="4" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>0,</v>
       </c>
       <c r="O23" s="4" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>0,</v>
       </c>
       <c r="P23" s="4" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>0,</v>
       </c>
       <c r="Q23" s="4" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>0,</v>
       </c>
       <c r="R23" s="4" t="str">
-        <f t="shared" ref="R23:R26" si="68">IF(AM53=1,IF(AL53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="R23:R26" si="76">IF(AM53=1,IF(AL53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="S23" s="4" t="str">
@@ -37004,15 +36990,15 @@
         <v>0,</v>
       </c>
       <c r="T23" s="4" t="str">
-        <f t="shared" ref="T23:V23" si="69">IF(AO53=1,IF(AN53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="T23:V23" si="77">IF(AO53=1,IF(AN53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="U23" s="4" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0,</v>
       </c>
       <c r="V23" s="4" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0,</v>
       </c>
       <c r="W23" s="9" t="s">
@@ -37026,11 +37012,11 @@
         <v>63</v>
       </c>
       <c r="Z23" s="4" t="str">
-        <f t="shared" ref="Z23:AA23" si="70">IF(AU53=1,IF(AT53=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="Z23:AA23" si="78">IF(AU53=1,IF(AT53=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="AA23" s="4" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>0,</v>
       </c>
       <c r="AB23" s="2" t="s">
@@ -37073,86 +37059,86 @@
         <v>3</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0,</v>
       </c>
       <c r="D24" s="4" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0,</v>
       </c>
       <c r="E24" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v>0,</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>0,</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f t="shared" si="74"/>
+        <v>0,</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="75"/>
+        <v>0,</v>
+      </c>
+      <c r="I24" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>0,</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>0,</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>0,</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>0,</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>0,</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>0,</v>
+      </c>
+      <c r="O24" s="4" t="str">
+        <f t="shared" si="61"/>
+        <v>0,</v>
+      </c>
+      <c r="P24" s="4" t="str">
         <f t="shared" si="64"/>
         <v>0,</v>
       </c>
-      <c r="F24" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v>0,</v>
-      </c>
-      <c r="G24" s="4" t="str">
-        <f t="shared" si="66"/>
-        <v>0,</v>
-      </c>
-      <c r="H24" s="4" t="str">
+      <c r="Q24" s="4" t="str">
         <f t="shared" si="67"/>
         <v>0,</v>
       </c>
-      <c r="I24" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0,</v>
-      </c>
-      <c r="J24" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0,</v>
-      </c>
-      <c r="K24" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>0,</v>
-      </c>
-      <c r="L24" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>0,</v>
-      </c>
-      <c r="M24" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>0,</v>
-      </c>
-      <c r="N24" s="4" t="str">
-        <f t="shared" si="49"/>
-        <v>0,</v>
-      </c>
-      <c r="O24" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>0,</v>
-      </c>
-      <c r="P24" s="4" t="str">
-        <f t="shared" si="56"/>
-        <v>0,</v>
-      </c>
-      <c r="Q24" s="4" t="str">
-        <f t="shared" si="59"/>
-        <v>0,</v>
-      </c>
       <c r="R24" s="4" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0,</v>
       </c>
       <c r="S24" s="4" t="str">
-        <f t="shared" ref="S24:S26" si="71">IF(AN54=1,IF(AM54=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="S24:S26" si="79">IF(AN54=1,IF(AM54=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>64</v>
       </c>
       <c r="U24" s="4" t="str">
-        <f t="shared" ref="U24:W24" si="72">IF(AP54=1,IF(AO54=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="U24:W24" si="80">IF(AP54=1,IF(AO54=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="V24" s="4" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>0,</v>
       </c>
       <c r="W24" s="4" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>0,</v>
       </c>
       <c r="X24" s="9" t="s">
@@ -37209,90 +37195,90 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0,</v>
       </c>
       <c r="D25" s="4" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0,</v>
       </c>
       <c r="E25" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v>0,</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>0,</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f t="shared" si="74"/>
+        <v>0,</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="75"/>
+        <v>0,</v>
+      </c>
+      <c r="I25" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>0,</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>0,</v>
+      </c>
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>0,</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>0,</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>0,</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>0,</v>
+      </c>
+      <c r="O25" s="4" t="str">
+        <f t="shared" si="61"/>
+        <v>0,</v>
+      </c>
+      <c r="P25" s="4" t="str">
         <f t="shared" si="64"/>
         <v>0,</v>
       </c>
-      <c r="F25" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v>0,</v>
-      </c>
-      <c r="G25" s="4" t="str">
-        <f t="shared" si="66"/>
-        <v>0,</v>
-      </c>
-      <c r="H25" s="4" t="str">
+      <c r="Q25" s="4" t="str">
         <f t="shared" si="67"/>
         <v>0,</v>
       </c>
-      <c r="I25" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0,</v>
-      </c>
-      <c r="J25" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0,</v>
-      </c>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>0,</v>
-      </c>
-      <c r="L25" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>0,</v>
-      </c>
-      <c r="M25" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>0,</v>
-      </c>
-      <c r="N25" s="4" t="str">
-        <f t="shared" si="49"/>
-        <v>0,</v>
-      </c>
-      <c r="O25" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>0,</v>
-      </c>
-      <c r="P25" s="4" t="str">
-        <f t="shared" si="56"/>
-        <v>0,</v>
-      </c>
-      <c r="Q25" s="4" t="str">
-        <f t="shared" si="59"/>
-        <v>0,</v>
-      </c>
       <c r="R25" s="4" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0,</v>
       </c>
       <c r="S25" s="4" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0,</v>
       </c>
       <c r="T25" s="4" t="str">
-        <f t="shared" ref="T25:T26" si="73">IF(AO55=1,IF(AN55=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="T25:T26" si="81">IF(AO55=1,IF(AN55=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>67</v>
       </c>
       <c r="V25" s="4" t="str">
-        <f t="shared" ref="V25:X25" si="74">IF(AQ55=1,IF(AP55=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="V25:X25" si="82">IF(AQ55=1,IF(AP55=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="W25" s="4" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0,</v>
       </c>
       <c r="X25" s="4" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>0,</v>
       </c>
       <c r="Y25" s="9" t="s">
@@ -37345,75 +37331,75 @@
         <v>3</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>0,</v>
       </c>
       <c r="D26" s="4" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="71"/>
         <v>0,</v>
       </c>
       <c r="E26" s="4" t="str">
+        <f t="shared" si="72"/>
+        <v>0,</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="73"/>
+        <v>0,</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f t="shared" si="74"/>
+        <v>0,</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="75"/>
+        <v>0,</v>
+      </c>
+      <c r="I26" s="4" t="str">
+        <f t="shared" si="37"/>
+        <v>0,</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="41"/>
+        <v>0,</v>
+      </c>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="44"/>
+        <v>0,</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <f t="shared" si="49"/>
+        <v>0,</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f t="shared" si="53"/>
+        <v>0,</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="57"/>
+        <v>0,</v>
+      </c>
+      <c r="O26" s="4" t="str">
+        <f t="shared" si="61"/>
+        <v>0,</v>
+      </c>
+      <c r="P26" s="4" t="str">
         <f t="shared" si="64"/>
         <v>0,</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <f t="shared" si="65"/>
-        <v>0,</v>
-      </c>
-      <c r="G26" s="4" t="str">
-        <f t="shared" si="66"/>
-        <v>0,</v>
-      </c>
-      <c r="H26" s="4" t="str">
+      <c r="Q26" s="4" t="str">
         <f t="shared" si="67"/>
         <v>0,</v>
       </c>
-      <c r="I26" s="4" t="str">
-        <f t="shared" si="29"/>
-        <v>0,</v>
-      </c>
-      <c r="J26" s="4" t="str">
-        <f t="shared" si="33"/>
-        <v>0,</v>
-      </c>
-      <c r="K26" s="4" t="str">
-        <f t="shared" si="36"/>
-        <v>0,</v>
-      </c>
-      <c r="L26" s="4" t="str">
-        <f t="shared" si="41"/>
-        <v>0,</v>
-      </c>
-      <c r="M26" s="4" t="str">
-        <f t="shared" si="45"/>
-        <v>0,</v>
-      </c>
-      <c r="N26" s="4" t="str">
-        <f t="shared" si="49"/>
-        <v>0,</v>
-      </c>
-      <c r="O26" s="4" t="str">
-        <f t="shared" si="53"/>
-        <v>0,</v>
-      </c>
-      <c r="P26" s="4" t="str">
-        <f t="shared" si="56"/>
-        <v>0,</v>
-      </c>
-      <c r="Q26" s="4" t="str">
-        <f t="shared" si="59"/>
-        <v>0,</v>
-      </c>
       <c r="R26" s="4" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>0,</v>
       </c>
       <c r="S26" s="4" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>0,</v>
       </c>
       <c r="T26" s="4" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="81"/>
         <v>0,</v>
       </c>
       <c r="U26" s="4" t="str">
@@ -37424,15 +37410,15 @@
         <v>70</v>
       </c>
       <c r="W26" s="4" t="str">
-        <f t="shared" ref="W26:Y26" si="75">IF(AR56=1,IF(AQ56=1,"1,","0,"),"0,")</f>
+        <f t="shared" ref="W26:Y26" si="83">IF(AR56=1,IF(AQ56=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
       <c r="X26" s="4" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0,</v>
       </c>
       <c r="Y26" s="4" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0,</v>
       </c>
       <c r="Z26" s="9" t="s">
@@ -37650,31 +37636,31 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="U28" s="12" t="str">
-        <f>IF(U2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;U2&amp;""," ")</f>
+        <f t="shared" ref="U28:U40" si="84">IF(U2&lt;&gt;"0,","G["&amp;AC2&amp;"][18] = "&amp;U2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V28" s="12" t="str">
-        <f>IF(V2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;V2&amp;""," ")</f>
+        <f>IF(V2&lt;&gt;"0,","G["&amp;AC2&amp;"][19] = "&amp;V2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W28" s="12" t="str">
-        <f>IF(W2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;W2&amp;""," ")</f>
+        <f>IF(W2&lt;&gt;"0,","G["&amp;AC2&amp;"][20] = "&amp;W2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X28" s="12" t="str">
-        <f>IF(X2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;X2&amp;""," ")</f>
+        <f>IF(X2&lt;&gt;"0,","G["&amp;AC2&amp;"][21] = "&amp;X2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y28" s="12" t="str">
-        <f>IF(Y2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;Y2&amp;""," ")</f>
+        <f>IF(Y2&lt;&gt;"0,","G["&amp;AC2&amp;"][22] = "&amp;Y2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z28" s="12" t="str">
-        <f>IF(Z2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;Z2&amp;""," ")</f>
+        <f>IF(Z2&lt;&gt;"0,","G["&amp;AC2&amp;"][23] = "&amp;Z2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA28" s="12" t="str">
-        <f>IF(AA2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;AA2&amp;""," ")</f>
+        <f>IF(AA2&lt;&gt;"0,","G["&amp;AC2&amp;"][24] = "&amp;AA2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD28" s="14"/>
@@ -37709,7 +37695,7 @@
         <v>G[1][0] = (Matric[0][1]==1?((Matric[0][0]==1)?1:0):0),</v>
       </c>
       <c r="D29" s="12" t="str">
-        <f t="shared" ref="D29:D52" si="76">IF(D3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;D3&amp;""," ")</f>
+        <f t="shared" ref="D29:D52" si="85">IF(D3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;D3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E29" s="12" t="str">
@@ -37717,15 +37703,15 @@
         <v>G[1][2] = (Matric[0][1]==1?((Matric[0][2]==1)?1:0):0),</v>
       </c>
       <c r="F29" s="12" t="str">
-        <f t="shared" ref="F29:F52" si="77">IF(F3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;F3&amp;""," ")</f>
+        <f t="shared" ref="F29:F52" si="86">IF(F3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;F3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G29" s="12" t="str">
-        <f t="shared" ref="G29:G52" si="78">IF(G3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;G3&amp;""," ")</f>
+        <f t="shared" ref="G29:G52" si="87">IF(G3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;G3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H29" s="12" t="str">
-        <f t="shared" ref="H29:H52" si="79">IF(H3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;H3&amp;""," ")</f>
+        <f t="shared" ref="H29:H52" si="88">IF(H3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;H3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I29" s="12" t="str">
@@ -37733,75 +37719,75 @@
         <v>G[1][6] = (Matric[0][1]==1?((Matric[1][1]==1)?1:0):0),</v>
       </c>
       <c r="J29" s="12" t="str">
-        <f t="shared" ref="J29:J52" si="80">IF(J3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;J3&amp;""," ")</f>
+        <f t="shared" ref="J29:J52" si="89">IF(J3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;J3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K29" s="12" t="str">
-        <f t="shared" ref="K29:K52" si="81">IF(K3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;K3&amp;""," ")</f>
+        <f t="shared" ref="K29:K52" si="90">IF(K3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;K3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L29" s="12" t="str">
-        <f t="shared" ref="L29:L52" si="82">IF(L3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;L3&amp;""," ")</f>
+        <f t="shared" ref="L29:L52" si="91">IF(L3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;L3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M29" s="12" t="str">
-        <f t="shared" ref="M29:M52" si="83">IF(M3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;M3&amp;""," ")</f>
+        <f t="shared" ref="M29:M52" si="92">IF(M3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;M3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N29" s="12" t="str">
-        <f t="shared" ref="N29:N52" si="84">IF(N3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;N3&amp;""," ")</f>
+        <f t="shared" ref="N29:N52" si="93">IF(N3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;N3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O29" s="12" t="str">
-        <f t="shared" ref="O29:O52" si="85">IF(O3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;O3&amp;""," ")</f>
+        <f t="shared" ref="O29:O52" si="94">IF(O3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;O3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="P29" s="12" t="str">
-        <f t="shared" ref="P29:P52" si="86">IF(P3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;P3&amp;""," ")</f>
+        <f t="shared" ref="P29:P52" si="95">IF(P3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;P3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q29" s="12" t="str">
-        <f t="shared" ref="Q29:Q52" si="87">IF(Q3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;Q3&amp;""," ")</f>
+        <f t="shared" ref="Q29:Q52" si="96">IF(Q3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;Q3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="R29" s="12" t="str">
-        <f t="shared" ref="R29:R52" si="88">IF(R3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;R3&amp;""," ")</f>
+        <f t="shared" ref="R29:R52" si="97">IF(R3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;R3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S29" s="12" t="str">
-        <f t="shared" ref="S29:S52" si="89">IF(S3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;S3&amp;""," ")</f>
+        <f t="shared" ref="S29:S52" si="98">IF(S3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;S3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T29" s="12" t="str">
-        <f t="shared" ref="T29:T52" si="90">IF(T3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;T3&amp;""," ")</f>
+        <f t="shared" ref="T29:T52" si="99">IF(T3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;T3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U29" s="12" t="str">
-        <f t="shared" ref="U29:U52" si="91">IF(U3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;U3&amp;""," ")</f>
+        <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V29" s="12" t="str">
-        <f t="shared" ref="V29:V52" si="92">IF(V3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;V3&amp;""," ")</f>
+        <f t="shared" ref="V29:V52" si="100">IF(V3&lt;&gt;"0,","G["&amp;AC3&amp;"][19] = "&amp;V3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W29" s="12" t="str">
-        <f t="shared" ref="W29:W52" si="93">IF(W3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;W3&amp;""," ")</f>
+        <f t="shared" ref="W29:W52" si="101">IF(W3&lt;&gt;"0,","G["&amp;AC3&amp;"][20] = "&amp;W3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X29" s="12" t="str">
-        <f t="shared" ref="X29:X52" si="94">IF(X3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;X3&amp;""," ")</f>
+        <f t="shared" ref="X29:X52" si="102">IF(X3&lt;&gt;"0,","G["&amp;AC3&amp;"][21] = "&amp;X3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y29" s="12" t="str">
-        <f t="shared" ref="Y29:Y52" si="95">IF(Y3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;Y3&amp;""," ")</f>
+        <f t="shared" ref="Y29:Y52" si="103">IF(Y3&lt;&gt;"0,","G["&amp;AC3&amp;"][22] = "&amp;Y3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z29" s="12" t="str">
-        <f t="shared" ref="Z29:Z52" si="96">IF(Z3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;Z3&amp;""," ")</f>
+        <f t="shared" ref="Z29:Z52" si="104">IF(Z3&lt;&gt;"0,","G["&amp;AC3&amp;"][23] = "&amp;Z3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA29" s="12" t="str">
-        <f t="shared" ref="AA29:AA52" si="97">IF(AA3&lt;&gt;"0,","G["&amp;AC3&amp;"][1] = "&amp;AA3&amp;""," ")</f>
+        <f t="shared" ref="AA29:AA52" si="105">IF(AA3&lt;&gt;"0,","G["&amp;AC3&amp;"][24] = "&amp;AA3&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD29" s="14"/>
@@ -37832,15 +37818,15 @@
     </row>
     <row r="30" spans="1:54" ht="14.25" customHeight="1">
       <c r="C30" s="12" t="str">
-        <f t="shared" ref="C29:C52" si="98">IF(C4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;C4&amp;""," ")</f>
+        <f t="shared" ref="C30:C52" si="106">IF(C4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;C4&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D30" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>G[2][1] = (Matric[0][2]==1?((Matric[0][1]==1)?1:0):0),</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f t="shared" ref="E29:E52" si="99">IF(E4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;E4&amp;""," ")</f>
+        <f t="shared" ref="E30:E52" si="107">IF(E4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;E4&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F30" s="12" t="str">
@@ -37848,15 +37834,15 @@
         <v>G[2][3] = (Matric[0][2]==1?((Matric[0][3]==1)?1:0):0),</v>
       </c>
       <c r="G30" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H30" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I30" s="12" t="str">
-        <f t="shared" ref="I29:I52" si="100">IF(I4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;I4&amp;""," ")</f>
+        <f t="shared" ref="I30:I52" si="108">IF(I4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;I4&amp;""," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J30" s="12" t="str">
@@ -37864,71 +37850,71 @@
         <v>G[2][7] = (Matric[0][2]==1?((Matric[1][2]==1)?1:0):0),</v>
       </c>
       <c r="K30" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L30" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M30" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N30" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O30" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P30" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q30" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R30" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S30" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T30" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U30" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O30" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P30" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q30" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R30" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S30" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T30" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U30" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V30" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W30" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X30" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y30" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z30" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA30" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD30" s="14"/>
@@ -37959,11 +37945,11 @@
     </row>
     <row r="31" spans="1:54" ht="14.25" customHeight="1">
       <c r="C31" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D31" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E31" s="12" t="str">
@@ -37971,7 +37957,7 @@
         <v>G[3][2] = (Matric[0][3]==1?((Matric[0][2]==1)?1:0):0),</v>
       </c>
       <c r="F31" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G31" s="12" t="str">
@@ -37979,15 +37965,15 @@
         <v>G[3][4] = (Matric[0][3]==1?((Matric[0][4]==1)?1:0):0),</v>
       </c>
       <c r="H31" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I31" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J31" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K31" s="12" t="str">
@@ -37995,67 +37981,67 @@
         <v>G[3][8] = (Matric[0][3]==1?((Matric[1][3]==1)?1:0):0),</v>
       </c>
       <c r="L31" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M31" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N31" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O31" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P31" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q31" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R31" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S31" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T31" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U31" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O31" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P31" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q31" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R31" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S31" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T31" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U31" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V31" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W31" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X31" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y31" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z31" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA31" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD31" s="14"/>
@@ -38086,15 +38072,15 @@
     </row>
     <row r="32" spans="1:54" ht="14.25" customHeight="1">
       <c r="C32" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D32" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F32" s="12" t="str">
@@ -38102,23 +38088,23 @@
         <v>G[4][3] = (Matric[0][4]==1?((Matric[0][3]==1)?1:0):0),</v>
       </c>
       <c r="G32" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H32" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I32" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J32" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K32" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L32" s="12" t="str">
@@ -38126,63 +38112,63 @@
         <v>G[4][9] = (Matric[0][4]==1?((Matric[1][4]==1)?1:0):0),</v>
       </c>
       <c r="M32" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N32" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O32" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P32" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q32" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R32" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S32" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T32" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U32" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O32" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P32" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q32" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R32" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S32" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T32" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U32" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V32" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W32" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X32" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y32" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z32" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA32" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD32" s="14"/>
@@ -38217,23 +38203,23 @@
         <v>G[5][0] = (Matric[0][0]==1?((Matric[1][0]==1)?1:0):0),</v>
       </c>
       <c r="D33" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F33" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G33" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H33" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I33" s="12" t="str">
@@ -38241,75 +38227,75 @@
         <v>G[5][6] = (Matric[1][0]==1?((Matric[1][1]==1)?1:0):0),</v>
       </c>
       <c r="J33" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K33" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L33" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M33" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v>G[5][1] = (Matric[1][0]==1?((Matric[2][0]==1)?1:0):0),</v>
+        <f>IF(M7&lt;&gt;"0,","G["&amp;AC7&amp;"][10] = "&amp;M7&amp;""," ")</f>
+        <v>G[5][10] = (Matric[1][0]==1?((Matric[2][0]==1)?1:0):0),</v>
       </c>
       <c r="N33" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O33" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P33" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q33" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R33" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S33" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T33" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U33" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O33" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P33" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q33" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R33" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S33" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T33" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U33" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V33" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W33" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X33" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y33" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z33" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA33" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD33" s="14"/>
@@ -38340,23 +38326,23 @@
     </row>
     <row r="34" spans="3:54" ht="14.25" customHeight="1">
       <c r="C34" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D34" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>G[6][1] = (Matric[1][1]==1?((Matric[0][1]==1)?1:0):0),</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F34" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G34" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H34" s="12" t="str">
@@ -38364,7 +38350,7 @@
         <v>G[6][5] = (Matric[1][1]==1?((Matric[1][0]==1)?1:0):0),</v>
       </c>
       <c r="I34" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J34" s="12" t="str">
@@ -38372,71 +38358,71 @@
         <v>G[6][7] = (Matric[1][1]==1?((Matric[1][2]==1)?1:0):0),</v>
       </c>
       <c r="K34" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L34" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M34" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N34" s="12" t="str">
+        <f>IF(N8&lt;&gt;"0,","G["&amp;AC8&amp;"][11] = "&amp;N8&amp;""," ")</f>
+        <v>G[6][11] = (Matric[1][1]==1?((Matric[2][1]==1)?1:0):0),</v>
+      </c>
+      <c r="O34" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P34" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q34" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R34" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S34" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T34" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U34" s="12" t="str">
         <f t="shared" si="84"/>
-        <v>G[6][1] = (Matric[1][1]==1?((Matric[2][1]==1)?1:0):0),</v>
-      </c>
-      <c r="O34" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P34" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q34" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R34" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S34" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T34" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U34" s="12" t="str">
-        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V34" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W34" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X34" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y34" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z34" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA34" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD34" s="14"/>
@@ -38467,11 +38453,11 @@
     </row>
     <row r="35" spans="3:54" ht="14.25" customHeight="1">
       <c r="C35" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D35" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E35" s="12" t="str">
@@ -38479,15 +38465,15 @@
         <v>G[7][2] = (Matric[1][2]==1?((Matric[0][2]==1)?1:0):0),</v>
       </c>
       <c r="F35" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G35" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H35" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I35" s="12" t="str">
@@ -38495,7 +38481,7 @@
         <v>G[7][6] = (Matric[1][2]==1?((Matric[1][1]==1)?1:0):0),</v>
       </c>
       <c r="J35" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K35" s="12" t="str">
@@ -38503,82 +38489,82 @@
         <v>G[7][8] = (Matric[1][2]==1?((Matric[1][3]==1)?1:0):0),</v>
       </c>
       <c r="L35" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M35" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N35" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O35" s="12" t="str">
+        <f>IF(O9&lt;&gt;"0,","G["&amp;AC9&amp;"][12] = "&amp;O9&amp;""," ")</f>
+        <v>G[7][12] = (Matric[1][2]==1?((Matric[2][2]==1)?1:0):0),</v>
+      </c>
+      <c r="P35" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q35" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R35" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S35" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T35" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U35" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O35" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v>G[7][1] = (Matric[1][2]==1?((Matric[2][2]==1)?1:0):0),</v>
-      </c>
-      <c r="P35" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q35" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R35" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S35" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T35" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U35" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V35" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W35" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X35" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y35" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z35" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA35" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AD35" s="2"/>
     </row>
     <row r="36" spans="3:54" ht="14.25" customHeight="1">
       <c r="C36" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D36" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E36" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F36" s="12" t="str">
@@ -38586,15 +38572,15 @@
         <v>G[8][3] = (Matric[1][3]==1?((Matric[0][3]==1)?1:0):0),</v>
       </c>
       <c r="G36" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H36" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I36" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J36" s="12" t="str">
@@ -38602,7 +38588,7 @@
         <v>G[8][7] = (Matric[1][3]==1?((Matric[1][2]==1)?1:0):0),</v>
       </c>
       <c r="K36" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L36" s="12" t="str">
@@ -38610,81 +38596,81 @@
         <v>G[8][9] = (Matric[1][3]==1?((Matric[1][4]==1)?1:0):0),</v>
       </c>
       <c r="M36" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N36" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O36" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P36" s="12" t="str">
+        <f>IF(P10&lt;&gt;"0,","G["&amp;AC10&amp;"][13] = "&amp;P10&amp;""," ")</f>
+        <v>G[8][13] = (Matric[1][3]==1?((Matric[2][3]==1)?1:0):0),</v>
+      </c>
+      <c r="Q36" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R36" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S36" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T36" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U36" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O36" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P36" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v>G[8][1] = (Matric[1][3]==1?((Matric[2][3]==1)?1:0):0),</v>
-      </c>
-      <c r="Q36" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R36" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S36" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T36" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U36" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V36" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W36" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X36" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y36" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z36" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA36" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="37" spans="3:54" ht="14.25" customHeight="1">
       <c r="C37" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D37" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E37" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F37" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G37" s="12" t="str">
@@ -38692,15 +38678,15 @@
         <v>G[9][4] = (Matric[1][4]==1?((Matric[0][4]==1)?1:0):0),</v>
       </c>
       <c r="H37" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I37" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J37" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K37" s="12" t="str">
@@ -38708,89 +38694,89 @@
         <v>G[9][8] = (Matric[1][4]==1?((Matric[1][3]==1)?1:0):0),</v>
       </c>
       <c r="L37" s="16" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M37" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N37" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O37" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P37" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q37" s="12" t="str">
+        <f>IF(Q11&lt;&gt;"0,","G["&amp;AC11&amp;"][14] = "&amp;Q11&amp;""," ")</f>
+        <v>G[9][14] = (Matric[1][4]==1?((Matric[2][4]==1)?1:0):0),</v>
+      </c>
+      <c r="R37" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S37" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T37" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U37" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O37" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P37" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q37" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v>G[9][1] = (Matric[1][4]==1?((Matric[2][4]==1)?1:0):0),</v>
-      </c>
-      <c r="R37" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S37" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T37" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U37" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V37" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W37" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X37" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y37" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z37" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA37" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="38" spans="3:54" ht="14.25" customHeight="1">
       <c r="C38" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D38" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E38" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F38" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G38" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H38" s="12" t="str">
@@ -38798,105 +38784,105 @@
         <v>G[10][5] = (Matric[2][0]==1?((Matric[1][0]==1)?1:0):0),</v>
       </c>
       <c r="I38" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J38" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K38" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L38" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M38" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N38" s="12" t="str">
+        <f>IF(N12&lt;&gt;"0,","G["&amp;AC12&amp;"][11] = "&amp;N12&amp;""," ")</f>
+        <v>G[10][11] = (Matric[2][0]==1?((Matric[2][1]==1)?1:0):0),</v>
+      </c>
+      <c r="O38" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P38" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q38" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R38" s="12" t="str">
+        <f>IF(R12&lt;&gt;"0,","G["&amp;AC12&amp;"][15] = "&amp;R12&amp;""," ")</f>
+        <v>G[10][15] = (Matric[2][0]==1?((Matric[3][0]==1)?1:0):0),</v>
+      </c>
+      <c r="S38" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T38" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U38" s="12" t="str">
+        <f t="shared" si="84"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V38" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J38" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K38" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L38" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M38" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N38" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v>G[10][1] = (Matric[2][0]==1?((Matric[2][1]==1)?1:0):0),</v>
-      </c>
-      <c r="O38" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P38" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q38" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R38" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v>G[10][1] = (Matric[2][0]==1?((Matric[3][0]==1)?1:0):0),</v>
-      </c>
-      <c r="S38" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T38" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U38" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V38" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="W38" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X38" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y38" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z38" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA38" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39" spans="3:54" ht="14.25" customHeight="1">
       <c r="C39" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D39" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E39" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F39" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G39" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H39" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I39" s="12" t="str">
@@ -38904,105 +38890,105 @@
         <v>G[11][6] = (Matric[2][1]==1?((Matric[1][1]==1)?1:0):0),</v>
       </c>
       <c r="J39" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K39" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L39" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M39" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v>G[11][1] = (Matric[2][1]==1?((Matric[2][0]==1)?1:0):0),</v>
+        <f>IF(M13&lt;&gt;"0,","G["&amp;AC13&amp;"][10] = "&amp;M13&amp;""," ")</f>
+        <v>G[11][10] = (Matric[2][1]==1?((Matric[2][0]==1)?1:0):0),</v>
       </c>
       <c r="N39" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O39" s="12" t="str">
+        <f>IF(O13&lt;&gt;"0,","G["&amp;AC13&amp;"][12] = "&amp;O13&amp;""," ")</f>
+        <v>G[11][12] = (Matric[2][1]==1?((Matric[2][2]==1)?1:0):0),</v>
+      </c>
+      <c r="P39" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q39" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R39" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S39" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T39" s="12" t="str">
+        <f t="shared" si="99"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="U39" s="12" t="str">
         <f t="shared" si="84"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="O39" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v>G[11][1] = (Matric[2][1]==1?((Matric[2][2]==1)?1:0):0),</v>
-      </c>
-      <c r="P39" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q39" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R39" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S39" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T39" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U39" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="V39" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W39" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X39" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y39" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z39" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA39" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="40" spans="3:54" ht="14.25" customHeight="1">
       <c r="C40" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D40" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E40" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F40" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G40" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H40" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I40" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J40" s="12" t="str">
@@ -39010,105 +38996,105 @@
         <v>G[12][7] = (Matric[2][2]==1?((Matric[1][2]==1)?1:0):0),</v>
       </c>
       <c r="K40" s="12" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L40" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M40" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N40" s="12" t="str">
+        <f>IF(N14&lt;&gt;"0,","G["&amp;AC14&amp;"][11] = "&amp;N14&amp;""," ")</f>
+        <v>G[12][11] = (Matric[2][2]==1?((Matric[2][1]==1)?1:0):0),</v>
+      </c>
+      <c r="O40" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P40" s="12" t="str">
+        <f>IF(P14&lt;&gt;"0,","G["&amp;AC14&amp;"][13] = "&amp;P14&amp;""," ")</f>
+        <v>G[12][13] = (Matric[2][2]==1?((Matric[2][3]==1)?1:0):0),</v>
+      </c>
+      <c r="Q40" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R40" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S40" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T40" s="12" t="str">
+        <f>IF(T14&lt;&gt;"0,","G["&amp;AC14&amp;"][17] = "&amp;T14&amp;""," ")</f>
+        <v>G[12][17] = (Matric[2][2]==1?((Matric[3][2]==1)?1:0):0),</v>
+      </c>
+      <c r="U40" s="12" t="str">
         <f t="shared" si="84"/>
-        <v>G[12][1] = (Matric[2][2]==1?((Matric[2][1]==1)?1:0):0),</v>
-      </c>
-      <c r="O40" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P40" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v>G[12][1] = (Matric[2][2]==1?((Matric[2][3]==1)?1:0):0),</v>
-      </c>
-      <c r="Q40" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R40" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S40" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T40" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v>G[12][1] = (Matric[2][2]==1?((Matric[3][2]==1)?1:0):0),</v>
-      </c>
-      <c r="U40" s="12" t="str">
-        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V40" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W40" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X40" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y40" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z40" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA40" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="41" spans="3:54" ht="14.25" customHeight="1">
       <c r="C41" s="12" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D41" s="12" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E41" s="12" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="107"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="F41" s="12" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="G41" s="12" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="H41" s="12" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="I41" s="12" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="J41" s="12" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="K41" s="12" t="str">
@@ -39116,1204 +39102,1219 @@
         <v>G[13][8] = (Matric[2][3]==1?((Matric[1][3]==1)?1:0):0),</v>
       </c>
       <c r="L41" s="12" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="M41" s="12" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="N41" s="12" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="93"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="O41" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v>G[13][1] = (Matric[2][3]==1?((Matric[2][2]==1)?1:0):0),</v>
+        <f>IF(O15&lt;&gt;"0,","G["&amp;AC15&amp;"][12] = "&amp;O15&amp;""," ")</f>
+        <v>G[13][12] = (Matric[2][3]==1?((Matric[2][2]==1)?1:0):0),</v>
       </c>
       <c r="P41" s="12" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" si="95"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Q41" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v>G[13][1] = (Matric[2][3]==1?((Matric[2][4]==1)?1:0):0),</v>
+        <f>IF(Q15&lt;&gt;"0,","G["&amp;AC15&amp;"][14] = "&amp;Q15&amp;""," ")</f>
+        <v>G[13][14] = (Matric[2][3]==1?((Matric[2][4]==1)?1:0):0),</v>
       </c>
       <c r="R41" s="12" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="97"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="S41" s="12" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T41" s="12" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="U41" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v>G[13][1] = (Matric[2][3]==1?((Matric[3][3]==1)?1:0):0),</v>
+        <f>IF(U15&lt;&gt;"0,","G["&amp;AC15&amp;"][18] = "&amp;U15&amp;""," ")</f>
+        <v>G[13][18] = (Matric[2][3]==1?((Matric[3][3]==1)?1:0):0),</v>
       </c>
       <c r="V41" s="12" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="W41" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X41" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y41" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z41" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA41" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="42" spans="3:54" ht="14.25" customHeight="1">
       <c r="C42" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D42" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E42" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F42" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G42" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H42" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I42" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J42" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K42" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L42" s="12" t="str">
+        <f>IF(L16&lt;&gt;"0,","G["&amp;AC16&amp;"][9] = "&amp;L16&amp;""," ")</f>
+        <v>G[14][9] = (Matric[2][4]==1?((Matric[1][4]==1)?1:0):0),</v>
+      </c>
+      <c r="M42" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N42" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O42" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P42" s="12" t="str">
+        <f>IF(P16&lt;&gt;"0,","G["&amp;AC16&amp;"][13] = "&amp;P16&amp;""," ")</f>
+        <v>G[14][13] = (Matric[2][4]==1?((Matric[2][3]==1)?1:0):0),</v>
+      </c>
+      <c r="Q42" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R42" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S42" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D42" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E42" s="12" t="str">
+      <c r="T42" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F42" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G42" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H42" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I42" s="12" t="str">
+      <c r="U42" s="12" t="str">
+        <f t="shared" ref="U42:U52" si="109">IF(U16&lt;&gt;"0,","G["&amp;AC16&amp;"][18] = "&amp;U16&amp;""," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V42" s="12" t="str">
         <f t="shared" si="100"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J42" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K42" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L42" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v>G[14][1] = (Matric[2][4]==1?((Matric[1][4]==1)?1:0):0),</v>
-      </c>
-      <c r="M42" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N42" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O42" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P42" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v>G[14][1] = (Matric[2][4]==1?((Matric[2][3]==1)?1:0):0),</v>
-      </c>
-      <c r="Q42" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R42" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S42" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T42" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U42" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V42" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v>G[14][1] = (Matric[2][4]==1?((Matric[3][4]==1)?1:0):0),</v>
+        <v>G[14][19] = (Matric[2][4]==1?((Matric[3][4]==1)?1:0):0),</v>
       </c>
       <c r="W42" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X42" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y42" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z42" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA42" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="43" spans="3:54" ht="14.25" customHeight="1">
       <c r="C43" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D43" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F43" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G43" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H43" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I43" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K43" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L43" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M43" s="12" t="str">
+        <f>IF(M17&lt;&gt;"0,","G["&amp;AC17&amp;"][10] = "&amp;M17&amp;""," ")</f>
+        <v>G[15][10] = (Matric[3][0]==1?((Matric[2][0]==1)?1:0):0),</v>
+      </c>
+      <c r="N43" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O43" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P43" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q43" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R43" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S43" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D43" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E43" s="12" t="str">
+      <c r="T43" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F43" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G43" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H43" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I43" s="12" t="str">
+      <c r="U43" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V43" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J43" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K43" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L43" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M43" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v>G[15][1] = (Matric[3][0]==1?((Matric[2][0]==1)?1:0):0),</v>
-      </c>
-      <c r="N43" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O43" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P43" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q43" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R43" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S43" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T43" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U43" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V43" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="W43" s="12" t="str">
-        <f t="shared" si="93"/>
-        <v>G[15][1] = (Matric[3][0]==1?((Matric[4][0]==1)?1:0):0),</v>
+        <f t="shared" si="101"/>
+        <v>G[15][20] = (Matric[3][0]==1?((Matric[4][0]==1)?1:0):0),</v>
       </c>
       <c r="X43" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y43" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z43" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA43" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="44" spans="3:54" ht="14.25" customHeight="1">
       <c r="C44" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D44" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E44" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F44" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G44" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H44" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I44" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J44" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K44" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L44" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M44" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N44" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O44" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P44" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q44" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R44" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S44" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D44" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E44" s="12" t="str">
+      <c r="T44" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F44" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G44" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H44" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I44" s="12" t="str">
+      <c r="U44" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V44" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J44" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K44" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L44" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M44" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N44" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O44" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P44" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q44" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R44" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S44" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T44" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U44" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V44" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="W44" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X44" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y44" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z44" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA44" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="45" spans="3:54" ht="14.25" customHeight="1">
       <c r="C45" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D45" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E45" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F45" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G45" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H45" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I45" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J45" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K45" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L45" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M45" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N45" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O45" s="12" t="str">
+        <f>IF(O19&lt;&gt;"0,","G["&amp;AC19&amp;"][12] = "&amp;O19&amp;""," ")</f>
+        <v>G[17][12] = (Matric[3][2]==1?((Matric[2][2]==1)?1:0):0),</v>
+      </c>
+      <c r="P45" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q45" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R45" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S45" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D45" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E45" s="12" t="str">
+      <c r="T45" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F45" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G45" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H45" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I45" s="12" t="str">
+      <c r="U45" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>G[17][18] = (Matric[3][2]==1?((Matric[3][3]==1)?1:0):0),</v>
+      </c>
+      <c r="V45" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J45" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K45" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L45" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M45" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N45" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O45" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v>G[17][1] = (Matric[3][2]==1?((Matric[2][2]==1)?1:0):0),</v>
-      </c>
-      <c r="P45" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q45" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R45" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S45" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T45" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U45" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v>G[17][1] = (Matric[3][2]==1?((Matric[3][3]==1)?1:0):0),</v>
-      </c>
-      <c r="V45" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="W45" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X45" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y45" s="12" t="str">
-        <f t="shared" si="95"/>
-        <v>G[17][1] = (Matric[3][2]==1?((Matric[4][2]==1)?1:0):0),</v>
+        <f t="shared" si="103"/>
+        <v>G[17][22] = (Matric[3][2]==1?((Matric[4][2]==1)?1:0):0),</v>
       </c>
       <c r="Z45" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA45" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="46" spans="3:54" ht="14.25" customHeight="1">
       <c r="C46" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D46" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E46" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F46" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G46" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H46" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I46" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J46" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K46" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L46" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M46" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N46" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O46" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P46" s="12" t="str">
+        <f>IF(P20&lt;&gt;"0,","G["&amp;AC20&amp;"][13] = "&amp;P20&amp;""," ")</f>
+        <v>G[18][13] = (Matric[3][3]==1?((Matric[2][3]==1)?1:0):0),</v>
+      </c>
+      <c r="Q46" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R46" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S46" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D46" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E46" s="12" t="str">
-        <f t="shared" si="99"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F46" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G46" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H46" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I46" s="12" t="str">
+      <c r="T46" s="12" t="str">
+        <f>IF(T20&lt;&gt;"0,","G["&amp;AC20&amp;"][17] = "&amp;T20&amp;""," ")</f>
+        <v>G[18][17] = (Matric[3][3]==1?((Matric[3][2]==1)?1:0):0),</v>
+      </c>
+      <c r="U46" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V46" s="12" t="str">
         <f t="shared" si="100"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J46" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K46" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L46" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M46" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N46" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O46" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P46" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v>G[18][1] = (Matric[3][3]==1?((Matric[2][3]==1)?1:0):0),</v>
-      </c>
-      <c r="Q46" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R46" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S46" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T46" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v>G[18][1] = (Matric[3][3]==1?((Matric[3][2]==1)?1:0):0),</v>
-      </c>
-      <c r="U46" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V46" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v>G[18][1] = (Matric[3][3]==1?((Matric[3][4]==1)?1:0):0),</v>
+        <v>G[18][19] = (Matric[3][3]==1?((Matric[3][4]==1)?1:0):0),</v>
       </c>
       <c r="W46" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X46" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y46" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z46" s="12" t="str">
-        <f t="shared" si="96"/>
-        <v>G[18][1] = (Matric[3][3]==1?((Matric[4][3]==1)?1:0):0),</v>
+        <f t="shared" si="104"/>
+        <v>G[18][23] = (Matric[3][3]==1?((Matric[4][3]==1)?1:0):0),</v>
       </c>
       <c r="AA46" s="12" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="105"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="47" spans="3:54" ht="14.25" customHeight="1">
       <c r="C47" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D47" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E47" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F47" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G47" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H47" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I47" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J47" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K47" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L47" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M47" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N47" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O47" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P47" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q47" s="12" t="str">
+        <f>IF(Q21&lt;&gt;"0,","G["&amp;AC21&amp;"][14] = "&amp;Q21&amp;""," ")</f>
+        <v>G[19][14] = (Matric[3][4]==1?((Matric[2][4]==1)?1:0):0),</v>
+      </c>
+      <c r="R47" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S47" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D47" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E47" s="12" t="str">
+      <c r="T47" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F47" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G47" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H47" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I47" s="12" t="str">
+      <c r="U47" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>G[19][18] = (Matric[3][4]==1?((Matric[3][3]==1)?1:0):0),</v>
+      </c>
+      <c r="V47" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J47" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K47" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L47" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M47" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N47" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O47" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P47" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q47" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v>G[19][1] = (Matric[3][4]==1?((Matric[2][4]==1)?1:0):0),</v>
-      </c>
-      <c r="R47" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S47" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T47" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U47" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v>G[19][1] = (Matric[3][4]==1?((Matric[3][3]==1)?1:0):0),</v>
-      </c>
-      <c r="V47" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
       <c r="W47" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X47" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y47" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z47" s="12" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="104"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="AA47" s="12" t="str">
-        <f t="shared" si="97"/>
-        <v>G[19][1] = (Matric[3][4]==1?((Matric[4][4]==1)?1:0):0),</v>
+        <f t="shared" si="105"/>
+        <v>G[19][24] = (Matric[3][4]==1?((Matric[4][4]==1)?1:0):0),</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="3:54" ht="14.25" customHeight="1">
       <c r="C48" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D48" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E48" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F48" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G48" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H48" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I48" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J48" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K48" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L48" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M48" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N48" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O48" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P48" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q48" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R48" s="12" t="str">
+        <f>IF(R22&lt;&gt;"0,","G["&amp;AC22&amp;"][15] = "&amp;R22&amp;""," ")</f>
+        <v>G[20][15] = (Matric[4][0]==1?((Matric[3][0]==1)?1:0):0),</v>
+      </c>
+      <c r="S48" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D48" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E48" s="12" t="str">
+      <c r="T48" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F48" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G48" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H48" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I48" s="12" t="str">
+      <c r="U48" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V48" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J48" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K48" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L48" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M48" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N48" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O48" s="12" t="str">
+      <c r="W48" s="12" t="str">
+        <f t="shared" si="101"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X48" s="12" t="str">
+        <f t="shared" si="102"/>
+        <v>G[20][21] = (Matric[4][0]==1?((Matric[4][1]==1)?1:0):0),</v>
+      </c>
+      <c r="Y48" s="12" t="str">
+        <f t="shared" si="103"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z48" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA48" s="12" t="str">
+        <f t="shared" si="105"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" ht="14.25" customHeight="1">
+      <c r="C49" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D49" s="12" t="str">
         <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P48" s="12" t="str">
+      <c r="E49" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F49" s="12" t="str">
         <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q48" s="12" t="str">
+      <c r="G49" s="12" t="str">
         <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R48" s="12" t="str">
+      <c r="H49" s="12" t="str">
         <f t="shared" si="88"/>
-        <v>G[20][1] = (Matric[4][0]==1?((Matric[3][0]==1)?1:0):0),</v>
-      </c>
-      <c r="S48" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I49" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J49" s="12" t="str">
         <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T48" s="12" t="str">
+      <c r="K49" s="12" t="str">
         <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U48" s="12" t="str">
+      <c r="L49" s="12" t="str">
         <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V48" s="12" t="str">
+      <c r="M49" s="12" t="str">
         <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W48" s="12" t="str">
+      <c r="N49" s="12" t="str">
         <f t="shared" si="93"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X48" s="12" t="str">
+      <c r="O49" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>G[20][1] = (Matric[4][0]==1?((Matric[4][1]==1)?1:0):0),</v>
-      </c>
-      <c r="Y48" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P49" s="12" t="str">
         <f t="shared" si="95"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z48" s="12" t="str">
+      <c r="Q49" s="12" t="str">
         <f t="shared" si="96"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA48" s="12" t="str">
+      <c r="R49" s="12" t="str">
         <f t="shared" si="97"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="49" spans="3:27" ht="14.25" customHeight="1">
-      <c r="C49" s="12" t="str">
+      <c r="S49" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D49" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E49" s="12" t="str">
+      <c r="T49" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F49" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G49" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H49" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I49" s="12" t="str">
+      <c r="U49" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V49" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J49" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K49" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L49" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M49" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N49" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O49" s="12" t="str">
+      <c r="W49" s="12" t="str">
+        <f t="shared" si="101"/>
+        <v>G[21][20] = (Matric[4][1]==1?((Matric[4][0]==1)?1:0):0),</v>
+      </c>
+      <c r="X49" s="12" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y49" s="12" t="str">
+        <f t="shared" si="103"/>
+        <v>G[21][22] = (Matric[4][1]==1?((Matric[4][2]==1)?1:0):0),</v>
+      </c>
+      <c r="Z49" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA49" s="12" t="str">
+        <f t="shared" si="105"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" ht="14.25" customHeight="1">
+      <c r="C50" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D50" s="12" t="str">
         <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P49" s="12" t="str">
+      <c r="E50" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F50" s="12" t="str">
         <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q49" s="12" t="str">
+      <c r="G50" s="12" t="str">
         <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R49" s="12" t="str">
+      <c r="H50" s="12" t="str">
         <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S49" s="12" t="str">
+      <c r="I50" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J50" s="12" t="str">
         <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T49" s="12" t="str">
+      <c r="K50" s="12" t="str">
         <f t="shared" si="90"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="U49" s="12" t="str">
+      <c r="L50" s="12" t="str">
         <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V49" s="12" t="str">
+      <c r="M50" s="12" t="str">
         <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W49" s="12" t="str">
+      <c r="N50" s="12" t="str">
         <f t="shared" si="93"/>
-        <v>G[21][1] = (Matric[4][1]==1?((Matric[4][0]==1)?1:0):0),</v>
-      </c>
-      <c r="X49" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O50" s="12" t="str">
         <f t="shared" si="94"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Y49" s="12" t="str">
+      <c r="P50" s="12" t="str">
         <f t="shared" si="95"/>
-        <v>G[21][1] = (Matric[4][1]==1?((Matric[4][2]==1)?1:0):0),</v>
-      </c>
-      <c r="Z49" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q50" s="12" t="str">
         <f t="shared" si="96"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="AA49" s="12" t="str">
+      <c r="R50" s="12" t="str">
         <f t="shared" si="97"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="50" spans="3:27" ht="14.25" customHeight="1">
-      <c r="C50" s="12" t="str">
+      <c r="S50" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D50" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E50" s="12" t="str">
+      <c r="T50" s="12" t="str">
+        <f>IF(T24&lt;&gt;"0,","G["&amp;AC24&amp;"][17] = "&amp;T24&amp;""," ")</f>
+        <v>G[22][17] = (Matric[4][2]==1?((Matric[3][2]==1)?1:0):0),</v>
+      </c>
+      <c r="U50" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V50" s="12" t="str">
+        <f t="shared" si="100"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="W50" s="12" t="str">
+        <f t="shared" si="101"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X50" s="12" t="str">
+        <f t="shared" si="102"/>
+        <v>G[22][21] = (Matric[4][2]==1?((Matric[4][1]==1)?1:0):0),</v>
+      </c>
+      <c r="Y50" s="12" t="str">
+        <f t="shared" si="103"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Z50" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v>G[22][23] = (Matric[4][2]==1?((Matric[4][3]==1)?1:0):0),</v>
+      </c>
+      <c r="AA50" s="12" t="str">
+        <f t="shared" si="105"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AB50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" ht="14.25" customHeight="1">
+      <c r="C51" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D51" s="12" t="str">
+        <f t="shared" si="85"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E51" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F51" s="12" t="str">
+        <f t="shared" si="86"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G51" s="12" t="str">
+        <f t="shared" si="87"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="H51" s="12" t="str">
+        <f t="shared" si="88"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="I51" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J51" s="12" t="str">
+        <f t="shared" si="89"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K51" s="12" t="str">
+        <f t="shared" si="90"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L51" s="12" t="str">
+        <f t="shared" si="91"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M51" s="12" t="str">
+        <f t="shared" si="92"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="N51" s="12" t="str">
+        <f t="shared" si="93"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="O51" s="12" t="str">
+        <f t="shared" si="94"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P51" s="12" t="str">
+        <f t="shared" si="95"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Q51" s="12" t="str">
+        <f t="shared" si="96"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R51" s="12" t="str">
+        <f t="shared" si="97"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="S51" s="12" t="str">
+        <f t="shared" si="98"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="T51" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F50" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G50" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H50" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I50" s="12" t="str">
+      <c r="U51" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v>G[23][18] = (Matric[4][3]==1?((Matric[3][3]==1)?1:0):0),</v>
+      </c>
+      <c r="V51" s="12" t="str">
         <f t="shared" si="100"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="J50" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K50" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L50" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M50" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N50" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O50" s="12" t="str">
+      <c r="W51" s="12" t="str">
+        <f t="shared" si="101"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="X51" s="12" t="str">
+        <f t="shared" si="102"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="Y51" s="12" t="str">
+        <f t="shared" si="103"/>
+        <v>G[23][22] = (Matric[4][3]==1?((Matric[4][2]==1)?1:0):0),</v>
+      </c>
+      <c r="Z51" s="12" t="str">
+        <f t="shared" si="104"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="AA51" s="12" t="str">
+        <f t="shared" si="105"/>
+        <v>G[23][24] = (Matric[4][3]==1?((Matric[4][4]==1)?1:0):0),</v>
+      </c>
+      <c r="AB51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" ht="14.25" customHeight="1">
+      <c r="C52" s="12" t="str">
+        <f t="shared" si="106"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D52" s="12" t="str">
         <f t="shared" si="85"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="P50" s="12" t="str">
+      <c r="E52" s="12" t="str">
+        <f t="shared" si="107"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F52" s="12" t="str">
         <f t="shared" si="86"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Q50" s="12" t="str">
+      <c r="G52" s="12" t="str">
         <f t="shared" si="87"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="R50" s="12" t="str">
+      <c r="H52" s="12" t="str">
         <f t="shared" si="88"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="S50" s="12" t="str">
+      <c r="I52" s="12" t="str">
+        <f t="shared" si="108"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="J52" s="12" t="str">
         <f t="shared" si="89"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="T50" s="12" t="str">
+      <c r="K52" s="12" t="str">
         <f t="shared" si="90"/>
-        <v>G[22][1] = (Matric[4][2]==1?((Matric[3][2]==1)?1:0):0),</v>
-      </c>
-      <c r="U50" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L52" s="12" t="str">
         <f t="shared" si="91"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="V50" s="12" t="str">
+      <c r="M52" s="12" t="str">
         <f t="shared" si="92"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="W50" s="12" t="str">
+      <c r="N52" s="12" t="str">
         <f t="shared" si="93"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="X50" s="12" t="str">
+      <c r="O52" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>G[22][1] = (Matric[4][2]==1?((Matric[4][1]==1)?1:0):0),</v>
-      </c>
-      <c r="Y50" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="P52" s="12" t="str">
         <f t="shared" si="95"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="Z50" s="12" t="str">
+      <c r="Q52" s="12" t="str">
         <f t="shared" si="96"/>
-        <v>G[22][1] = (Matric[4][2]==1?((Matric[4][3]==1)?1:0):0),</v>
-      </c>
-      <c r="AA50" s="12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="R52" s="12" t="str">
         <f t="shared" si="97"/>
         <v xml:space="preserve"> </v>
       </c>
-    </row>
-    <row r="51" spans="3:27" ht="14.25" customHeight="1">
-      <c r="C51" s="12" t="str">
+      <c r="S52" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D51" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E51" s="12" t="str">
+      <c r="T52" s="12" t="str">
         <f t="shared" si="99"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="F51" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G51" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H51" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I51" s="12" t="str">
+      <c r="U52" s="12" t="str">
+        <f t="shared" si="109"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="V52" s="12" t="str">
         <f t="shared" si="100"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J51" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K51" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L51" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M51" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N51" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O51" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P51" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q51" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R51" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S51" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T51" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U51" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v>G[23][1] = (Matric[4][3]==1?((Matric[3][3]==1)?1:0):0),</v>
-      </c>
-      <c r="V51" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="W51" s="12" t="str">
-        <f t="shared" si="93"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="X51" s="12" t="str">
-        <f t="shared" si="94"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Y51" s="12" t="str">
-        <f t="shared" si="95"/>
-        <v>G[23][1] = (Matric[4][3]==1?((Matric[4][2]==1)?1:0):0),</v>
-      </c>
-      <c r="Z51" s="12" t="str">
-        <f t="shared" si="96"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="AA51" s="12" t="str">
-        <f t="shared" si="97"/>
-        <v>G[23][1] = (Matric[4][3]==1?((Matric[4][4]==1)?1:0):0),</v>
-      </c>
-    </row>
-    <row r="52" spans="3:27" ht="14.25" customHeight="1">
-      <c r="C52" s="12" t="str">
-        <f t="shared" si="98"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D52" s="12" t="str">
-        <f t="shared" si="76"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E52" s="12" t="str">
-        <f t="shared" si="99"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F52" s="12" t="str">
-        <f t="shared" si="77"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="G52" s="12" t="str">
-        <f t="shared" si="78"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="H52" s="12" t="str">
-        <f t="shared" si="79"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="I52" s="12" t="str">
-        <f t="shared" si="100"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="J52" s="12" t="str">
-        <f t="shared" si="80"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K52" s="12" t="str">
-        <f t="shared" si="81"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L52" s="12" t="str">
-        <f t="shared" si="82"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M52" s="12" t="str">
-        <f t="shared" si="83"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="N52" s="12" t="str">
-        <f t="shared" si="84"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="O52" s="12" t="str">
-        <f t="shared" si="85"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="P52" s="12" t="str">
-        <f t="shared" si="86"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="Q52" s="12" t="str">
-        <f t="shared" si="87"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="R52" s="12" t="str">
-        <f t="shared" si="88"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="S52" s="12" t="str">
-        <f t="shared" si="89"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="T52" s="12" t="str">
-        <f t="shared" si="90"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="U52" s="12" t="str">
-        <f t="shared" si="91"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="V52" s="12" t="str">
-        <f t="shared" si="92"/>
-        <v>G[24][1] = (Matric[4][4]==1?((Matric[3][4]==1)?1:0):0),</v>
+        <v>G[24][19] = (Matric[4][4]==1?((Matric[3][4]==1)?1:0):0),</v>
       </c>
       <c r="W52" s="12" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="101"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="X52" s="12" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="102"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Y52" s="12" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="103"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="Z52" s="12" t="str">
-        <f t="shared" si="96"/>
-        <v>G[24][1] = (Matric[4][4]==1?((Matric[4][3]==1)?1:0):0),</v>
+        <f t="shared" si="104"/>
+        <v>G[24][23] = (Matric[4][4]==1?((Matric[4][3]==1)?1:0):0),</v>
       </c>
       <c r="AA52" s="12" t="str">
-        <f t="shared" si="97"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="54" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="55" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="56" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="57" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="58" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="59" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="60" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="61" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="62" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="63" spans="3:27" ht="14.25" customHeight="1"/>
-    <row r="64" spans="3:27" ht="14.25" customHeight="1"/>
+        <f t="shared" si="105"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="54" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="55" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="56" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="57" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="58" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="59" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="60" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="61" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="62" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="63" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="64" spans="3:28" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phann\Documents\GitHub\STM32-Discovery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS CAO HUY\Documents\GitHub\STM32-Discovery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41923B6-8876-49B6-8586-D53E48A279D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A6FB2C-D330-461B-B7AB-8CD3F6DD012D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>https://cachhoc.net/2013/10/13/thuat-toan-tim-duong-di-ngan-nhat-dijkstra-floyd/</t>
   </si>
@@ -241,6 +249,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[3][0]==1)?1:0):0),</t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[3][2]==1)?1:0):0),</t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[4][1]==1)?1:0):0),</t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[2][1]==1)?1:0):0);</t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[3][0]==1)?1:0):0);</t>
+  </si>
+  <si>
+    <t>(Matric[3][1]==1?((Matric[3][2]==1)?1:0):0);</t>
   </si>
 </sst>
 </file>
@@ -34050,17 +34076,19 @@
   <dimension ref="A1:BB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA47" sqref="AA47:AA51"/>
+      <selection pane="bottomRight" activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.125" customWidth="1"/>
-    <col min="2" max="2" width="2.625" customWidth="1"/>
-    <col min="3" max="27" width="7.75" customWidth="1"/>
+    <col min="2" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="18" width="7.75" customWidth="1"/>
+    <col min="19" max="19" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="7.75" customWidth="1"/>
     <col min="28" max="28" width="2.625" customWidth="1"/>
     <col min="29" max="35" width="8.625" customWidth="1"/>
   </cols>
@@ -35620,9 +35648,8 @@
         <f t="shared" ref="R13:R15" si="35">IF(AM43=1,IF(AL43=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
-      <c r="S13" s="5" t="str">
-        <f>IF(AF5=1,IF(AF4=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="S13" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="T13" s="4" t="str">
         <f t="shared" ref="T13:AA13" si="36">IF(AO43=1,IF(AN43=1,"1,","0,"),"0,")</f>
@@ -36164,9 +36191,8 @@
         <f t="shared" si="50"/>
         <v>0,</v>
       </c>
-      <c r="S17" s="4" t="str">
-        <f>IF(AE5=1,IF(AF5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="S17" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="T17" s="4" t="str">
         <f t="shared" ref="T17:V17" si="51">IF(AO47=1,IF(AN47=1,"1,","0,"),"0,")</f>
@@ -36284,7 +36310,7 @@
       </c>
       <c r="N18" s="4" t="str">
         <f>$S$13</f>
-        <v>0,</v>
+        <v>(Matric[3][1]==1?((Matric[2][1]==1)?1:0):0);</v>
       </c>
       <c r="O18" s="4" t="str">
         <f t="shared" si="46"/>
@@ -36298,17 +36324,15 @@
         <f t="shared" si="54"/>
         <v>0,</v>
       </c>
-      <c r="R18" s="4" t="str">
-        <f>IF(AE5=1,IF(AF5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="R18" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="S18" s="4" t="str">
         <f>IF(AN48=1,IF(AM48=1,"1,","0,"),"0,")</f>
         <v>0,</v>
       </c>
-      <c r="T18" s="4" t="str">
-        <f>IF(AF5=1,IF(AG5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="T18" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="U18" s="4" t="str">
         <f t="shared" ref="U18:W18" si="55">IF(AP48=1,IF(AO48=1,"1,","0,"),"0,")</f>
@@ -36322,9 +36346,8 @@
         <f t="shared" si="55"/>
         <v>0,</v>
       </c>
-      <c r="X18" s="5" t="str">
-        <f>IF(AF6=1,IF(AF5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="X18" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="Y18" s="4" t="str">
         <f t="shared" ref="Y18:AA18" si="56">IF(AT48=1,IF(AS48=1,"1,","0,"),"0,")</f>
@@ -36440,9 +36463,8 @@
         <f t="shared" si="58"/>
         <v>0,</v>
       </c>
-      <c r="S19" s="4" t="str">
-        <f>IF(AG5=1,IF(AF5=1,"1,","0,"),"0,")</f>
-        <v>0,</v>
+      <c r="S19" s="9" t="s">
+        <v>78</v>
       </c>
       <c r="T19" s="4" t="str">
         <f>IF(AO49=1,IF(AN49=1,"1,","0,"),"0,")</f>
@@ -36987,7 +37009,7 @@
       </c>
       <c r="S23" s="4" t="str">
         <f>$X$18</f>
-        <v>0,</v>
+        <v>(Matric[3][1]==1?((Matric[4][1]==1)?1:0):0),</v>
       </c>
       <c r="T23" s="4" t="str">
         <f t="shared" ref="T23:V23" si="77">IF(AO53=1,IF(AN53=1,"1,","0,"),"0,")</f>
@@ -37563,6 +37585,9 @@
       <c r="BB27" s="13"/>
     </row>
     <row r="28" spans="1:54" ht="14.25" customHeight="1">
+      <c r="B28">
+        <v>0</v>
+      </c>
       <c r="C28" s="12" t="str">
         <f>IF(C2&lt;&gt;"0,","G["&amp;AC2&amp;"][1] = "&amp;C2&amp;""," ")</f>
         <v xml:space="preserve"> </v>
@@ -37690,6 +37715,9 @@
       <c r="BB28" s="13"/>
     </row>
     <row r="29" spans="1:54" ht="14.25" customHeight="1">
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29" s="12" t="str">
         <f>IF(C3&lt;&gt;"0,","G["&amp;AC3&amp;"][0] = "&amp;C3&amp;""," ")</f>
         <v>G[1][0] = (Matric[0][1]==1?((Matric[0][0]==1)?1:0):0),</v>
@@ -37817,6 +37845,9 @@
       <c r="BB29" s="13"/>
     </row>
     <row r="30" spans="1:54" ht="14.25" customHeight="1">
+      <c r="B30">
+        <v>2</v>
+      </c>
       <c r="C30" s="12" t="str">
         <f t="shared" ref="C30:C52" si="106">IF(C4&lt;&gt;"0,","G["&amp;AC4&amp;"][1] = "&amp;C4&amp;""," ")</f>
         <v xml:space="preserve"> </v>
@@ -37944,6 +37975,9 @@
       <c r="BB30" s="13"/>
     </row>
     <row r="31" spans="1:54" ht="14.25" customHeight="1">
+      <c r="B31">
+        <v>3</v>
+      </c>
       <c r="C31" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38071,6 +38105,9 @@
       <c r="BB31" s="13"/>
     </row>
     <row r="32" spans="1:54" ht="14.25" customHeight="1">
+      <c r="B32">
+        <v>4</v>
+      </c>
       <c r="C32" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38197,7 +38234,10 @@
       <c r="BA32" s="13"/>
       <c r="BB32" s="13"/>
     </row>
-    <row r="33" spans="3:54" ht="14.25" customHeight="1">
+    <row r="33" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B33">
+        <v>5</v>
+      </c>
       <c r="C33" s="12" t="str">
         <f>IF(C7&lt;&gt;"0,","G["&amp;AC7&amp;"][0] = "&amp;C7&amp;""," ")</f>
         <v>G[5][0] = (Matric[0][0]==1?((Matric[1][0]==1)?1:0):0),</v>
@@ -38324,7 +38364,10 @@
       <c r="BA33" s="13"/>
       <c r="BB33" s="13"/>
     </row>
-    <row r="34" spans="3:54" ht="14.25" customHeight="1">
+    <row r="34" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B34">
+        <v>6</v>
+      </c>
       <c r="C34" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38451,7 +38494,10 @@
       <c r="BA34" s="13"/>
       <c r="BB34" s="13"/>
     </row>
-    <row r="35" spans="3:54" ht="14.25" customHeight="1">
+    <row r="35" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B35">
+        <v>7</v>
+      </c>
       <c r="C35" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38554,7 +38600,10 @@
       </c>
       <c r="AD35" s="2"/>
     </row>
-    <row r="36" spans="3:54" ht="14.25" customHeight="1">
+    <row r="36" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B36">
+        <v>8</v>
+      </c>
       <c r="C36" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38656,7 +38705,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="37" spans="3:54" ht="14.25" customHeight="1">
+    <row r="37" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B37">
+        <v>9</v>
+      </c>
       <c r="C37" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38758,7 +38810,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="38" spans="3:54" ht="14.25" customHeight="1">
+    <row r="38" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B38">
+        <v>10</v>
+      </c>
       <c r="C38" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38860,7 +38915,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="39" spans="3:54" ht="14.25" customHeight="1">
+    <row r="39" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B39">
+        <v>11</v>
+      </c>
       <c r="C39" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -38926,8 +38984,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S39" s="12" t="str">
-        <f t="shared" si="98"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(S13&lt;&gt;"0,","G["&amp;AC13&amp;"][16] = "&amp;S13&amp;""," ")</f>
+        <v>G[11][16] = (Matric[3][1]==1?((Matric[2][1]==1)?1:0):0);</v>
       </c>
       <c r="T39" s="12" t="str">
         <f t="shared" si="99"/>
@@ -38962,7 +39020,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="40" spans="3:54" ht="14.25" customHeight="1">
+    <row r="40" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B40">
+        <v>12</v>
+      </c>
       <c r="C40" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39064,7 +39125,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="41" spans="3:54" ht="14.25" customHeight="1">
+    <row r="41" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B41">
+        <v>13</v>
+      </c>
       <c r="C41" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39166,7 +39230,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="42" spans="3:54" ht="14.25" customHeight="1">
+    <row r="42" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B42">
+        <v>14</v>
+      </c>
       <c r="C42" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39268,7 +39335,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="43" spans="3:54" ht="14.25" customHeight="1">
+    <row r="43" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B43">
+        <v>15</v>
+      </c>
       <c r="C43" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39334,8 +39404,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S43" s="12" t="str">
-        <f t="shared" si="98"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(S17&lt;&gt;"0,","G["&amp;AC17&amp;"][16] = "&amp;S17&amp;""," ")</f>
+        <v>G[15][16] = (Matric[3][1]==1?((Matric[3][0]==1)?1:0):0);</v>
       </c>
       <c r="T43" s="12" t="str">
         <f t="shared" si="99"/>
@@ -39370,7 +39440,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="44" spans="3:54" ht="14.25" customHeight="1">
+    <row r="44" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B44">
+        <v>16</v>
+      </c>
       <c r="C44" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39416,8 +39489,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="N44" s="12" t="str">
-        <f t="shared" si="93"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(N18&lt;&gt;"0,","G["&amp;AC18&amp;"][11] = "&amp;N18&amp;""," ")</f>
+        <v>G[16][11] = (Matric[3][1]==1?((Matric[2][1]==1)?1:0):0);</v>
       </c>
       <c r="O44" s="12" t="str">
         <f t="shared" si="94"/>
@@ -39432,16 +39505,16 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="R44" s="12" t="str">
-        <f t="shared" si="97"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(R18&lt;&gt;"0,","G["&amp;AC18&amp;"][15] = "&amp;R18&amp;""," ")</f>
+        <v>G[16][15] = (Matric[3][1]==1?((Matric[3][0]==1)?1:0):0),</v>
       </c>
       <c r="S44" s="12" t="str">
         <f t="shared" si="98"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="T44" s="12" t="str">
-        <f t="shared" si="99"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(T18&lt;&gt;"0,","G["&amp;AC18&amp;"][17] = "&amp;T18&amp;""," ")</f>
+        <v>G[16][17] = (Matric[3][1]==1?((Matric[3][2]==1)?1:0):0),</v>
       </c>
       <c r="U44" s="12" t="str">
         <f t="shared" si="109"/>
@@ -39457,7 +39530,7 @@
       </c>
       <c r="X44" s="12" t="str">
         <f t="shared" si="102"/>
-        <v xml:space="preserve"> </v>
+        <v>G[16][21] = (Matric[3][1]==1?((Matric[4][1]==1)?1:0):0),</v>
       </c>
       <c r="Y44" s="12" t="str">
         <f t="shared" si="103"/>
@@ -39472,7 +39545,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="45" spans="3:54" ht="14.25" customHeight="1">
+    <row r="45" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B45">
+        <v>17</v>
+      </c>
       <c r="C45" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39538,8 +39614,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S45" s="12" t="str">
-        <f t="shared" si="98"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(S19&lt;&gt;"0,","G["&amp;AC19&amp;"][16] = "&amp;S19&amp;""," ")</f>
+        <v>G[17][16] = (Matric[3][1]==1?((Matric[3][2]==1)?1:0):0);</v>
       </c>
       <c r="T45" s="12" t="str">
         <f t="shared" si="99"/>
@@ -39574,7 +39650,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="46" spans="3:54" ht="14.25" customHeight="1">
+    <row r="46" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B46">
+        <v>18</v>
+      </c>
       <c r="C46" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39676,7 +39755,10 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="47" spans="3:54" ht="14.25" customHeight="1">
+    <row r="47" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B47">
+        <v>19</v>
+      </c>
       <c r="C47" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39781,7 +39863,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="3:54" ht="14.25" customHeight="1">
+    <row r="48" spans="2:54" ht="14.25" customHeight="1">
+      <c r="B48">
+        <v>20</v>
+      </c>
       <c r="C48" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39886,7 +39971,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="3:28" ht="14.25" customHeight="1">
+    <row r="49" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B49">
+        <v>21</v>
+      </c>
       <c r="C49" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -39952,8 +40040,8 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="S49" s="12" t="str">
-        <f t="shared" si="98"/>
-        <v xml:space="preserve"> </v>
+        <f>IF(S23&lt;&gt;"0,","G["&amp;AC23&amp;"][16] = "&amp;S23&amp;""," ")</f>
+        <v>G[21][16] = (Matric[3][1]==1?((Matric[4][1]==1)?1:0):0),</v>
       </c>
       <c r="T49" s="12" t="str">
         <f t="shared" si="99"/>
@@ -39991,7 +40079,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="3:28" ht="14.25" customHeight="1">
+    <row r="50" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B50">
+        <v>22</v>
+      </c>
       <c r="C50" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -40096,7 +40187,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="51" spans="3:28" ht="14.25" customHeight="1">
+    <row r="51" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B51">
+        <v>23</v>
+      </c>
       <c r="C51" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -40201,7 +40295,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="3:28" ht="14.25" customHeight="1">
+    <row r="52" spans="2:28" ht="14.25" customHeight="1">
+      <c r="B52">
+        <v>24</v>
+      </c>
       <c r="C52" s="12" t="str">
         <f t="shared" si="106"/>
         <v xml:space="preserve"> </v>
@@ -40303,18 +40400,18 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="53" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="54" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="55" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="56" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="57" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="58" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="59" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="60" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="61" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="62" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="63" spans="3:28" ht="14.25" customHeight="1"/>
-    <row r="64" spans="3:28" ht="14.25" customHeight="1"/>
+    <row r="53" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="54" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="55" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="56" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="57" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="58" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="59" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="60" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="61" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="62" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="63" spans="2:28" ht="14.25" customHeight="1"/>
+    <row r="64" spans="2:28" ht="14.25" customHeight="1"/>
     <row r="65" ht="14.25" customHeight="1"/>
     <row r="66" ht="14.25" customHeight="1"/>
     <row r="67" ht="14.25" customHeight="1"/>
